--- a/仕様書/仕様書.xlsx
+++ b/仕様書/仕様書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="22935" windowHeight="9795" activeTab="3"/>
+    <workbookView windowWidth="22935" windowHeight="9795"/>
   </bookViews>
   <sheets>
     <sheet name="敵" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
   <si>
     <t>敵の基本行動</t>
   </si>
   <si>
     <t>敵は自動歩行。ブロックに当たると反転し歩く。それを繰り返す。</t>
+  </si>
+  <si>
+    <t>自動歩行中、段差があっても落ちずに反転し歩く。</t>
   </si>
   <si>
     <t>！</t>
@@ -196,19 +199,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,6 +238,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="16"/>
       <color theme="1"/>
@@ -264,8 +267,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,6 +319,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -287,7 +335,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,6 +343,30 @@
     <font>
       <b/>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -309,54 +381,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -364,22 +391,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,14 +406,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -435,7 +438,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,49 +600,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,31 +612,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,92 +622,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="42">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -1013,10 +1016,27 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="medium">
-        <color theme="4"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1060,17 +1080,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1084,13 +1098,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1109,6 +1127,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1117,149 +1146,149 @@
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="35" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="36" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1302,100 +1331,100 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
@@ -1446,16 +1475,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1825,15 +1905,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>87924</xdr:colOff>
+      <xdr:colOff>87092</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>73270</xdr:rowOff>
+      <xdr:rowOff>62767</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>65943</xdr:colOff>
+      <xdr:colOff>65111</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>109904</xdr:rowOff>
+      <xdr:rowOff>99401</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1842,8 +1922,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="5487670" y="1530985"/>
-          <a:ext cx="227330" cy="358775"/>
+          <a:off x="5486400" y="1520190"/>
+          <a:ext cx="227330" cy="359410"/>
         </a:xfrm>
         <a:prstGeom prst="uturnArrow">
           <a:avLst/>
@@ -2003,7 +2083,7 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>163175</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>182740</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="770792" cy="426745"/>
@@ -2054,7 +2134,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2639060" y="4754245"/>
+          <a:off x="2639060" y="6659245"/>
           <a:ext cx="770890" cy="426720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2068,13 +2148,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>7327</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>87923</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>124558</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -2084,7 +2164,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="2286000" y="4959985"/>
+          <a:off x="2286000" y="6864985"/>
           <a:ext cx="468630" cy="117475"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -2122,7 +2202,7 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>167054</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>183172</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="770792" cy="426745"/>
@@ -2173,7 +2253,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5882005" y="4754880"/>
+          <a:off x="5882005" y="6659880"/>
           <a:ext cx="770255" cy="426720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2187,13 +2267,13 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>7327</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>87923</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>124558</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -2203,7 +2283,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="6477000" y="4959985"/>
+          <a:off x="6477000" y="6864985"/>
           <a:ext cx="468630" cy="117475"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -2241,13 +2321,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>21981</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>58615</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>17585</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>128954</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -2257,7 +2337,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4022090" y="3677920"/>
+          <a:off x="4022090" y="5582920"/>
           <a:ext cx="757555" cy="260985"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -2295,7 +2375,7 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>175338</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>9237</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="770792" cy="426745"/>
@@ -2346,7 +2426,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6080760" y="7819390"/>
+          <a:off x="6080760" y="9724390"/>
           <a:ext cx="770255" cy="426720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2360,7 +2440,7 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>21632</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>42093</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="920376" cy="345544"/>
@@ -2425,7 +2505,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="10312236">
-          <a:off x="6689090" y="11090910"/>
+          <a:off x="6689090" y="12995910"/>
           <a:ext cx="920115" cy="345440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2439,7 +2519,7 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>117358</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>954</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="770792" cy="426745"/>
@@ -2490,7 +2570,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2021840" y="7811135"/>
+          <a:off x="2021840" y="9716135"/>
           <a:ext cx="770890" cy="426720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2504,13 +2584,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>33618</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>156882</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>29222</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>36721</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -2520,7 +2600,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4033520" y="6633845"/>
+          <a:off x="4033520" y="8538845"/>
           <a:ext cx="758190" cy="260350"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -2558,7 +2638,7 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>182218</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>182217</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="770792" cy="426745"/>
@@ -2610,7 +2690,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3039110" y="11040110"/>
+          <a:off x="3039110" y="12945110"/>
           <a:ext cx="770890" cy="426720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2624,7 +2704,7 @@
     <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>165652</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>173935</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="770792" cy="426745"/>
@@ -2676,7 +2756,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="7213600" y="11031855"/>
+          <a:off x="7213600" y="12936855"/>
           <a:ext cx="770890" cy="426720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2690,13 +2770,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>186018</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>185043</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>181622</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>64882</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -2706,7 +2786,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4185920" y="9900285"/>
+          <a:off x="4185920" y="11805285"/>
           <a:ext cx="758190" cy="260985"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -2744,7 +2824,7 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>94163</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>59015</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="920376" cy="345544"/>
@@ -2809,7 +2889,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="10312236">
-          <a:off x="5427980" y="7868920"/>
+          <a:off x="5427980" y="9773920"/>
           <a:ext cx="920115" cy="346075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2823,13 +2903,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>16565</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>16565</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>12169</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>86904</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -2839,7 +2919,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="2493010" y="7827010"/>
+          <a:off x="2493010" y="9732010"/>
           <a:ext cx="757555" cy="260350"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -2877,13 +2957,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>57978</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>24848</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>139513</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>145245</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2907,7 +2987,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1200785" y="4787265"/>
+          <a:off x="1200785" y="6692265"/>
           <a:ext cx="271780" cy="310515"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2921,13 +3001,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>72886</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>72887</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>154421</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>2784</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2951,7 +3031,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5406390" y="7882890"/>
+          <a:off x="5406390" y="9787890"/>
           <a:ext cx="272415" cy="311150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2965,13 +3045,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>92765</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>43070</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>174300</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>163467</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2995,7 +3075,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1235710" y="7853045"/>
+          <a:off x="1235710" y="9758045"/>
           <a:ext cx="271780" cy="311150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3009,13 +3089,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>29818</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>119635</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>150215</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3039,7 +3119,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5372100" y="4791710"/>
+          <a:off x="5372100" y="6696710"/>
           <a:ext cx="271780" cy="311150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3053,7 +3133,7 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>81174</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>59121</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="272035" cy="310897"/>
@@ -3078,7 +3158,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2557145" y="11108055"/>
+          <a:off x="2557145" y="13013055"/>
           <a:ext cx="272415" cy="310515"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3092,7 +3172,7 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>29936</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="272035" cy="310897"/>
@@ -3117,7 +3197,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6724650" y="11078845"/>
+          <a:off x="6724650" y="12983845"/>
           <a:ext cx="271780" cy="310515"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3131,7 +3211,7 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>87743</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>39414</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="272035" cy="310897"/>
@@ -3156,7 +3236,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2564130" y="13945870"/>
+          <a:off x="2564130" y="15850870"/>
           <a:ext cx="271780" cy="310515"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3170,13 +3250,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>183932</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>131379</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>159707</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>44259</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3200,7 +3280,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3041015" y="13846810"/>
+          <a:off x="3041015" y="15751810"/>
           <a:ext cx="356870" cy="484505"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3214,7 +3294,7 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>87743</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>39414</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="272035" cy="310897"/>
@@ -3239,7 +3319,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6755130" y="13945870"/>
+          <a:off x="6755130" y="15850870"/>
           <a:ext cx="271780" cy="310515"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3253,7 +3333,7 @@
     <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>183932</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>131379</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="356775" cy="484380"/>
@@ -3278,7 +3358,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7232015" y="13846810"/>
+          <a:off x="7232015" y="15751810"/>
           <a:ext cx="356870" cy="484505"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3292,13 +3372,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>52552</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>6569</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>48156</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>76908</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -3308,7 +3388,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4243070" y="12769850"/>
+          <a:off x="4243070" y="14674850"/>
           <a:ext cx="757555" cy="260985"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -3346,13 +3426,13 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>98535</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>118240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
       <xdr:colOff>124810</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>32845</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3376,7 +3456,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6765925" y="13834110"/>
+          <a:off x="6765925" y="15739110"/>
           <a:ext cx="788035" cy="485775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3390,7 +3470,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>48329</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>52552</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="272035" cy="310897"/>
@@ -3415,7 +3495,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2334260" y="17006570"/>
+          <a:off x="2334260" y="18911570"/>
           <a:ext cx="271780" cy="311150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3429,13 +3509,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>183931</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>64219</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>30146</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3459,7 +3539,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3048000" y="16947515"/>
+          <a:off x="3048000" y="18852515"/>
           <a:ext cx="445135" cy="417830"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3473,7 +3553,7 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>48329</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>52552</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="272035" cy="310897"/>
@@ -3498,7 +3578,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6525260" y="17006570"/>
+          <a:off x="6525260" y="18911570"/>
           <a:ext cx="271780" cy="311150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3512,7 +3592,7 @@
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>183931</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="445219" cy="417715"/>
@@ -3537,7 +3617,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7239000" y="16947515"/>
+          <a:off x="7239000" y="18852515"/>
           <a:ext cx="445135" cy="417830"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3551,13 +3631,13 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>39414</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>13138</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>131380</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>45983</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -3567,7 +3647,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6706870" y="16776700"/>
+          <a:off x="6706870" y="18681700"/>
           <a:ext cx="662940" cy="223520"/>
         </a:xfrm>
         <a:prstGeom prst="curvedDownArrow">
@@ -3609,13 +3689,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>183931</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>179535</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>70339</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -3625,7 +3705,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4184015" y="15811500"/>
+          <a:off x="4184015" y="17716500"/>
           <a:ext cx="757555" cy="260350"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -3663,7 +3743,7 @@
     <xdr:from>
       <xdr:col>56</xdr:col>
       <xdr:colOff>15485</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>32845</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="272035" cy="310897"/>
@@ -3688,7 +3768,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10654665" y="16986885"/>
+          <a:off x="10654665" y="18891885"/>
           <a:ext cx="271780" cy="311150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3702,7 +3782,7 @@
     <xdr:from>
       <xdr:col>56</xdr:col>
       <xdr:colOff>26276</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>170793</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="445219" cy="417715"/>
@@ -3727,7 +3807,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10665460" y="16934180"/>
+          <a:off x="10665460" y="18839180"/>
           <a:ext cx="445135" cy="417830"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3741,13 +3821,13 @@
     <xdr:from>
       <xdr:col>57</xdr:col>
       <xdr:colOff>39414</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>13138</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>60</xdr:col>
       <xdr:colOff>131380</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>45983</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -3757,7 +3837,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="10869295" y="16776700"/>
+          <a:off x="10869295" y="18681700"/>
           <a:ext cx="662940" cy="223520"/>
         </a:xfrm>
         <a:prstGeom prst="curvedDownArrow">
@@ -3799,13 +3879,13 @@
     <xdr:from>
       <xdr:col>44</xdr:col>
       <xdr:colOff>1313</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>1314</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
       <xdr:colOff>187417</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>71653</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -3815,7 +3895,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8383270" y="15812770"/>
+          <a:off x="8383270" y="17717770"/>
           <a:ext cx="757555" cy="260350"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -3841,6 +3921,980 @@
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>174381</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>183271</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>46354</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId2">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="811" b="100000" l="10000" r="90000">
+                      <a14:backgroundMark x1="32656" y1="53784" x2="32656" y2="53784"/>
+                      <a14:backgroundMark x1="54688" y1="78919" x2="54688" y2="78919"/>
+                      <a14:backgroundMark x1="32813" y1="60000" x2="32813" y2="60000"/>
+                      <a14:backgroundMark x1="33281" y1="56216" x2="33281" y2="56216"/>
+                      <a14:backgroundMark x1="29844" y1="85676" x2="29844" y2="85676"/>
+                      <a14:backgroundMark x1="43281" y1="91892" x2="43281" y2="91892"/>
+                      <a14:backgroundMark x1="39844" y1="91622" x2="39844" y2="91622"/>
+                      <a14:backgroundMark x1="39688" y1="91622" x2="38125" y2="91892"/>
+                      <a14:backgroundMark x1="43594" y1="91081" x2="45781" y2="91892"/>
+                      <a14:backgroundMark x1="45469" y1="84054" x2="54375" y2="83784"/>
+                      <a14:backgroundMark x1="56250" y1="94324" x2="50625" y2="83784"/>
+                      <a14:backgroundMark x1="75781" y1="66486" x2="75469" y2="74054"/>
+                      <a14:backgroundMark x1="70156" y1="74324" x2="70156" y2="74324"/>
+                      <a14:backgroundMark x1="58750" y1="96757" x2="76406" y2="92162"/>
+                      <a14:backgroundMark x1="55000" y1="94595" x2="64375" y2="93514"/>
+                      <a14:backgroundMark x1="32813" y1="45676" x2="32500" y2="64595"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2078990" y="4190365"/>
+          <a:ext cx="770890" cy="427355"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>146538</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>139212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>43961</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>65943</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="右矢印 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="2051050" y="4330065"/>
+          <a:ext cx="469265" cy="116840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>78105</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>163830</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>36830</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="図 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId2">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="811" b="100000" l="10000" r="90000">
+                      <a14:backgroundMark x1="32656" y1="53784" x2="32656" y2="53784"/>
+                      <a14:backgroundMark x1="54688" y1="78919" x2="54688" y2="78919"/>
+                      <a14:backgroundMark x1="32813" y1="60000" x2="32813" y2="60000"/>
+                      <a14:backgroundMark x1="33281" y1="56216" x2="33281" y2="56216"/>
+                      <a14:backgroundMark x1="29844" y1="85676" x2="29844" y2="85676"/>
+                      <a14:backgroundMark x1="43281" y1="91892" x2="43281" y2="91892"/>
+                      <a14:backgroundMark x1="39844" y1="91622" x2="39844" y2="91622"/>
+                      <a14:backgroundMark x1="39688" y1="91622" x2="38125" y2="91892"/>
+                      <a14:backgroundMark x1="43594" y1="91081" x2="45781" y2="91892"/>
+                      <a14:backgroundMark x1="45469" y1="84054" x2="54375" y2="83784"/>
+                      <a14:backgroundMark x1="56250" y1="94324" x2="50625" y2="83784"/>
+                      <a14:backgroundMark x1="75781" y1="66486" x2="75469" y2="74054"/>
+                      <a14:backgroundMark x1="70156" y1="74324" x2="70156" y2="74324"/>
+                      <a14:backgroundMark x1="58750" y1="96757" x2="76406" y2="92162"/>
+                      <a14:backgroundMark x1="55000" y1="94595" x2="64375" y2="93514"/>
+                      <a14:backgroundMark x1="32813" y1="45676" x2="32500" y2="64595"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5602605" y="4181475"/>
+          <a:ext cx="847725" cy="427355"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>39370</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>163830</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>17780</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="図 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId2">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="811" b="100000" l="10000" r="90000">
+                      <a14:backgroundMark x1="32656" y1="53784" x2="32656" y2="53784"/>
+                      <a14:backgroundMark x1="54688" y1="78919" x2="54688" y2="78919"/>
+                      <a14:backgroundMark x1="32813" y1="60000" x2="32813" y2="60000"/>
+                      <a14:backgroundMark x1="33281" y1="56216" x2="33281" y2="56216"/>
+                      <a14:backgroundMark x1="29844" y1="85676" x2="29844" y2="85676"/>
+                      <a14:backgroundMark x1="43281" y1="91892" x2="43281" y2="91892"/>
+                      <a14:backgroundMark x1="39844" y1="91622" x2="39844" y2="91622"/>
+                      <a14:backgroundMark x1="39688" y1="91622" x2="38125" y2="91892"/>
+                      <a14:backgroundMark x1="43594" y1="91081" x2="45781" y2="91892"/>
+                      <a14:backgroundMark x1="45469" y1="84054" x2="54375" y2="83784"/>
+                      <a14:backgroundMark x1="56250" y1="94324" x2="50625" y2="83784"/>
+                      <a14:backgroundMark x1="75781" y1="66486" x2="75469" y2="74054"/>
+                      <a14:backgroundMark x1="70156" y1="74324" x2="70156" y2="74324"/>
+                      <a14:backgroundMark x1="58750" y1="96757" x2="76406" y2="92162"/>
+                      <a14:backgroundMark x1="55000" y1="94595" x2="64375" y2="93514"/>
+                      <a14:backgroundMark x1="32813" y1="45676" x2="32500" y2="64595"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10678795" y="4162425"/>
+          <a:ext cx="695960" cy="427355"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>24765</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>43473</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>141996</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="右矢印 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="120000">
+          <a:off x="10623550" y="4025265"/>
+          <a:ext cx="440055" cy="116840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>124460</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>102870</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="U ターン矢印 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="5715000" y="3810000"/>
+          <a:ext cx="227330" cy="359410"/>
+        </a:xfrm>
+        <a:prstGeom prst="uturnArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>186055</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>70485</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="右矢印 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4191000" y="3048000"/>
+          <a:ext cx="757555" cy="260985"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>186055</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>70485</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="右矢印 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8382000" y="3048000"/>
+          <a:ext cx="757555" cy="260985"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
@@ -23214,10 +24268,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A2:CA94"/>
+  <dimension ref="A2:CA104"/>
   <sheetViews>
-    <sheetView topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A28" sqref="$A28:$XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15" customHeight="1"/>
@@ -23978,47 +25032,243 @@
     <row r="15" customHeight="1" spans="23:23">
       <c r="W15" s="1"/>
     </row>
-    <row r="19" customHeight="1" spans="3:79">
-      <c r="C19" s="46"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="47"/>
-      <c r="Q19" s="47"/>
-      <c r="R19" s="47"/>
-      <c r="S19" s="47"/>
-      <c r="T19" s="47"/>
-      <c r="U19" s="47"/>
-      <c r="V19" s="55"/>
-      <c r="Y19" s="46"/>
-      <c r="Z19" s="47"/>
-      <c r="AA19" s="47"/>
-      <c r="AB19" s="47"/>
-      <c r="AC19" s="47"/>
-      <c r="AD19" s="47"/>
-      <c r="AE19" s="47"/>
-      <c r="AF19" s="47"/>
-      <c r="AG19" s="47"/>
-      <c r="AH19" s="47"/>
-      <c r="AI19" s="47"/>
-      <c r="AJ19" s="47"/>
-      <c r="AK19" s="47"/>
-      <c r="AL19" s="47"/>
-      <c r="AM19" s="47"/>
-      <c r="AN19" s="47"/>
-      <c r="AO19" s="47"/>
-      <c r="AP19" s="47"/>
-      <c r="AQ19" s="47"/>
-      <c r="AR19" s="55"/>
+    <row r="16" customHeight="1" spans="3:66">
+      <c r="C16" s="62"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="63"/>
+      <c r="S16" s="63"/>
+      <c r="T16" s="63"/>
+      <c r="U16" s="63"/>
+      <c r="V16" s="78"/>
+      <c r="Y16" s="62"/>
+      <c r="Z16" s="63"/>
+      <c r="AA16" s="63"/>
+      <c r="AB16" s="63"/>
+      <c r="AC16" s="63"/>
+      <c r="AD16" s="63"/>
+      <c r="AE16" s="63"/>
+      <c r="AF16" s="63"/>
+      <c r="AG16" s="63"/>
+      <c r="AH16" s="63"/>
+      <c r="AI16" s="63"/>
+      <c r="AJ16" s="63"/>
+      <c r="AK16" s="63"/>
+      <c r="AL16" s="63"/>
+      <c r="AM16" s="63"/>
+      <c r="AN16" s="63"/>
+      <c r="AO16" s="63"/>
+      <c r="AP16" s="63"/>
+      <c r="AQ16" s="63"/>
+      <c r="AR16" s="78"/>
+      <c r="AU16" s="62"/>
+      <c r="AV16" s="63"/>
+      <c r="AW16" s="63"/>
+      <c r="AX16" s="63"/>
+      <c r="AY16" s="63"/>
+      <c r="AZ16" s="63"/>
+      <c r="BA16" s="63"/>
+      <c r="BB16" s="63"/>
+      <c r="BC16" s="63"/>
+      <c r="BD16" s="63"/>
+      <c r="BE16" s="63"/>
+      <c r="BF16" s="63"/>
+      <c r="BG16" s="63"/>
+      <c r="BH16" s="63"/>
+      <c r="BI16" s="63"/>
+      <c r="BJ16" s="63"/>
+      <c r="BK16" s="63"/>
+      <c r="BL16" s="63"/>
+      <c r="BM16" s="63"/>
+      <c r="BN16" s="78"/>
+    </row>
+    <row r="17" customHeight="1" spans="3:66">
+      <c r="C17" s="64"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="65"/>
+      <c r="M17" s="65"/>
+      <c r="N17" s="65"/>
+      <c r="O17" s="65"/>
+      <c r="P17" s="65"/>
+      <c r="Q17" s="65"/>
+      <c r="R17" s="65"/>
+      <c r="S17" s="65"/>
+      <c r="T17" s="65"/>
+      <c r="U17" s="65"/>
+      <c r="V17" s="79"/>
+      <c r="Y17" s="64"/>
+      <c r="Z17" s="65"/>
+      <c r="AA17" s="65"/>
+      <c r="AB17" s="65"/>
+      <c r="AC17" s="65"/>
+      <c r="AD17" s="65"/>
+      <c r="AE17" s="65"/>
+      <c r="AF17" s="65"/>
+      <c r="AG17" s="65"/>
+      <c r="AH17" s="65"/>
+      <c r="AI17" s="65"/>
+      <c r="AJ17" s="65"/>
+      <c r="AK17" s="65"/>
+      <c r="AL17" s="65"/>
+      <c r="AM17" s="65"/>
+      <c r="AN17" s="65"/>
+      <c r="AO17" s="65"/>
+      <c r="AP17" s="65"/>
+      <c r="AQ17" s="65"/>
+      <c r="AR17" s="79"/>
+      <c r="AU17" s="64"/>
+      <c r="AV17" s="65"/>
+      <c r="AW17" s="65"/>
+      <c r="AX17" s="65"/>
+      <c r="AY17" s="65"/>
+      <c r="AZ17" s="65"/>
+      <c r="BA17" s="65"/>
+      <c r="BB17" s="65"/>
+      <c r="BC17" s="65"/>
+      <c r="BD17" s="65"/>
+      <c r="BE17" s="65"/>
+      <c r="BF17" s="65"/>
+      <c r="BG17" s="65"/>
+      <c r="BH17" s="65"/>
+      <c r="BI17" s="65"/>
+      <c r="BJ17" s="65"/>
+      <c r="BK17" s="65"/>
+      <c r="BL17" s="65"/>
+      <c r="BM17" s="65"/>
+      <c r="BN17" s="79"/>
+    </row>
+    <row r="18" customHeight="1" spans="3:66">
+      <c r="C18" s="64"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="65"/>
+      <c r="Q18" s="65"/>
+      <c r="R18" s="65"/>
+      <c r="S18" s="65"/>
+      <c r="T18" s="65"/>
+      <c r="U18" s="65"/>
+      <c r="V18" s="79"/>
+      <c r="Y18" s="64"/>
+      <c r="Z18" s="65"/>
+      <c r="AA18" s="65"/>
+      <c r="AB18" s="65"/>
+      <c r="AC18" s="65"/>
+      <c r="AD18" s="65"/>
+      <c r="AE18" s="65"/>
+      <c r="AF18" s="65"/>
+      <c r="AG18" s="65"/>
+      <c r="AH18" s="65"/>
+      <c r="AI18" s="65"/>
+      <c r="AJ18" s="65"/>
+      <c r="AK18" s="65"/>
+      <c r="AL18" s="65"/>
+      <c r="AM18" s="65"/>
+      <c r="AN18" s="65"/>
+      <c r="AO18" s="65"/>
+      <c r="AP18" s="65"/>
+      <c r="AQ18" s="65"/>
+      <c r="AR18" s="79"/>
+      <c r="AU18" s="64"/>
+      <c r="AV18" s="65"/>
+      <c r="AW18" s="65"/>
+      <c r="AX18" s="65"/>
+      <c r="AY18" s="65"/>
+      <c r="AZ18" s="65"/>
+      <c r="BA18" s="65"/>
+      <c r="BB18" s="65"/>
+      <c r="BC18" s="65"/>
+      <c r="BD18" s="65"/>
+      <c r="BE18" s="65"/>
+      <c r="BF18" s="65"/>
+      <c r="BG18" s="65"/>
+      <c r="BH18" s="65"/>
+      <c r="BI18" s="65"/>
+      <c r="BJ18" s="65"/>
+      <c r="BK18" s="65"/>
+      <c r="BL18" s="65"/>
+      <c r="BM18" s="65"/>
+      <c r="BN18" s="79"/>
+    </row>
+    <row r="19" customHeight="1" spans="3:66">
+      <c r="C19" s="64"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="65"/>
+      <c r="N19" s="65"/>
+      <c r="O19" s="65"/>
+      <c r="P19" s="65"/>
+      <c r="Q19" s="65"/>
+      <c r="R19" s="65"/>
+      <c r="S19" s="65"/>
+      <c r="T19" s="65"/>
+      <c r="U19" s="65"/>
+      <c r="V19" s="79"/>
+      <c r="Y19" s="64"/>
+      <c r="Z19" s="65"/>
+      <c r="AA19" s="65"/>
+      <c r="AB19" s="65"/>
+      <c r="AC19" s="65"/>
+      <c r="AD19" s="65"/>
+      <c r="AE19" s="65"/>
+      <c r="AF19" s="65"/>
+      <c r="AG19" s="65"/>
+      <c r="AH19" s="65"/>
+      <c r="AI19" s="65"/>
+      <c r="AJ19" s="65"/>
+      <c r="AK19" s="65"/>
+      <c r="AL19" s="65"/>
+      <c r="AM19" s="65"/>
+      <c r="AN19" s="65"/>
+      <c r="AO19" s="65"/>
+      <c r="AP19" s="65"/>
+      <c r="AQ19" s="65"/>
+      <c r="AR19" s="79"/>
+      <c r="AU19" s="64"/>
+      <c r="AV19" s="65"/>
+      <c r="AW19" s="65"/>
+      <c r="AX19" s="65"/>
+      <c r="AY19" s="65"/>
+      <c r="AZ19" s="65"/>
+      <c r="BA19" s="65"/>
+      <c r="BB19" s="65"/>
+      <c r="BC19" s="65"/>
+      <c r="BD19" s="65"/>
       <c r="BE19" s="65"/>
       <c r="BF19" s="65"/>
       <c r="BG19" s="65"/>
@@ -24027,574 +25277,507 @@
       <c r="BJ19" s="65"/>
       <c r="BK19" s="65"/>
       <c r="BL19" s="65"/>
-      <c r="BW19" s="65"/>
-      <c r="BX19" s="65"/>
-      <c r="BY19" s="65"/>
-      <c r="BZ19" s="65"/>
-      <c r="CA19" s="65"/>
+      <c r="BM19" s="65"/>
+      <c r="BN19" s="79"/>
     </row>
-    <row r="20" customHeight="1" spans="3:79">
-      <c r="C20" s="48"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="56"/>
-      <c r="Y20" s="48"/>
-      <c r="Z20" s="1"/>
-      <c r="AA20" s="1"/>
-      <c r="AB20" s="1"/>
-      <c r="AC20" s="1"/>
-      <c r="AD20" s="1"/>
-      <c r="AE20" s="1"/>
-      <c r="AF20" s="1"/>
-      <c r="AG20" s="1"/>
-      <c r="AH20" s="1"/>
-      <c r="AI20" s="1"/>
-      <c r="AJ20" s="1"/>
-      <c r="AK20" s="1"/>
-      <c r="AL20" s="1"/>
-      <c r="AM20" s="1"/>
-      <c r="AN20" s="1"/>
-      <c r="AO20" s="1"/>
-      <c r="AP20" s="1"/>
-      <c r="AQ20" s="1"/>
-      <c r="AR20" s="56"/>
-      <c r="BE20" s="68"/>
-      <c r="BF20" s="68"/>
-      <c r="BG20" s="68"/>
-      <c r="BH20" s="68"/>
-      <c r="BI20" s="68"/>
-      <c r="BJ20" s="68"/>
-      <c r="BK20" s="68"/>
+    <row r="20" customHeight="1" spans="3:66">
+      <c r="C20" s="64"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="65"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="65"/>
+      <c r="P20" s="65"/>
+      <c r="Q20" s="65"/>
+      <c r="R20" s="65"/>
+      <c r="S20" s="65"/>
+      <c r="T20" s="65"/>
+      <c r="U20" s="65"/>
+      <c r="V20" s="79"/>
+      <c r="Y20" s="64"/>
+      <c r="Z20" s="65"/>
+      <c r="AA20" s="65"/>
+      <c r="AB20" s="65"/>
+      <c r="AC20" s="65"/>
+      <c r="AD20" s="65"/>
+      <c r="AE20" s="65"/>
+      <c r="AF20" s="65"/>
+      <c r="AG20" s="65"/>
+      <c r="AH20" s="65"/>
+      <c r="AI20" s="65"/>
+      <c r="AJ20" s="65"/>
+      <c r="AK20" s="65"/>
+      <c r="AL20" s="65"/>
+      <c r="AM20" s="65"/>
+      <c r="AN20" s="65"/>
+      <c r="AO20" s="65"/>
+      <c r="AP20" s="65"/>
+      <c r="AQ20" s="65"/>
+      <c r="AR20" s="79"/>
+      <c r="AU20" s="64"/>
+      <c r="AV20" s="65"/>
+      <c r="AW20" s="65"/>
+      <c r="AX20" s="65"/>
+      <c r="AY20" s="65"/>
+      <c r="AZ20" s="65"/>
+      <c r="BA20" s="65"/>
+      <c r="BB20" s="65"/>
+      <c r="BC20" s="65"/>
+      <c r="BD20" s="65"/>
+      <c r="BE20" s="65"/>
+      <c r="BF20" s="65"/>
+      <c r="BG20" s="65"/>
+      <c r="BH20" s="65"/>
+      <c r="BI20" s="65"/>
+      <c r="BJ20" s="65"/>
+      <c r="BK20" s="65"/>
       <c r="BL20" s="65"/>
-      <c r="BW20" s="68"/>
-      <c r="BX20" s="68"/>
-      <c r="BY20" s="68"/>
-      <c r="BZ20" s="68"/>
-      <c r="CA20" s="68"/>
+      <c r="BM20" s="65"/>
+      <c r="BN20" s="79"/>
     </row>
-    <row r="21" customHeight="1" spans="3:79">
-      <c r="C21" s="48"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="56"/>
-      <c r="Y21" s="48"/>
-      <c r="Z21" s="1"/>
-      <c r="AA21" s="1"/>
-      <c r="AB21" s="1"/>
-      <c r="AC21" s="1"/>
-      <c r="AD21" s="1"/>
-      <c r="AE21" s="1"/>
-      <c r="AF21" s="1"/>
-      <c r="AG21" s="1"/>
-      <c r="AH21" s="1"/>
-      <c r="AI21" s="1"/>
-      <c r="AJ21" s="1"/>
-      <c r="AK21" s="1"/>
-      <c r="AL21" s="1"/>
-      <c r="AM21" s="1"/>
-      <c r="AN21" s="1"/>
-      <c r="AO21" s="1"/>
-      <c r="AP21" s="1"/>
-      <c r="AQ21" s="1"/>
-      <c r="AR21" s="56"/>
-      <c r="BH21" s="68"/>
-      <c r="BI21" s="68"/>
-      <c r="BJ21" s="68"/>
-      <c r="BK21" s="68"/>
+    <row r="21" customHeight="1" spans="3:66">
+      <c r="C21" s="64"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="65"/>
+      <c r="M21" s="65"/>
+      <c r="N21" s="65"/>
+      <c r="O21" s="65"/>
+      <c r="P21" s="65"/>
+      <c r="Q21" s="65"/>
+      <c r="R21" s="65"/>
+      <c r="S21" s="65"/>
+      <c r="T21" s="65"/>
+      <c r="U21" s="80"/>
+      <c r="V21" s="79"/>
+      <c r="Y21" s="64"/>
+      <c r="Z21" s="65"/>
+      <c r="AA21" s="65"/>
+      <c r="AB21" s="65"/>
+      <c r="AC21" s="65"/>
+      <c r="AD21" s="65"/>
+      <c r="AE21" s="65"/>
+      <c r="AF21" s="65"/>
+      <c r="AG21" s="65"/>
+      <c r="AH21" s="65"/>
+      <c r="AI21" s="65"/>
+      <c r="AJ21" s="65"/>
+      <c r="AK21" s="65"/>
+      <c r="AL21" s="65"/>
+      <c r="AM21" s="65"/>
+      <c r="AN21" s="65"/>
+      <c r="AO21" s="65"/>
+      <c r="AP21" s="65"/>
+      <c r="AQ21" s="80"/>
+      <c r="AR21" s="79"/>
+      <c r="AU21" s="64"/>
+      <c r="AV21" s="65"/>
+      <c r="AW21" s="65"/>
+      <c r="AX21" s="65"/>
+      <c r="AY21" s="65"/>
+      <c r="AZ21" s="65"/>
+      <c r="BA21" s="65"/>
+      <c r="BB21" s="65"/>
+      <c r="BC21" s="65"/>
+      <c r="BD21" s="65"/>
+      <c r="BE21" s="65"/>
+      <c r="BF21" s="65"/>
+      <c r="BG21" s="65"/>
+      <c r="BH21" s="65"/>
+      <c r="BI21" s="65"/>
+      <c r="BJ21" s="65"/>
+      <c r="BK21" s="65"/>
       <c r="BL21" s="65"/>
-      <c r="BZ21" s="68"/>
-      <c r="CA21" s="68"/>
+      <c r="BM21" s="80"/>
+      <c r="BN21" s="79"/>
     </row>
-    <row r="22" customHeight="1" spans="3:79">
-      <c r="C22" s="48"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="56"/>
-      <c r="Y22" s="48"/>
-      <c r="Z22" s="1"/>
-      <c r="AA22" s="1"/>
-      <c r="AB22" s="1"/>
-      <c r="AC22" s="1"/>
-      <c r="AD22" s="1"/>
-      <c r="AE22" s="1"/>
-      <c r="AF22" s="1"/>
-      <c r="AG22" s="1"/>
-      <c r="AH22" s="1"/>
-      <c r="AI22" s="1"/>
-      <c r="AJ22" s="1"/>
-      <c r="AK22" s="1"/>
-      <c r="AL22" s="1"/>
-      <c r="AM22" s="1"/>
-      <c r="AN22" s="1"/>
-      <c r="AO22" s="1"/>
-      <c r="AP22" s="1"/>
-      <c r="AQ22" s="1"/>
-      <c r="AR22" s="56"/>
-      <c r="BH22" s="68"/>
-      <c r="BI22" s="68"/>
-      <c r="BJ22" s="68"/>
-      <c r="BK22" s="68"/>
+    <row r="22" customHeight="1" spans="3:66">
+      <c r="C22" s="64"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="65"/>
+      <c r="N22" s="65"/>
+      <c r="O22" s="65"/>
+      <c r="P22" s="65"/>
+      <c r="Q22" s="65"/>
+      <c r="R22" s="65"/>
+      <c r="S22" s="65"/>
+      <c r="T22" s="65"/>
+      <c r="U22" s="65"/>
+      <c r="V22" s="79"/>
+      <c r="Y22" s="64"/>
+      <c r="Z22" s="65"/>
+      <c r="AA22" s="65"/>
+      <c r="AB22" s="65"/>
+      <c r="AC22" s="65"/>
+      <c r="AD22" s="65"/>
+      <c r="AE22" s="65"/>
+      <c r="AF22" s="65"/>
+      <c r="AG22" s="65"/>
+      <c r="AH22" s="65"/>
+      <c r="AI22" s="65"/>
+      <c r="AJ22" s="65"/>
+      <c r="AK22" s="65"/>
+      <c r="AL22" s="65"/>
+      <c r="AM22" s="65"/>
+      <c r="AN22" s="65"/>
+      <c r="AO22" s="65"/>
+      <c r="AP22" s="65"/>
+      <c r="AQ22" s="65"/>
+      <c r="AR22" s="79"/>
+      <c r="AU22" s="64"/>
+      <c r="AV22" s="65"/>
+      <c r="AW22" s="65"/>
+      <c r="AX22" s="65"/>
+      <c r="AY22" s="65"/>
+      <c r="AZ22" s="65"/>
+      <c r="BA22" s="65"/>
+      <c r="BB22" s="65"/>
+      <c r="BC22" s="65"/>
+      <c r="BD22" s="65"/>
+      <c r="BE22" s="65"/>
+      <c r="BF22" s="65"/>
+      <c r="BG22" s="65"/>
+      <c r="BH22" s="65"/>
+      <c r="BI22" s="65"/>
+      <c r="BJ22" s="65"/>
+      <c r="BK22" s="65"/>
       <c r="BL22" s="65"/>
-      <c r="BZ22" s="68"/>
-      <c r="CA22" s="68"/>
+      <c r="BM22" s="65"/>
+      <c r="BN22" s="79"/>
     </row>
-    <row r="23" customHeight="1" spans="3:79">
-      <c r="C23" s="48"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="56"/>
-      <c r="Y23" s="48"/>
-      <c r="Z23" s="1"/>
-      <c r="AA23" s="1"/>
-      <c r="AB23" s="1"/>
-      <c r="AC23" s="1"/>
-      <c r="AD23" s="1"/>
-      <c r="AE23" s="1"/>
-      <c r="AF23" s="1"/>
-      <c r="AG23" s="1"/>
-      <c r="AH23" s="1"/>
-      <c r="AI23" s="1"/>
-      <c r="AJ23" s="1"/>
-      <c r="AK23" s="1"/>
-      <c r="AL23" s="1"/>
-      <c r="AM23" s="1"/>
-      <c r="AN23" s="1"/>
-      <c r="AO23" s="1"/>
-      <c r="AP23" s="1"/>
-      <c r="AQ23" s="1"/>
-      <c r="AR23" s="56"/>
+    <row r="23" customHeight="1" spans="3:66">
+      <c r="C23" s="64"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="65"/>
+      <c r="N23" s="65"/>
+      <c r="O23" s="65"/>
+      <c r="P23" s="65"/>
+      <c r="Q23" s="65"/>
+      <c r="R23" s="65"/>
+      <c r="S23" s="65"/>
+      <c r="T23" s="65"/>
+      <c r="U23" s="65"/>
+      <c r="V23" s="79"/>
+      <c r="Y23" s="64"/>
+      <c r="Z23" s="65"/>
+      <c r="AA23" s="65"/>
+      <c r="AB23" s="65"/>
+      <c r="AC23" s="65"/>
+      <c r="AD23" s="65"/>
+      <c r="AE23" s="65"/>
+      <c r="AF23" s="65"/>
+      <c r="AG23" s="65"/>
+      <c r="AH23" s="65"/>
+      <c r="AI23" s="65"/>
+      <c r="AJ23" s="65"/>
+      <c r="AK23" s="65"/>
+      <c r="AL23" s="65"/>
+      <c r="AM23" s="65"/>
+      <c r="AN23" s="65"/>
+      <c r="AO23" s="65"/>
+      <c r="AP23" s="65"/>
+      <c r="AQ23" s="65"/>
+      <c r="AR23" s="79"/>
+      <c r="AU23" s="64"/>
+      <c r="AV23" s="65"/>
+      <c r="AW23" s="65"/>
+      <c r="AX23" s="65"/>
+      <c r="AY23" s="65"/>
+      <c r="AZ23" s="65"/>
+      <c r="BA23" s="65"/>
+      <c r="BB23" s="65"/>
       <c r="BC23" s="65"/>
       <c r="BD23" s="65"/>
-      <c r="BH23" s="68"/>
-      <c r="BI23" s="68"/>
-      <c r="BJ23" s="68"/>
-      <c r="BK23" s="68"/>
+      <c r="BE23" s="65"/>
+      <c r="BF23" s="65"/>
+      <c r="BG23" s="65"/>
+      <c r="BH23" s="65"/>
+      <c r="BI23" s="65"/>
+      <c r="BJ23" s="65"/>
+      <c r="BK23" s="65"/>
       <c r="BL23" s="65"/>
-      <c r="BU23" s="65"/>
-      <c r="BV23" s="65"/>
-      <c r="BZ23" s="68"/>
-      <c r="CA23" s="68"/>
+      <c r="BM23" s="65"/>
+      <c r="BN23" s="79"/>
     </row>
-    <row r="24" customHeight="1" spans="3:79">
-      <c r="C24" s="48"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="56"/>
-      <c r="Y24" s="48"/>
-      <c r="Z24" s="1"/>
-      <c r="AA24" s="1"/>
-      <c r="AB24" s="1"/>
-      <c r="AC24" s="1"/>
-      <c r="AD24" s="1"/>
-      <c r="AE24" s="1"/>
-      <c r="AF24" s="1"/>
-      <c r="AG24" s="1"/>
-      <c r="AH24" s="1"/>
-      <c r="AI24" s="1"/>
-      <c r="AJ24" s="1"/>
-      <c r="AK24" s="1"/>
-      <c r="AL24" s="1"/>
-      <c r="AM24" s="1"/>
-      <c r="AN24" s="1"/>
-      <c r="AO24" s="1"/>
-      <c r="AP24" s="1"/>
-      <c r="AQ24" s="1"/>
-      <c r="AR24" s="56"/>
+    <row r="24" customHeight="1" spans="3:66">
+      <c r="C24" s="64"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="65"/>
+      <c r="N24" s="65"/>
+      <c r="O24" s="65"/>
+      <c r="P24" s="65"/>
+      <c r="Q24" s="65"/>
+      <c r="R24" s="72"/>
+      <c r="S24" s="65"/>
+      <c r="T24" s="65"/>
+      <c r="U24" s="65"/>
+      <c r="V24" s="79"/>
+      <c r="Y24" s="64"/>
+      <c r="Z24" s="66"/>
+      <c r="AA24" s="66"/>
+      <c r="AB24" s="66"/>
+      <c r="AC24" s="66"/>
+      <c r="AD24" s="67"/>
+      <c r="AE24" s="65"/>
+      <c r="AF24" s="65"/>
+      <c r="AG24" s="65"/>
+      <c r="AH24" s="65"/>
+      <c r="AI24" s="65"/>
+      <c r="AJ24" s="65"/>
+      <c r="AK24" s="65"/>
+      <c r="AL24" s="65"/>
+      <c r="AM24" s="65"/>
+      <c r="AN24" s="72"/>
+      <c r="AO24" s="65"/>
+      <c r="AP24" s="65"/>
+      <c r="AQ24" s="65"/>
+      <c r="AR24" s="79"/>
+      <c r="AU24" s="64"/>
+      <c r="AV24" s="66"/>
+      <c r="AW24" s="66"/>
+      <c r="AX24" s="66"/>
+      <c r="AY24" s="66"/>
+      <c r="AZ24" s="67"/>
+      <c r="BA24" s="65"/>
+      <c r="BB24" s="65"/>
       <c r="BC24" s="65"/>
       <c r="BD24" s="65"/>
-      <c r="BH24" s="68"/>
-      <c r="BI24" s="68"/>
-      <c r="BJ24" s="68"/>
-      <c r="BK24" s="68"/>
+      <c r="BE24" s="65"/>
+      <c r="BF24" s="65"/>
+      <c r="BG24" s="65"/>
+      <c r="BH24" s="65"/>
+      <c r="BI24" s="65"/>
+      <c r="BJ24" s="72"/>
+      <c r="BK24" s="65"/>
       <c r="BL24" s="65"/>
-      <c r="BU24" s="65"/>
-      <c r="BV24" s="65"/>
-      <c r="BZ24" s="68"/>
-      <c r="CA24" s="68"/>
+      <c r="BM24" s="65"/>
+      <c r="BN24" s="79"/>
     </row>
-    <row r="25" customHeight="1" spans="3:79">
-      <c r="C25" s="48"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="64" t="s">
+    <row r="25" customHeight="1" spans="3:66">
+      <c r="C25" s="64"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="72"/>
+      <c r="M25" s="72"/>
+      <c r="N25" s="72"/>
+      <c r="O25" s="72"/>
+      <c r="P25" s="72"/>
+      <c r="Q25" s="72"/>
+      <c r="R25" s="72"/>
+      <c r="S25" s="72"/>
+      <c r="T25" s="72"/>
+      <c r="U25" s="72"/>
+      <c r="V25" s="81"/>
+      <c r="Y25" s="64"/>
+      <c r="Z25" s="67"/>
+      <c r="AA25" s="67"/>
+      <c r="AB25" s="67"/>
+      <c r="AC25" s="67"/>
+      <c r="AD25" s="67"/>
+      <c r="AE25" s="72"/>
+      <c r="AF25" s="73"/>
+      <c r="AG25" s="72"/>
+      <c r="AH25" s="72"/>
+      <c r="AI25" s="72"/>
+      <c r="AJ25" s="72"/>
+      <c r="AK25" s="72"/>
+      <c r="AL25" s="72"/>
+      <c r="AM25" s="72"/>
+      <c r="AN25" s="72"/>
+      <c r="AO25" s="72"/>
+      <c r="AP25" s="72"/>
+      <c r="AQ25" s="72"/>
+      <c r="AR25" s="81"/>
+      <c r="AU25" s="64"/>
+      <c r="AV25" s="67"/>
+      <c r="AW25" s="67"/>
+      <c r="AX25" s="67"/>
+      <c r="AY25" s="67"/>
+      <c r="AZ25" s="67"/>
+      <c r="BA25" s="72"/>
+      <c r="BB25" s="73"/>
+      <c r="BC25" s="72"/>
+      <c r="BD25" s="72"/>
+      <c r="BE25" s="72"/>
+      <c r="BF25" s="72"/>
+      <c r="BG25" s="72"/>
+      <c r="BH25" s="72"/>
+      <c r="BI25" s="72"/>
+      <c r="BJ25" s="72"/>
+      <c r="BK25" s="72"/>
+      <c r="BL25" s="72"/>
+      <c r="BM25" s="72"/>
+      <c r="BN25" s="81"/>
+    </row>
+    <row r="26" customHeight="1" spans="3:66">
+      <c r="C26" s="68"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="75"/>
+      <c r="K26" s="74"/>
+      <c r="L26" s="74"/>
+      <c r="M26" s="74"/>
+      <c r="N26" s="74"/>
+      <c r="O26" s="74"/>
+      <c r="P26" s="74"/>
+      <c r="Q26" s="74"/>
+      <c r="R26" s="74"/>
+      <c r="S26" s="74"/>
+      <c r="T26" s="74"/>
+      <c r="U26" s="74"/>
+      <c r="V26" s="82"/>
+      <c r="Y26" s="68"/>
+      <c r="Z26" s="69"/>
+      <c r="AA26" s="69"/>
+      <c r="AB26" s="69"/>
+      <c r="AC26" s="69"/>
+      <c r="AD26" s="69"/>
+      <c r="AE26" s="74"/>
+      <c r="AF26" s="75"/>
+      <c r="AG26" s="74"/>
+      <c r="AH26" s="74"/>
+      <c r="AI26" s="74"/>
+      <c r="AJ26" s="74"/>
+      <c r="AK26" s="74"/>
+      <c r="AL26" s="74"/>
+      <c r="AM26" s="74"/>
+      <c r="AN26" s="74"/>
+      <c r="AO26" s="74"/>
+      <c r="AP26" s="74"/>
+      <c r="AQ26" s="74"/>
+      <c r="AR26" s="82"/>
+      <c r="AU26" s="68"/>
+      <c r="AV26" s="69"/>
+      <c r="AW26" s="69"/>
+      <c r="AX26" s="69"/>
+      <c r="AY26" s="69"/>
+      <c r="AZ26" s="69"/>
+      <c r="BA26" s="74"/>
+      <c r="BB26" s="75"/>
+      <c r="BC26" s="74"/>
+      <c r="BD26" s="74"/>
+      <c r="BE26" s="74"/>
+      <c r="BF26" s="74"/>
+      <c r="BG26" s="74"/>
+      <c r="BH26" s="74"/>
+      <c r="BI26" s="74"/>
+      <c r="BJ26" s="74"/>
+      <c r="BK26" s="74"/>
+      <c r="BL26" s="74"/>
+      <c r="BM26" s="74"/>
+      <c r="BN26" s="82"/>
+    </row>
+    <row r="27" customHeight="1" spans="3:3">
+      <c r="C27" t="s">
         <v>2</v>
       </c>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="56"/>
-      <c r="Y25" s="48"/>
-      <c r="Z25" s="1"/>
-      <c r="AA25" s="1"/>
-      <c r="AB25" s="1"/>
-      <c r="AC25" s="1"/>
-      <c r="AD25" s="1"/>
-      <c r="AE25" s="1"/>
-      <c r="AF25" s="1"/>
-      <c r="AG25" s="1"/>
-      <c r="AH25" s="1"/>
-      <c r="AI25" s="1"/>
-      <c r="AJ25" s="1"/>
-      <c r="AK25" s="1"/>
-      <c r="AL25" s="64"/>
-      <c r="AM25" s="1"/>
-      <c r="AN25" s="1"/>
-      <c r="AO25" s="1"/>
-      <c r="AP25" s="1"/>
-      <c r="AQ25" s="1"/>
-      <c r="AR25" s="56"/>
-      <c r="BH25" s="68"/>
-      <c r="BI25" s="68"/>
-      <c r="BJ25" s="68"/>
-      <c r="BK25" s="68"/>
-      <c r="BL25" s="65"/>
-      <c r="BZ25" s="68"/>
-      <c r="CA25" s="68"/>
-    </row>
-    <row r="26" customHeight="1" spans="3:79">
-      <c r="C26" s="48"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="56"/>
-      <c r="Y26" s="48"/>
-      <c r="Z26" s="1"/>
-      <c r="AA26" s="1"/>
-      <c r="AB26" s="1"/>
-      <c r="AC26" s="62"/>
-      <c r="AD26" s="62"/>
-      <c r="AE26" s="1"/>
-      <c r="AF26" s="1"/>
-      <c r="AG26" s="1"/>
-      <c r="AH26" s="1"/>
-      <c r="AI26" s="1"/>
-      <c r="AJ26" s="1"/>
-      <c r="AK26" s="1"/>
-      <c r="AL26" s="1"/>
-      <c r="AM26" s="1"/>
-      <c r="AN26" s="1"/>
-      <c r="AO26" s="1"/>
-      <c r="AP26" s="1"/>
-      <c r="AQ26" s="1"/>
-      <c r="AR26" s="56"/>
-      <c r="BH26" s="68"/>
-      <c r="BI26" s="68"/>
-      <c r="BJ26" s="68"/>
-      <c r="BK26" s="68"/>
-      <c r="BL26" s="65"/>
-      <c r="BZ26" s="68"/>
-      <c r="CA26" s="68"/>
-    </row>
-    <row r="27" customHeight="1" spans="3:79">
-      <c r="C27" s="48"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="56"/>
-      <c r="Y27" s="48"/>
-      <c r="Z27" s="1"/>
-      <c r="AA27" s="1"/>
-      <c r="AB27" s="1"/>
-      <c r="AC27" s="63"/>
-      <c r="AD27" s="63"/>
-      <c r="AE27" s="1"/>
-      <c r="AF27" s="1"/>
-      <c r="AG27" s="1"/>
-      <c r="AH27" s="1"/>
-      <c r="AI27" s="1"/>
-      <c r="AJ27" s="1"/>
-      <c r="AK27" s="1"/>
-      <c r="AL27" s="1"/>
-      <c r="AM27" s="1"/>
-      <c r="AN27" s="8"/>
-      <c r="AO27" s="1"/>
-      <c r="AP27" s="1"/>
-      <c r="AQ27" s="1"/>
-      <c r="AR27" s="56"/>
-      <c r="BE27" s="65"/>
-      <c r="BF27" s="65"/>
-      <c r="BG27" s="65"/>
-      <c r="BH27" s="65"/>
-      <c r="BI27" s="65"/>
-      <c r="BJ27" s="65"/>
-      <c r="BK27" s="65"/>
-      <c r="BL27" s="65"/>
-      <c r="BW27" s="65"/>
-      <c r="BX27" s="65"/>
-      <c r="BY27" s="65"/>
-      <c r="BZ27" s="65"/>
-      <c r="CA27" s="65"/>
-    </row>
-    <row r="28" customHeight="1" spans="3:79">
-      <c r="C28" s="51"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52">
-        <v>8</v>
-      </c>
-      <c r="I28" s="8">
-        <v>7</v>
-      </c>
-      <c r="J28" s="8">
-        <v>6</v>
-      </c>
-      <c r="K28" s="8">
-        <v>5</v>
-      </c>
-      <c r="L28" s="8">
-        <v>4</v>
-      </c>
-      <c r="M28" s="8">
-        <v>3</v>
-      </c>
-      <c r="N28" s="8">
-        <v>2</v>
-      </c>
-      <c r="O28" s="8">
-        <v>1</v>
-      </c>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="8"/>
-      <c r="S28" s="8"/>
-      <c r="T28" s="8"/>
-      <c r="U28" s="8"/>
-      <c r="V28" s="60"/>
-      <c r="Y28" s="51"/>
-      <c r="Z28" s="8"/>
-      <c r="AA28" s="8"/>
-      <c r="AB28" s="8"/>
-      <c r="AC28" s="52"/>
-      <c r="AD28" s="52">
-        <v>8</v>
-      </c>
-      <c r="AE28" s="8">
-        <v>7</v>
-      </c>
-      <c r="AF28" s="8">
-        <v>6</v>
-      </c>
-      <c r="AG28" s="8">
-        <v>5</v>
-      </c>
-      <c r="AH28" s="8">
-        <v>4</v>
-      </c>
-      <c r="AI28" s="8">
-        <v>3</v>
-      </c>
-      <c r="AJ28" s="8">
-        <v>2</v>
-      </c>
-      <c r="AK28" s="8">
-        <v>1</v>
-      </c>
-      <c r="AL28" s="8"/>
-      <c r="AM28" s="8"/>
-      <c r="AN28" s="8"/>
-      <c r="AO28" s="8"/>
-      <c r="AP28" s="8"/>
-      <c r="AQ28" s="8"/>
-      <c r="AR28" s="60"/>
-      <c r="BE28" s="65"/>
-      <c r="BF28" s="65"/>
-      <c r="BG28" s="65"/>
-      <c r="BH28" s="65"/>
-      <c r="BI28" s="65"/>
-      <c r="BJ28" s="65"/>
-      <c r="BK28" s="65"/>
-      <c r="BL28" s="65"/>
-      <c r="BW28" s="65"/>
-      <c r="BX28" s="65"/>
-      <c r="BY28" s="65"/>
-      <c r="BZ28" s="65"/>
-      <c r="CA28" s="65"/>
     </row>
     <row r="29" customHeight="1" spans="3:79">
-      <c r="C29" s="53"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="54"/>
-      <c r="K29" s="54"/>
-      <c r="L29" s="54"/>
-      <c r="M29" s="54"/>
-      <c r="N29" s="54"/>
-      <c r="O29" s="54"/>
-      <c r="P29" s="54"/>
-      <c r="Q29" s="54"/>
-      <c r="R29" s="54"/>
-      <c r="S29" s="54"/>
-      <c r="T29" s="54"/>
-      <c r="U29" s="54"/>
-      <c r="V29" s="61"/>
-      <c r="Y29" s="53"/>
-      <c r="Z29" s="54"/>
-      <c r="AA29" s="54"/>
-      <c r="AB29" s="54"/>
-      <c r="AC29" s="54"/>
-      <c r="AD29" s="54"/>
-      <c r="AE29" s="54"/>
-      <c r="AF29" s="54"/>
-      <c r="AG29" s="54"/>
-      <c r="AH29" s="54"/>
-      <c r="AI29" s="54"/>
-      <c r="AJ29" s="54"/>
-      <c r="AK29" s="54"/>
-      <c r="AL29" s="54"/>
-      <c r="AM29" s="54"/>
-      <c r="AN29" s="54"/>
-      <c r="AO29" s="54"/>
-      <c r="AP29" s="54"/>
-      <c r="AQ29" s="54"/>
-      <c r="AR29" s="61"/>
-      <c r="BE29" s="65"/>
-      <c r="BF29" s="65"/>
-      <c r="BG29" s="65"/>
-      <c r="BH29" s="65"/>
-      <c r="BI29" s="65"/>
-      <c r="BJ29" s="65"/>
-      <c r="BK29" s="65"/>
-      <c r="BL29" s="65"/>
-      <c r="BW29" s="65"/>
-      <c r="BX29" s="65"/>
-      <c r="BY29" s="65"/>
-      <c r="BZ29" s="65"/>
-      <c r="CA29" s="65"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="47"/>
+      <c r="P29" s="47"/>
+      <c r="Q29" s="47"/>
+      <c r="R29" s="47"/>
+      <c r="S29" s="47"/>
+      <c r="T29" s="47"/>
+      <c r="U29" s="47"/>
+      <c r="V29" s="55"/>
+      <c r="Y29" s="46"/>
+      <c r="Z29" s="47"/>
+      <c r="AA29" s="47"/>
+      <c r="AB29" s="47"/>
+      <c r="AC29" s="47"/>
+      <c r="AD29" s="47"/>
+      <c r="AE29" s="47"/>
+      <c r="AF29" s="47"/>
+      <c r="AG29" s="47"/>
+      <c r="AH29" s="47"/>
+      <c r="AI29" s="47"/>
+      <c r="AJ29" s="47"/>
+      <c r="AK29" s="47"/>
+      <c r="AL29" s="47"/>
+      <c r="AM29" s="47"/>
+      <c r="AN29" s="47"/>
+      <c r="AO29" s="47"/>
+      <c r="AP29" s="47"/>
+      <c r="AQ29" s="47"/>
+      <c r="AR29" s="55"/>
+      <c r="BE29" s="77"/>
+      <c r="BF29" s="77"/>
+      <c r="BG29" s="77"/>
+      <c r="BH29" s="77"/>
+      <c r="BI29" s="77"/>
+      <c r="BJ29" s="77"/>
+      <c r="BK29" s="77"/>
+      <c r="BL29" s="77"/>
+      <c r="BW29" s="77"/>
+      <c r="BX29" s="77"/>
+      <c r="BY29" s="77"/>
+      <c r="BZ29" s="77"/>
+      <c r="CA29" s="77"/>
     </row>
-    <row r="30" customHeight="1" spans="3:66">
-      <c r="C30" s="1"/>
+    <row r="30" customHeight="1" spans="3:79">
+      <c r="C30" s="48"/>
       <c r="D30" s="1"/>
-      <c r="E30" t="s">
-        <v>3</v>
-      </c>
+      <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -24611,8 +25794,8 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
-      <c r="Y30" s="1"/>
+      <c r="V30" s="56"/>
+      <c r="Y30" s="48"/>
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
@@ -24631,91 +25814,283 @@
       <c r="AO30" s="1"/>
       <c r="AP30" s="1"/>
       <c r="AQ30" s="1"/>
-      <c r="AR30" s="1"/>
-      <c r="BE30" s="65"/>
-      <c r="BF30" s="65"/>
-      <c r="BG30" s="65"/>
-      <c r="BH30" s="65"/>
-      <c r="BI30" s="65"/>
-      <c r="BJ30" s="65"/>
-      <c r="BK30" s="65"/>
-      <c r="BL30" s="65"/>
-      <c r="BM30" s="65"/>
-      <c r="BN30" s="65"/>
+      <c r="AR30" s="56"/>
+      <c r="BE30" s="85"/>
+      <c r="BF30" s="85"/>
+      <c r="BG30" s="85"/>
+      <c r="BH30" s="85"/>
+      <c r="BI30" s="85"/>
+      <c r="BJ30" s="85"/>
+      <c r="BK30" s="85"/>
+      <c r="BL30" s="77"/>
+      <c r="BW30" s="85"/>
+      <c r="BX30" s="85"/>
+      <c r="BY30" s="85"/>
+      <c r="BZ30" s="85"/>
+      <c r="CA30" s="85"/>
     </row>
-    <row r="31" customHeight="1" spans="57:66">
-      <c r="BE31" s="65"/>
-      <c r="BF31" s="65"/>
-      <c r="BG31" s="65"/>
-      <c r="BH31" s="65"/>
-      <c r="BI31" s="65"/>
-      <c r="BJ31" s="65"/>
-      <c r="BK31" s="65"/>
-      <c r="BL31" s="65"/>
-      <c r="BM31" s="65"/>
-      <c r="BN31" s="65"/>
+    <row r="31" customHeight="1" spans="3:79">
+      <c r="C31" s="48"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="56"/>
+      <c r="Y31" s="48"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="1"/>
+      <c r="AG31" s="1"/>
+      <c r="AH31" s="1"/>
+      <c r="AI31" s="1"/>
+      <c r="AJ31" s="1"/>
+      <c r="AK31" s="1"/>
+      <c r="AL31" s="1"/>
+      <c r="AM31" s="1"/>
+      <c r="AN31" s="1"/>
+      <c r="AO31" s="1"/>
+      <c r="AP31" s="1"/>
+      <c r="AQ31" s="1"/>
+      <c r="AR31" s="56"/>
+      <c r="BH31" s="85"/>
+      <c r="BI31" s="85"/>
+      <c r="BJ31" s="85"/>
+      <c r="BK31" s="85"/>
+      <c r="BL31" s="77"/>
+      <c r="BZ31" s="85"/>
+      <c r="CA31" s="85"/>
     </row>
-    <row r="32" customHeight="1" spans="57:66">
-      <c r="BE32" s="65"/>
-      <c r="BF32" s="65"/>
-      <c r="BG32" s="65"/>
-      <c r="BH32" s="65"/>
-      <c r="BI32" s="65"/>
-      <c r="BJ32" s="65"/>
-      <c r="BK32" s="65"/>
-      <c r="BL32" s="65"/>
-      <c r="BM32" s="65"/>
-      <c r="BN32" s="65"/>
+    <row r="32" customHeight="1" spans="3:79">
+      <c r="C32" s="48"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="56"/>
+      <c r="Y32" s="48"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="1"/>
+      <c r="AF32" s="1"/>
+      <c r="AG32" s="1"/>
+      <c r="AH32" s="1"/>
+      <c r="AI32" s="1"/>
+      <c r="AJ32" s="1"/>
+      <c r="AK32" s="1"/>
+      <c r="AL32" s="1"/>
+      <c r="AM32" s="1"/>
+      <c r="AN32" s="1"/>
+      <c r="AO32" s="1"/>
+      <c r="AP32" s="1"/>
+      <c r="AQ32" s="1"/>
+      <c r="AR32" s="56"/>
+      <c r="BH32" s="85"/>
+      <c r="BI32" s="85"/>
+      <c r="BJ32" s="85"/>
+      <c r="BK32" s="85"/>
+      <c r="BL32" s="77"/>
+      <c r="BZ32" s="85"/>
+      <c r="CA32" s="85"/>
     </row>
-    <row r="35" customHeight="1" spans="3:44">
-      <c r="C35" s="46"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="47"/>
-      <c r="I35" s="47"/>
-      <c r="J35" s="47"/>
-      <c r="K35" s="47"/>
-      <c r="L35" s="47"/>
-      <c r="M35" s="47"/>
-      <c r="N35" s="47"/>
-      <c r="O35" s="47"/>
-      <c r="P35" s="47"/>
-      <c r="Q35" s="47"/>
-      <c r="R35" s="47"/>
-      <c r="S35" s="47"/>
-      <c r="T35" s="47"/>
-      <c r="U35" s="47"/>
-      <c r="V35" s="55"/>
-      <c r="Y35" s="46"/>
-      <c r="Z35" s="47"/>
-      <c r="AA35" s="47"/>
-      <c r="AB35" s="47"/>
-      <c r="AC35" s="47"/>
-      <c r="AD35" s="47"/>
-      <c r="AE35" s="47"/>
-      <c r="AF35" s="47"/>
-      <c r="AG35" s="47"/>
-      <c r="AH35" s="47"/>
-      <c r="AI35" s="47"/>
-      <c r="AJ35" s="47"/>
-      <c r="AK35" s="47"/>
-      <c r="AL35" s="47"/>
-      <c r="AM35" s="47"/>
-      <c r="AN35" s="47"/>
-      <c r="AO35" s="47"/>
-      <c r="AP35" s="47"/>
-      <c r="AQ35" s="47"/>
-      <c r="AR35" s="55"/>
+    <row r="33" customHeight="1" spans="3:79">
+      <c r="C33" s="48"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="56"/>
+      <c r="Y33" s="48"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="1"/>
+      <c r="AF33" s="1"/>
+      <c r="AG33" s="1"/>
+      <c r="AH33" s="1"/>
+      <c r="AI33" s="1"/>
+      <c r="AJ33" s="1"/>
+      <c r="AK33" s="1"/>
+      <c r="AL33" s="1"/>
+      <c r="AM33" s="1"/>
+      <c r="AN33" s="1"/>
+      <c r="AO33" s="1"/>
+      <c r="AP33" s="1"/>
+      <c r="AQ33" s="1"/>
+      <c r="AR33" s="56"/>
+      <c r="BC33" s="77"/>
+      <c r="BD33" s="77"/>
+      <c r="BH33" s="85"/>
+      <c r="BI33" s="85"/>
+      <c r="BJ33" s="85"/>
+      <c r="BK33" s="85"/>
+      <c r="BL33" s="77"/>
+      <c r="BU33" s="77"/>
+      <c r="BV33" s="77"/>
+      <c r="BZ33" s="85"/>
+      <c r="CA33" s="85"/>
     </row>
-    <row r="36" customHeight="1" spans="3:44">
+    <row r="34" customHeight="1" spans="3:79">
+      <c r="C34" s="48"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="56"/>
+      <c r="Y34" s="48"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1"/>
+      <c r="AF34" s="1"/>
+      <c r="AG34" s="1"/>
+      <c r="AH34" s="1"/>
+      <c r="AI34" s="1"/>
+      <c r="AJ34" s="1"/>
+      <c r="AK34" s="1"/>
+      <c r="AL34" s="1"/>
+      <c r="AM34" s="1"/>
+      <c r="AN34" s="1"/>
+      <c r="AO34" s="1"/>
+      <c r="AP34" s="1"/>
+      <c r="AQ34" s="1"/>
+      <c r="AR34" s="56"/>
+      <c r="BC34" s="77"/>
+      <c r="BD34" s="77"/>
+      <c r="BH34" s="85"/>
+      <c r="BI34" s="85"/>
+      <c r="BJ34" s="85"/>
+      <c r="BK34" s="85"/>
+      <c r="BL34" s="77"/>
+      <c r="BU34" s="77"/>
+      <c r="BV34" s="77"/>
+      <c r="BZ34" s="85"/>
+      <c r="CA34" s="85"/>
+    </row>
+    <row r="35" customHeight="1" spans="3:79">
+      <c r="C35" s="48"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="56"/>
+      <c r="Y35" s="48"/>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1"/>
+      <c r="AD35" s="1"/>
+      <c r="AE35" s="1"/>
+      <c r="AF35" s="1"/>
+      <c r="AG35" s="1"/>
+      <c r="AH35" s="1"/>
+      <c r="AI35" s="1"/>
+      <c r="AJ35" s="1"/>
+      <c r="AK35" s="1"/>
+      <c r="AL35" s="76"/>
+      <c r="AM35" s="1"/>
+      <c r="AN35" s="1"/>
+      <c r="AO35" s="1"/>
+      <c r="AP35" s="1"/>
+      <c r="AQ35" s="1"/>
+      <c r="AR35" s="56"/>
+      <c r="BH35" s="85"/>
+      <c r="BI35" s="85"/>
+      <c r="BJ35" s="85"/>
+      <c r="BK35" s="85"/>
+      <c r="BL35" s="77"/>
+      <c r="BZ35" s="85"/>
+      <c r="CA35" s="85"/>
+    </row>
+    <row r="36" customHeight="1" spans="3:79">
       <c r="C36" s="48"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+      <c r="G36" s="70"/>
+      <c r="H36" s="70"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -24734,8 +26109,8 @@
       <c r="Z36" s="1"/>
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
-      <c r="AC36" s="1"/>
-      <c r="AD36" s="1"/>
+      <c r="AC36" s="70"/>
+      <c r="AD36" s="70"/>
       <c r="AE36" s="1"/>
       <c r="AF36" s="1"/>
       <c r="AG36" s="1"/>
@@ -24750,14 +26125,21 @@
       <c r="AP36" s="1"/>
       <c r="AQ36" s="1"/>
       <c r="AR36" s="56"/>
+      <c r="BH36" s="85"/>
+      <c r="BI36" s="85"/>
+      <c r="BJ36" s="85"/>
+      <c r="BK36" s="85"/>
+      <c r="BL36" s="77"/>
+      <c r="BZ36" s="85"/>
+      <c r="CA36" s="85"/>
     </row>
-    <row r="37" customHeight="1" spans="3:44">
+    <row r="37" customHeight="1" spans="3:79">
       <c r="C37" s="48"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="71"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -24767,7 +26149,7 @@
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
+      <c r="R37" s="8"/>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
@@ -24776,8 +26158,8 @@
       <c r="Z37" s="1"/>
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
-      <c r="AC37" s="1"/>
-      <c r="AD37" s="1"/>
+      <c r="AC37" s="71"/>
+      <c r="AD37" s="71"/>
       <c r="AE37" s="1"/>
       <c r="AF37" s="1"/>
       <c r="AG37" s="1"/>
@@ -24787,100 +26169,173 @@
       <c r="AK37" s="1"/>
       <c r="AL37" s="1"/>
       <c r="AM37" s="1"/>
-      <c r="AN37" s="1"/>
+      <c r="AN37" s="8"/>
       <c r="AO37" s="1"/>
       <c r="AP37" s="1"/>
       <c r="AQ37" s="1"/>
       <c r="AR37" s="56"/>
+      <c r="BE37" s="77"/>
+      <c r="BF37" s="77"/>
+      <c r="BG37" s="77"/>
+      <c r="BH37" s="77"/>
+      <c r="BI37" s="77"/>
+      <c r="BJ37" s="77"/>
+      <c r="BK37" s="77"/>
+      <c r="BL37" s="77"/>
+      <c r="BW37" s="77"/>
+      <c r="BX37" s="77"/>
+      <c r="BY37" s="77"/>
+      <c r="BZ37" s="77"/>
+      <c r="CA37" s="77"/>
     </row>
-    <row r="38" customHeight="1" spans="3:44">
-      <c r="C38" s="48"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
-      <c r="T38" s="1"/>
-      <c r="U38" s="1"/>
-      <c r="V38" s="56"/>
-      <c r="Y38" s="48"/>
-      <c r="Z38" s="1"/>
-      <c r="AA38" s="1"/>
-      <c r="AB38" s="1"/>
-      <c r="AC38" s="1"/>
-      <c r="AD38" s="1"/>
-      <c r="AE38" s="1"/>
-      <c r="AF38" s="1"/>
-      <c r="AG38" s="1"/>
-      <c r="AH38" s="1"/>
-      <c r="AI38" s="1"/>
-      <c r="AJ38" s="1"/>
-      <c r="AK38" s="1"/>
-      <c r="AL38" s="1"/>
-      <c r="AM38" s="1"/>
-      <c r="AN38" s="1"/>
-      <c r="AO38" s="1"/>
-      <c r="AP38" s="1"/>
-      <c r="AQ38" s="1"/>
-      <c r="AR38" s="56"/>
+    <row r="38" customHeight="1" spans="3:79">
+      <c r="C38" s="51"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="52">
+        <v>8</v>
+      </c>
+      <c r="I38" s="8">
+        <v>7</v>
+      </c>
+      <c r="J38" s="8">
+        <v>6</v>
+      </c>
+      <c r="K38" s="8">
+        <v>5</v>
+      </c>
+      <c r="L38" s="8">
+        <v>4</v>
+      </c>
+      <c r="M38" s="8">
+        <v>3</v>
+      </c>
+      <c r="N38" s="8">
+        <v>2</v>
+      </c>
+      <c r="O38" s="8">
+        <v>1</v>
+      </c>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="60"/>
+      <c r="Y38" s="51"/>
+      <c r="Z38" s="8"/>
+      <c r="AA38" s="8"/>
+      <c r="AB38" s="8"/>
+      <c r="AC38" s="52"/>
+      <c r="AD38" s="52">
+        <v>8</v>
+      </c>
+      <c r="AE38" s="8">
+        <v>7</v>
+      </c>
+      <c r="AF38" s="8">
+        <v>6</v>
+      </c>
+      <c r="AG38" s="8">
+        <v>5</v>
+      </c>
+      <c r="AH38" s="8">
+        <v>4</v>
+      </c>
+      <c r="AI38" s="8">
+        <v>3</v>
+      </c>
+      <c r="AJ38" s="8">
+        <v>2</v>
+      </c>
+      <c r="AK38" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL38" s="8"/>
+      <c r="AM38" s="8"/>
+      <c r="AN38" s="8"/>
+      <c r="AO38" s="8"/>
+      <c r="AP38" s="8"/>
+      <c r="AQ38" s="8"/>
+      <c r="AR38" s="60"/>
+      <c r="BE38" s="77"/>
+      <c r="BF38" s="77"/>
+      <c r="BG38" s="77"/>
+      <c r="BH38" s="77"/>
+      <c r="BI38" s="77"/>
+      <c r="BJ38" s="77"/>
+      <c r="BK38" s="77"/>
+      <c r="BL38" s="77"/>
+      <c r="BW38" s="77"/>
+      <c r="BX38" s="77"/>
+      <c r="BY38" s="77"/>
+      <c r="BZ38" s="77"/>
+      <c r="CA38" s="77"/>
     </row>
-    <row r="39" customHeight="1" spans="3:44">
-      <c r="C39" s="48"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
-      <c r="U39" s="1"/>
-      <c r="V39" s="56"/>
-      <c r="Y39" s="48"/>
-      <c r="Z39" s="1"/>
-      <c r="AA39" s="1"/>
-      <c r="AB39" s="1"/>
-      <c r="AC39" s="1"/>
-      <c r="AD39" s="1"/>
-      <c r="AE39" s="1"/>
-      <c r="AF39" s="1"/>
-      <c r="AG39" s="1"/>
-      <c r="AH39" s="1"/>
-      <c r="AI39" s="1"/>
-      <c r="AJ39" s="1"/>
-      <c r="AK39" s="1"/>
-      <c r="AL39" s="1"/>
-      <c r="AM39" s="1"/>
-      <c r="AN39" s="1"/>
-      <c r="AO39" s="1"/>
-      <c r="AP39" s="1"/>
-      <c r="AQ39" s="1"/>
-      <c r="AR39" s="56"/>
+    <row r="39" customHeight="1" spans="3:79">
+      <c r="C39" s="53"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
+      <c r="N39" s="54"/>
+      <c r="O39" s="54"/>
+      <c r="P39" s="54"/>
+      <c r="Q39" s="54"/>
+      <c r="R39" s="54"/>
+      <c r="S39" s="54"/>
+      <c r="T39" s="54"/>
+      <c r="U39" s="54"/>
+      <c r="V39" s="61"/>
+      <c r="Y39" s="53"/>
+      <c r="Z39" s="54"/>
+      <c r="AA39" s="54"/>
+      <c r="AB39" s="54"/>
+      <c r="AC39" s="54"/>
+      <c r="AD39" s="54"/>
+      <c r="AE39" s="54"/>
+      <c r="AF39" s="54"/>
+      <c r="AG39" s="54"/>
+      <c r="AH39" s="54"/>
+      <c r="AI39" s="54"/>
+      <c r="AJ39" s="54"/>
+      <c r="AK39" s="54"/>
+      <c r="AL39" s="54"/>
+      <c r="AM39" s="54"/>
+      <c r="AN39" s="54"/>
+      <c r="AO39" s="54"/>
+      <c r="AP39" s="54"/>
+      <c r="AQ39" s="54"/>
+      <c r="AR39" s="61"/>
+      <c r="BE39" s="77"/>
+      <c r="BF39" s="77"/>
+      <c r="BG39" s="77"/>
+      <c r="BH39" s="77"/>
+      <c r="BI39" s="77"/>
+      <c r="BJ39" s="77"/>
+      <c r="BK39" s="77"/>
+      <c r="BL39" s="77"/>
+      <c r="BW39" s="77"/>
+      <c r="BX39" s="77"/>
+      <c r="BY39" s="77"/>
+      <c r="BZ39" s="77"/>
+      <c r="CA39" s="77"/>
     </row>
-    <row r="40" customHeight="1" spans="3:44">
-      <c r="C40" s="48"/>
+    <row r="40" customHeight="1" spans="3:66">
+      <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
+      <c r="E40" t="s">
+        <v>4</v>
+      </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -24897,8 +26352,8 @@
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
-      <c r="V40" s="56"/>
-      <c r="Y40" s="48"/>
+      <c r="V40" s="1"/>
+      <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
@@ -24917,256 +26372,88 @@
       <c r="AO40" s="1"/>
       <c r="AP40" s="1"/>
       <c r="AQ40" s="1"/>
-      <c r="AR40" s="56"/>
+      <c r="AR40" s="1"/>
+      <c r="BE40" s="77"/>
+      <c r="BF40" s="77"/>
+      <c r="BG40" s="77"/>
+      <c r="BH40" s="77"/>
+      <c r="BI40" s="77"/>
+      <c r="BJ40" s="77"/>
+      <c r="BK40" s="77"/>
+      <c r="BL40" s="77"/>
+      <c r="BM40" s="77"/>
+      <c r="BN40" s="77"/>
     </row>
-    <row r="41" customHeight="1" spans="3:44">
-      <c r="C41" s="48"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="64"/>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="1"/>
-      <c r="S41" s="1"/>
-      <c r="T41" s="1"/>
-      <c r="U41" s="1"/>
-      <c r="V41" s="56"/>
-      <c r="Y41" s="48"/>
-      <c r="Z41" s="1"/>
-      <c r="AA41" s="1"/>
-      <c r="AB41" s="1"/>
-      <c r="AC41" s="1"/>
-      <c r="AD41" s="1"/>
-      <c r="AE41" s="1"/>
-      <c r="AF41" s="1"/>
-      <c r="AG41" s="1"/>
-      <c r="AH41" s="1"/>
-      <c r="AI41" s="1"/>
-      <c r="AJ41" s="1"/>
-      <c r="AK41" s="1"/>
-      <c r="AL41" s="64"/>
-      <c r="AM41" s="1"/>
-      <c r="AN41" s="1"/>
-      <c r="AO41" s="1"/>
-      <c r="AP41" s="1"/>
-      <c r="AQ41" s="1"/>
-      <c r="AR41" s="56"/>
+    <row r="41" customHeight="1" spans="57:66">
+      <c r="BE41" s="77"/>
+      <c r="BF41" s="77"/>
+      <c r="BG41" s="77"/>
+      <c r="BH41" s="77"/>
+      <c r="BI41" s="77"/>
+      <c r="BJ41" s="77"/>
+      <c r="BK41" s="77"/>
+      <c r="BL41" s="77"/>
+      <c r="BM41" s="77"/>
+      <c r="BN41" s="77"/>
     </row>
-    <row r="42" customHeight="1" spans="3:44">
-      <c r="C42" s="48"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="62"/>
-      <c r="I42" s="62"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="1"/>
-      <c r="R42" s="1"/>
-      <c r="S42" s="1"/>
-      <c r="T42" s="1"/>
-      <c r="U42" s="1"/>
-      <c r="V42" s="56"/>
-      <c r="Y42" s="48"/>
-      <c r="Z42" s="1"/>
-      <c r="AA42" s="1"/>
-      <c r="AB42" s="1"/>
-      <c r="AC42" s="1"/>
-      <c r="AD42" s="66"/>
-      <c r="AE42" s="66"/>
-      <c r="AF42" s="1"/>
-      <c r="AG42" s="1"/>
-      <c r="AH42" s="1"/>
-      <c r="AI42" s="1"/>
-      <c r="AJ42" s="1"/>
-      <c r="AK42" s="1"/>
-      <c r="AL42" s="1"/>
-      <c r="AM42" s="1"/>
-      <c r="AN42" s="1"/>
-      <c r="AO42" s="1"/>
-      <c r="AP42" s="1"/>
-      <c r="AQ42" s="1"/>
-      <c r="AR42" s="56"/>
-    </row>
-    <row r="43" customHeight="1" spans="3:44">
-      <c r="C43" s="48"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="63"/>
-      <c r="I43" s="63"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="8"/>
-      <c r="S43" s="1"/>
-      <c r="T43" s="1"/>
-      <c r="U43" s="1"/>
-      <c r="V43" s="56"/>
-      <c r="Y43" s="48"/>
-      <c r="Z43" s="1"/>
-      <c r="AA43" s="1"/>
-      <c r="AB43" s="1"/>
-      <c r="AC43" s="1"/>
-      <c r="AD43" s="67"/>
-      <c r="AE43" s="67"/>
-      <c r="AF43" s="1"/>
-      <c r="AG43" s="1"/>
-      <c r="AH43" s="1"/>
-      <c r="AI43" s="1"/>
-      <c r="AJ43" s="1"/>
-      <c r="AK43" s="1"/>
-      <c r="AL43" s="1"/>
-      <c r="AM43" s="1"/>
-      <c r="AN43" s="8"/>
-      <c r="AO43" s="1"/>
-      <c r="AP43" s="1"/>
-      <c r="AQ43" s="1"/>
-      <c r="AR43" s="56"/>
-    </row>
-    <row r="44" customHeight="1" spans="3:44">
-      <c r="C44" s="51"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="52">
-        <v>8</v>
-      </c>
-      <c r="I44" s="52">
-        <v>7</v>
-      </c>
-      <c r="J44" s="8">
-        <v>6</v>
-      </c>
-      <c r="K44" s="8">
-        <v>5</v>
-      </c>
-      <c r="L44" s="8">
-        <v>4</v>
-      </c>
-      <c r="M44" s="8">
-        <v>3</v>
-      </c>
-      <c r="N44" s="8">
-        <v>2</v>
-      </c>
-      <c r="O44" s="8">
-        <v>1</v>
-      </c>
-      <c r="P44" s="8"/>
-      <c r="Q44" s="8"/>
-      <c r="R44" s="8"/>
-      <c r="S44" s="8"/>
-      <c r="T44" s="8"/>
-      <c r="U44" s="8"/>
-      <c r="V44" s="60"/>
-      <c r="Y44" s="51"/>
-      <c r="Z44" s="8"/>
-      <c r="AA44" s="8"/>
-      <c r="AB44" s="8"/>
-      <c r="AC44" s="8"/>
-      <c r="AD44" s="52">
-        <v>8</v>
-      </c>
-      <c r="AE44" s="52">
-        <v>7</v>
-      </c>
-      <c r="AF44" s="8">
-        <v>6</v>
-      </c>
-      <c r="AG44" s="8">
-        <v>5</v>
-      </c>
-      <c r="AH44" s="8">
-        <v>4</v>
-      </c>
-      <c r="AI44" s="8">
-        <v>3</v>
-      </c>
-      <c r="AJ44" s="8">
-        <v>2</v>
-      </c>
-      <c r="AK44" s="8">
-        <v>1</v>
-      </c>
-      <c r="AL44" s="8"/>
-      <c r="AM44" s="8"/>
-      <c r="AN44" s="8"/>
-      <c r="AO44" s="8"/>
-      <c r="AP44" s="8"/>
-      <c r="AQ44" s="8"/>
-      <c r="AR44" s="60"/>
+    <row r="42" customHeight="1" spans="57:66">
+      <c r="BE42" s="77"/>
+      <c r="BF42" s="77"/>
+      <c r="BG42" s="77"/>
+      <c r="BH42" s="77"/>
+      <c r="BI42" s="77"/>
+      <c r="BJ42" s="77"/>
+      <c r="BK42" s="77"/>
+      <c r="BL42" s="77"/>
+      <c r="BM42" s="77"/>
+      <c r="BN42" s="77"/>
     </row>
     <row r="45" customHeight="1" spans="3:44">
-      <c r="C45" s="53"/>
-      <c r="D45" s="54"/>
-      <c r="E45" s="54"/>
-      <c r="F45" s="54"/>
-      <c r="G45" s="54"/>
-      <c r="H45" s="54"/>
-      <c r="I45" s="54"/>
-      <c r="J45" s="54"/>
-      <c r="K45" s="54"/>
-      <c r="L45" s="54"/>
-      <c r="M45" s="54"/>
-      <c r="N45" s="54"/>
-      <c r="O45" s="54"/>
-      <c r="P45" s="54"/>
-      <c r="Q45" s="54"/>
-      <c r="R45" s="54"/>
-      <c r="S45" s="54"/>
-      <c r="T45" s="54"/>
-      <c r="U45" s="54"/>
-      <c r="V45" s="61"/>
-      <c r="Y45" s="53"/>
-      <c r="Z45" s="54"/>
-      <c r="AA45" s="54"/>
-      <c r="AB45" s="54"/>
-      <c r="AC45" s="54"/>
-      <c r="AD45" s="54"/>
-      <c r="AE45" s="54"/>
-      <c r="AF45" s="54"/>
-      <c r="AG45" s="54"/>
-      <c r="AH45" s="54"/>
-      <c r="AI45" s="54"/>
-      <c r="AJ45" s="54"/>
-      <c r="AK45" s="54"/>
-      <c r="AL45" s="54"/>
-      <c r="AM45" s="54"/>
-      <c r="AN45" s="54"/>
-      <c r="AO45" s="54"/>
-      <c r="AP45" s="54"/>
-      <c r="AQ45" s="54"/>
-      <c r="AR45" s="61"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="47"/>
+      <c r="J45" s="47"/>
+      <c r="K45" s="47"/>
+      <c r="L45" s="47"/>
+      <c r="M45" s="47"/>
+      <c r="N45" s="47"/>
+      <c r="O45" s="47"/>
+      <c r="P45" s="47"/>
+      <c r="Q45" s="47"/>
+      <c r="R45" s="47"/>
+      <c r="S45" s="47"/>
+      <c r="T45" s="47"/>
+      <c r="U45" s="47"/>
+      <c r="V45" s="55"/>
+      <c r="Y45" s="46"/>
+      <c r="Z45" s="47"/>
+      <c r="AA45" s="47"/>
+      <c r="AB45" s="47"/>
+      <c r="AC45" s="47"/>
+      <c r="AD45" s="47"/>
+      <c r="AE45" s="47"/>
+      <c r="AF45" s="47"/>
+      <c r="AG45" s="47"/>
+      <c r="AH45" s="47"/>
+      <c r="AI45" s="47"/>
+      <c r="AJ45" s="47"/>
+      <c r="AK45" s="47"/>
+      <c r="AL45" s="47"/>
+      <c r="AM45" s="47"/>
+      <c r="AN45" s="47"/>
+      <c r="AO45" s="47"/>
+      <c r="AP45" s="47"/>
+      <c r="AQ45" s="47"/>
+      <c r="AR45" s="55"/>
     </row>
     <row r="46" customHeight="1" spans="3:44">
-      <c r="C46" s="1"/>
+      <c r="C46" s="48"/>
       <c r="D46" s="1"/>
-      <c r="E46" t="s">
-        <v>4</v>
-      </c>
+      <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -25183,8 +26470,8 @@
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
-      <c r="V46" s="1"/>
-      <c r="Y46" s="1"/>
+      <c r="V46" s="56"/>
+      <c r="Y46" s="48"/>
       <c r="Z46" s="1"/>
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
@@ -25203,82 +26490,268 @@
       <c r="AO46" s="1"/>
       <c r="AP46" s="1"/>
       <c r="AQ46" s="1"/>
-      <c r="AR46" s="1"/>
+      <c r="AR46" s="56"/>
     </row>
-    <row r="48" customHeight="1" spans="5:5">
-      <c r="E48" t="s">
-        <v>5</v>
-      </c>
+    <row r="47" customHeight="1" spans="3:44">
+      <c r="C47" s="48"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="56"/>
+      <c r="Y47" s="48"/>
+      <c r="Z47" s="1"/>
+      <c r="AA47" s="1"/>
+      <c r="AB47" s="1"/>
+      <c r="AC47" s="1"/>
+      <c r="AD47" s="1"/>
+      <c r="AE47" s="1"/>
+      <c r="AF47" s="1"/>
+      <c r="AG47" s="1"/>
+      <c r="AH47" s="1"/>
+      <c r="AI47" s="1"/>
+      <c r="AJ47" s="1"/>
+      <c r="AK47" s="1"/>
+      <c r="AL47" s="1"/>
+      <c r="AM47" s="1"/>
+      <c r="AN47" s="1"/>
+      <c r="AO47" s="1"/>
+      <c r="AP47" s="1"/>
+      <c r="AQ47" s="1"/>
+      <c r="AR47" s="56"/>
     </row>
-    <row r="50" customHeight="1" spans="1:21">
-      <c r="A50" t="s">
-        <v>6</v>
-      </c>
-      <c r="L50" s="65"/>
-      <c r="M50" s="65"/>
-      <c r="N50" s="65"/>
-      <c r="O50" s="65"/>
-      <c r="P50" s="65"/>
-      <c r="Q50" s="65"/>
-      <c r="R50" s="65"/>
-      <c r="S50" s="65"/>
-      <c r="T50" s="65"/>
-      <c r="U50" s="65"/>
+    <row r="48" customHeight="1" spans="3:44">
+      <c r="C48" s="48"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="56"/>
+      <c r="Y48" s="48"/>
+      <c r="Z48" s="1"/>
+      <c r="AA48" s="1"/>
+      <c r="AB48" s="1"/>
+      <c r="AC48" s="1"/>
+      <c r="AD48" s="1"/>
+      <c r="AE48" s="1"/>
+      <c r="AF48" s="1"/>
+      <c r="AG48" s="1"/>
+      <c r="AH48" s="1"/>
+      <c r="AI48" s="1"/>
+      <c r="AJ48" s="1"/>
+      <c r="AK48" s="1"/>
+      <c r="AL48" s="1"/>
+      <c r="AM48" s="1"/>
+      <c r="AN48" s="1"/>
+      <c r="AO48" s="1"/>
+      <c r="AP48" s="1"/>
+      <c r="AQ48" s="1"/>
+      <c r="AR48" s="56"/>
     </row>
-    <row r="51" customHeight="1" spans="5:5">
-      <c r="E51" t="s">
-        <v>7</v>
-      </c>
+    <row r="49" customHeight="1" spans="3:44">
+      <c r="C49" s="48"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="56"/>
+      <c r="Y49" s="48"/>
+      <c r="Z49" s="1"/>
+      <c r="AA49" s="1"/>
+      <c r="AB49" s="1"/>
+      <c r="AC49" s="1"/>
+      <c r="AD49" s="1"/>
+      <c r="AE49" s="1"/>
+      <c r="AF49" s="1"/>
+      <c r="AG49" s="1"/>
+      <c r="AH49" s="1"/>
+      <c r="AI49" s="1"/>
+      <c r="AJ49" s="1"/>
+      <c r="AK49" s="1"/>
+      <c r="AL49" s="1"/>
+      <c r="AM49" s="1"/>
+      <c r="AN49" s="1"/>
+      <c r="AO49" s="1"/>
+      <c r="AP49" s="1"/>
+      <c r="AQ49" s="1"/>
+      <c r="AR49" s="56"/>
     </row>
-    <row r="52" customHeight="1" spans="4:45">
-      <c r="D52" s="46"/>
-      <c r="E52" s="47"/>
-      <c r="F52" s="47"/>
-      <c r="G52" s="47"/>
-      <c r="H52" s="47"/>
-      <c r="I52" s="47"/>
-      <c r="J52" s="47"/>
-      <c r="K52" s="47"/>
-      <c r="L52" s="47"/>
-      <c r="M52" s="47"/>
-      <c r="N52" s="47"/>
-      <c r="O52" s="47"/>
-      <c r="P52" s="47"/>
-      <c r="Q52" s="47"/>
-      <c r="R52" s="47"/>
-      <c r="S52" s="47"/>
-      <c r="T52" s="47"/>
-      <c r="U52" s="47"/>
-      <c r="V52" s="47"/>
-      <c r="W52" s="55"/>
-      <c r="Z52" s="46"/>
-      <c r="AA52" s="47"/>
-      <c r="AB52" s="47"/>
-      <c r="AC52" s="47"/>
-      <c r="AD52" s="47"/>
-      <c r="AE52" s="47"/>
-      <c r="AF52" s="47"/>
-      <c r="AG52" s="47"/>
-      <c r="AH52" s="47"/>
-      <c r="AI52" s="47"/>
-      <c r="AJ52" s="47"/>
-      <c r="AK52" s="47"/>
-      <c r="AL52" s="47"/>
-      <c r="AM52" s="47"/>
-      <c r="AN52" s="47"/>
-      <c r="AO52" s="47"/>
-      <c r="AP52" s="47"/>
-      <c r="AQ52" s="47"/>
-      <c r="AR52" s="47"/>
-      <c r="AS52" s="55"/>
+    <row r="50" customHeight="1" spans="3:44">
+      <c r="C50" s="48"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="56"/>
+      <c r="Y50" s="48"/>
+      <c r="Z50" s="1"/>
+      <c r="AA50" s="1"/>
+      <c r="AB50" s="1"/>
+      <c r="AC50" s="1"/>
+      <c r="AD50" s="1"/>
+      <c r="AE50" s="1"/>
+      <c r="AF50" s="1"/>
+      <c r="AG50" s="1"/>
+      <c r="AH50" s="1"/>
+      <c r="AI50" s="1"/>
+      <c r="AJ50" s="1"/>
+      <c r="AK50" s="1"/>
+      <c r="AL50" s="1"/>
+      <c r="AM50" s="1"/>
+      <c r="AN50" s="1"/>
+      <c r="AO50" s="1"/>
+      <c r="AP50" s="1"/>
+      <c r="AQ50" s="1"/>
+      <c r="AR50" s="56"/>
     </row>
-    <row r="53" customHeight="1" spans="4:45">
-      <c r="D53" s="48"/>
+    <row r="51" customHeight="1" spans="3:44">
+      <c r="C51" s="48"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="76"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="56"/>
+      <c r="Y51" s="48"/>
+      <c r="Z51" s="1"/>
+      <c r="AA51" s="1"/>
+      <c r="AB51" s="1"/>
+      <c r="AC51" s="1"/>
+      <c r="AD51" s="1"/>
+      <c r="AE51" s="1"/>
+      <c r="AF51" s="1"/>
+      <c r="AG51" s="1"/>
+      <c r="AH51" s="1"/>
+      <c r="AI51" s="1"/>
+      <c r="AJ51" s="1"/>
+      <c r="AK51" s="1"/>
+      <c r="AL51" s="76"/>
+      <c r="AM51" s="1"/>
+      <c r="AN51" s="1"/>
+      <c r="AO51" s="1"/>
+      <c r="AP51" s="1"/>
+      <c r="AQ51" s="1"/>
+      <c r="AR51" s="56"/>
+    </row>
+    <row r="52" customHeight="1" spans="3:44">
+      <c r="C52" s="48"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="70"/>
+      <c r="I52" s="70"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="56"/>
+      <c r="Y52" s="48"/>
+      <c r="Z52" s="1"/>
+      <c r="AA52" s="1"/>
+      <c r="AB52" s="1"/>
+      <c r="AC52" s="1"/>
+      <c r="AD52" s="83"/>
+      <c r="AE52" s="83"/>
+      <c r="AF52" s="1"/>
+      <c r="AG52" s="1"/>
+      <c r="AH52" s="1"/>
+      <c r="AI52" s="1"/>
+      <c r="AJ52" s="1"/>
+      <c r="AK52" s="1"/>
+      <c r="AL52" s="1"/>
+      <c r="AM52" s="1"/>
+      <c r="AN52" s="1"/>
+      <c r="AO52" s="1"/>
+      <c r="AP52" s="1"/>
+      <c r="AQ52" s="1"/>
+      <c r="AR52" s="56"/>
+    </row>
+    <row r="53" customHeight="1" spans="3:44">
+      <c r="C53" s="48"/>
+      <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
+      <c r="H53" s="71"/>
+      <c r="I53" s="71"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
@@ -25287,18 +26760,18 @@
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
-      <c r="R53" s="1"/>
+      <c r="R53" s="8"/>
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
       <c r="U53" s="1"/>
-      <c r="V53" s="1"/>
-      <c r="W53" s="56"/>
-      <c r="Z53" s="48"/>
+      <c r="V53" s="56"/>
+      <c r="Y53" s="48"/>
+      <c r="Z53" s="1"/>
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
       <c r="AC53" s="1"/>
-      <c r="AD53" s="1"/>
-      <c r="AE53" s="1"/>
+      <c r="AD53" s="84"/>
+      <c r="AE53" s="84"/>
       <c r="AF53" s="1"/>
       <c r="AG53" s="1"/>
       <c r="AH53" s="1"/>
@@ -25307,100 +26780,134 @@
       <c r="AK53" s="1"/>
       <c r="AL53" s="1"/>
       <c r="AM53" s="1"/>
-      <c r="AN53" s="1"/>
+      <c r="AN53" s="8"/>
       <c r="AO53" s="1"/>
       <c r="AP53" s="1"/>
       <c r="AQ53" s="1"/>
-      <c r="AR53" s="1"/>
-      <c r="AS53" s="56"/>
+      <c r="AR53" s="56"/>
     </row>
-    <row r="54" customHeight="1" spans="4:45">
-      <c r="D54" s="48"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
-      <c r="P54" s="1"/>
-      <c r="Q54" s="1"/>
-      <c r="R54" s="1"/>
-      <c r="S54" s="1"/>
-      <c r="T54" s="1"/>
-      <c r="U54" s="1"/>
-      <c r="V54" s="1"/>
-      <c r="W54" s="56"/>
-      <c r="Z54" s="48"/>
-      <c r="AA54" s="1"/>
-      <c r="AB54" s="1"/>
-      <c r="AC54" s="1"/>
-      <c r="AD54" s="1"/>
-      <c r="AE54" s="1"/>
-      <c r="AF54" s="1"/>
-      <c r="AG54" s="1"/>
-      <c r="AH54" s="1"/>
-      <c r="AI54" s="1"/>
-      <c r="AJ54" s="1"/>
-      <c r="AK54" s="1"/>
-      <c r="AL54" s="1"/>
-      <c r="AM54" s="1"/>
-      <c r="AN54" s="1"/>
-      <c r="AO54" s="1"/>
-      <c r="AP54" s="1"/>
-      <c r="AQ54" s="1"/>
-      <c r="AR54" s="1"/>
-      <c r="AS54" s="56"/>
+    <row r="54" customHeight="1" spans="3:44">
+      <c r="C54" s="51"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="52">
+        <v>8</v>
+      </c>
+      <c r="I54" s="52">
+        <v>7</v>
+      </c>
+      <c r="J54" s="8">
+        <v>6</v>
+      </c>
+      <c r="K54" s="8">
+        <v>5</v>
+      </c>
+      <c r="L54" s="8">
+        <v>4</v>
+      </c>
+      <c r="M54" s="8">
+        <v>3</v>
+      </c>
+      <c r="N54" s="8">
+        <v>2</v>
+      </c>
+      <c r="O54" s="8">
+        <v>1</v>
+      </c>
+      <c r="P54" s="8"/>
+      <c r="Q54" s="8"/>
+      <c r="R54" s="8"/>
+      <c r="S54" s="8"/>
+      <c r="T54" s="8"/>
+      <c r="U54" s="8"/>
+      <c r="V54" s="60"/>
+      <c r="Y54" s="51"/>
+      <c r="Z54" s="8"/>
+      <c r="AA54" s="8"/>
+      <c r="AB54" s="8"/>
+      <c r="AC54" s="8"/>
+      <c r="AD54" s="52">
+        <v>8</v>
+      </c>
+      <c r="AE54" s="52">
+        <v>7</v>
+      </c>
+      <c r="AF54" s="8">
+        <v>6</v>
+      </c>
+      <c r="AG54" s="8">
+        <v>5</v>
+      </c>
+      <c r="AH54" s="8">
+        <v>4</v>
+      </c>
+      <c r="AI54" s="8">
+        <v>3</v>
+      </c>
+      <c r="AJ54" s="8">
+        <v>2</v>
+      </c>
+      <c r="AK54" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL54" s="8"/>
+      <c r="AM54" s="8"/>
+      <c r="AN54" s="8"/>
+      <c r="AO54" s="8"/>
+      <c r="AP54" s="8"/>
+      <c r="AQ54" s="8"/>
+      <c r="AR54" s="60"/>
     </row>
-    <row r="55" customHeight="1" spans="4:45">
-      <c r="D55" s="48"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
-      <c r="O55" s="1"/>
-      <c r="P55" s="1"/>
-      <c r="Q55" s="1"/>
-      <c r="R55" s="1"/>
-      <c r="S55" s="1"/>
-      <c r="T55" s="1"/>
-      <c r="U55" s="1"/>
-      <c r="V55" s="1"/>
-      <c r="W55" s="56"/>
-      <c r="Z55" s="48"/>
-      <c r="AA55" s="1"/>
-      <c r="AB55" s="1"/>
-      <c r="AC55" s="1"/>
-      <c r="AD55" s="1"/>
-      <c r="AE55" s="1"/>
-      <c r="AF55" s="1"/>
-      <c r="AG55" s="1"/>
-      <c r="AH55" s="1"/>
-      <c r="AI55" s="1"/>
-      <c r="AJ55" s="1"/>
-      <c r="AK55" s="1"/>
-      <c r="AL55" s="1"/>
-      <c r="AM55" s="1"/>
-      <c r="AN55" s="1"/>
-      <c r="AO55" s="1"/>
-      <c r="AP55" s="1"/>
-      <c r="AQ55" s="1"/>
-      <c r="AR55" s="1"/>
-      <c r="AS55" s="56"/>
+    <row r="55" customHeight="1" spans="3:44">
+      <c r="C55" s="53"/>
+      <c r="D55" s="54"/>
+      <c r="E55" s="54"/>
+      <c r="F55" s="54"/>
+      <c r="G55" s="54"/>
+      <c r="H55" s="54"/>
+      <c r="I55" s="54"/>
+      <c r="J55" s="54"/>
+      <c r="K55" s="54"/>
+      <c r="L55" s="54"/>
+      <c r="M55" s="54"/>
+      <c r="N55" s="54"/>
+      <c r="O55" s="54"/>
+      <c r="P55" s="54"/>
+      <c r="Q55" s="54"/>
+      <c r="R55" s="54"/>
+      <c r="S55" s="54"/>
+      <c r="T55" s="54"/>
+      <c r="U55" s="54"/>
+      <c r="V55" s="61"/>
+      <c r="Y55" s="53"/>
+      <c r="Z55" s="54"/>
+      <c r="AA55" s="54"/>
+      <c r="AB55" s="54"/>
+      <c r="AC55" s="54"/>
+      <c r="AD55" s="54"/>
+      <c r="AE55" s="54"/>
+      <c r="AF55" s="54"/>
+      <c r="AG55" s="54"/>
+      <c r="AH55" s="54"/>
+      <c r="AI55" s="54"/>
+      <c r="AJ55" s="54"/>
+      <c r="AK55" s="54"/>
+      <c r="AL55" s="54"/>
+      <c r="AM55" s="54"/>
+      <c r="AN55" s="54"/>
+      <c r="AO55" s="54"/>
+      <c r="AP55" s="54"/>
+      <c r="AQ55" s="54"/>
+      <c r="AR55" s="61"/>
     </row>
-    <row r="56" customHeight="1" spans="4:45">
-      <c r="D56" s="48"/>
-      <c r="E56" s="1"/>
+    <row r="56" customHeight="1" spans="3:44">
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" t="s">
+        <v>5</v>
+      </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
@@ -25418,8 +26925,8 @@
       <c r="T56" s="1"/>
       <c r="U56" s="1"/>
       <c r="V56" s="1"/>
-      <c r="W56" s="56"/>
-      <c r="Z56" s="48"/>
+      <c r="Y56" s="1"/>
+      <c r="Z56" s="1"/>
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
       <c r="AC56" s="1"/>
@@ -25438,278 +26945,76 @@
       <c r="AP56" s="1"/>
       <c r="AQ56" s="1"/>
       <c r="AR56" s="1"/>
-      <c r="AS56" s="56"/>
     </row>
-    <row r="57" customHeight="1" spans="4:45">
-      <c r="D57" s="48"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
-      <c r="N57" s="1"/>
-      <c r="O57" s="1"/>
-      <c r="P57" s="1"/>
-      <c r="Q57" s="1"/>
-      <c r="R57" s="1"/>
-      <c r="S57" s="1"/>
-      <c r="T57" s="1"/>
-      <c r="U57" s="1"/>
-      <c r="V57" s="1"/>
-      <c r="W57" s="56"/>
-      <c r="Z57" s="48"/>
-      <c r="AA57" s="1"/>
-      <c r="AB57" s="1"/>
-      <c r="AC57" s="1"/>
-      <c r="AD57" s="1"/>
-      <c r="AE57" s="1"/>
-      <c r="AF57" s="1"/>
-      <c r="AG57" s="1"/>
-      <c r="AH57" s="1"/>
-      <c r="AI57" s="1"/>
-      <c r="AJ57" s="1"/>
-      <c r="AK57" s="1"/>
-      <c r="AL57" s="1"/>
-      <c r="AM57" s="1"/>
-      <c r="AN57" s="1"/>
-      <c r="AO57" s="1"/>
-      <c r="AP57" s="1"/>
-      <c r="AQ57" s="1"/>
-      <c r="AR57" s="1"/>
-      <c r="AS57" s="56"/>
+    <row r="58" customHeight="1" spans="5:5">
+      <c r="E58" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="58" customHeight="1" spans="4:45">
-      <c r="D58" s="48"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
-      <c r="O58" s="1"/>
-      <c r="P58" s="1"/>
-      <c r="Q58" s="1"/>
-      <c r="R58" s="1"/>
-      <c r="S58" s="1"/>
-      <c r="T58" s="1"/>
-      <c r="U58" s="1"/>
-      <c r="V58" s="1"/>
-      <c r="W58" s="56"/>
-      <c r="Z58" s="48"/>
-      <c r="AA58" s="1"/>
-      <c r="AB58" s="1"/>
-      <c r="AC58" s="1"/>
-      <c r="AD58" s="1"/>
-      <c r="AE58" s="1"/>
-      <c r="AF58" s="1"/>
-      <c r="AG58" s="1"/>
-      <c r="AH58" s="1"/>
-      <c r="AI58" s="1"/>
-      <c r="AJ58" s="1"/>
-      <c r="AK58" s="1"/>
-      <c r="AL58" s="1"/>
-      <c r="AM58" s="1"/>
-      <c r="AN58" s="1"/>
-      <c r="AO58" s="1"/>
-      <c r="AP58" s="1"/>
-      <c r="AQ58" s="1"/>
-      <c r="AR58" s="1"/>
-      <c r="AS58" s="56"/>
+    <row r="60" customHeight="1" spans="1:21">
+      <c r="A60" t="s">
+        <v>7</v>
+      </c>
+      <c r="L60" s="77"/>
+      <c r="M60" s="77"/>
+      <c r="N60" s="77"/>
+      <c r="O60" s="77"/>
+      <c r="P60" s="77"/>
+      <c r="Q60" s="77"/>
+      <c r="R60" s="77"/>
+      <c r="S60" s="77"/>
+      <c r="T60" s="77"/>
+      <c r="U60" s="77"/>
     </row>
-    <row r="59" customHeight="1" spans="4:45">
-      <c r="D59" s="48"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="66"/>
-      <c r="N59" s="66"/>
-      <c r="O59" s="1"/>
-      <c r="P59" s="1"/>
-      <c r="Q59" s="1"/>
-      <c r="R59" s="1"/>
-      <c r="S59" s="1"/>
-      <c r="T59" s="1"/>
-      <c r="U59" s="1"/>
-      <c r="V59" s="1"/>
-      <c r="W59" s="56"/>
-      <c r="Z59" s="48"/>
-      <c r="AA59" s="1"/>
-      <c r="AB59" s="1"/>
-      <c r="AC59" s="1"/>
-      <c r="AD59" s="1"/>
-      <c r="AE59" s="1"/>
-      <c r="AF59" s="1"/>
-      <c r="AG59" s="1"/>
-      <c r="AH59" s="1"/>
-      <c r="AI59" s="66"/>
-      <c r="AJ59" s="66"/>
-      <c r="AK59" s="1"/>
-      <c r="AL59" s="1"/>
-      <c r="AM59" s="1"/>
-      <c r="AN59" s="1"/>
-      <c r="AO59" s="1"/>
-      <c r="AP59" s="1"/>
-      <c r="AQ59" s="1"/>
-      <c r="AR59" s="1"/>
-      <c r="AS59" s="56"/>
-    </row>
-    <row r="60" customHeight="1" spans="4:45">
-      <c r="D60" s="48"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
-      <c r="M60" s="67"/>
-      <c r="N60" s="67"/>
-      <c r="O60" s="1"/>
-      <c r="P60" s="1"/>
-      <c r="Q60" s="1"/>
-      <c r="R60" s="1"/>
-      <c r="S60" s="1"/>
-      <c r="T60" s="1"/>
-      <c r="U60" s="1"/>
-      <c r="V60" s="1"/>
-      <c r="W60" s="56"/>
-      <c r="Z60" s="48"/>
-      <c r="AA60" s="1"/>
-      <c r="AB60" s="1"/>
-      <c r="AC60" s="1"/>
-      <c r="AD60" s="1"/>
-      <c r="AE60" s="1"/>
-      <c r="AF60" s="1"/>
-      <c r="AG60" s="1"/>
-      <c r="AH60" s="1"/>
-      <c r="AI60" s="67"/>
-      <c r="AJ60" s="67"/>
-      <c r="AK60" s="1"/>
-      <c r="AL60" s="1"/>
-      <c r="AM60" s="1"/>
-      <c r="AN60" s="1"/>
-      <c r="AO60" s="1"/>
-      <c r="AP60" s="1"/>
-      <c r="AQ60" s="1"/>
-      <c r="AR60" s="1"/>
-      <c r="AS60" s="56"/>
-    </row>
-    <row r="61" customHeight="1" spans="4:45">
-      <c r="D61" s="51"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8"/>
-      <c r="K61" s="8"/>
-      <c r="L61" s="8"/>
-      <c r="M61" s="52"/>
-      <c r="N61" s="52">
-        <v>4</v>
+    <row r="61" customHeight="1" spans="5:5">
+      <c r="E61" t="s">
+        <v>8</v>
       </c>
-      <c r="O61" s="8">
-        <v>3</v>
-      </c>
-      <c r="P61" s="8">
-        <v>2</v>
-      </c>
-      <c r="Q61" s="8">
-        <v>1</v>
-      </c>
-      <c r="R61" s="8"/>
-      <c r="S61" s="8"/>
-      <c r="T61" s="8"/>
-      <c r="U61" s="8"/>
-      <c r="V61" s="8"/>
-      <c r="W61" s="60"/>
-      <c r="Z61" s="51"/>
-      <c r="AA61" s="8"/>
-      <c r="AB61" s="8"/>
-      <c r="AC61" s="8"/>
-      <c r="AD61" s="8"/>
-      <c r="AE61" s="8"/>
-      <c r="AF61" s="8"/>
-      <c r="AG61" s="8"/>
-      <c r="AH61" s="8"/>
-      <c r="AI61" s="52"/>
-      <c r="AJ61" s="52">
-        <v>4</v>
-      </c>
-      <c r="AK61" s="8">
-        <v>3</v>
-      </c>
-      <c r="AL61" s="8">
-        <v>2</v>
-      </c>
-      <c r="AM61" s="8">
-        <v>1</v>
-      </c>
-      <c r="AN61" s="8"/>
-      <c r="AO61" s="8"/>
-      <c r="AP61" s="8"/>
-      <c r="AQ61" s="8"/>
-      <c r="AR61" s="8"/>
-      <c r="AS61" s="60"/>
     </row>
     <row r="62" customHeight="1" spans="4:45">
-      <c r="D62" s="53"/>
-      <c r="E62" s="54"/>
-      <c r="F62" s="54"/>
-      <c r="G62" s="54"/>
-      <c r="H62" s="54"/>
-      <c r="I62" s="54"/>
-      <c r="J62" s="54"/>
-      <c r="K62" s="54"/>
-      <c r="L62" s="54"/>
-      <c r="M62" s="54"/>
-      <c r="N62" s="54"/>
-      <c r="O62" s="54"/>
-      <c r="P62" s="54"/>
-      <c r="Q62" s="54"/>
-      <c r="R62" s="54"/>
-      <c r="S62" s="54"/>
-      <c r="T62" s="54"/>
-      <c r="U62" s="54"/>
-      <c r="V62" s="54"/>
-      <c r="W62" s="61"/>
-      <c r="Z62" s="53"/>
-      <c r="AA62" s="54"/>
-      <c r="AB62" s="54"/>
-      <c r="AC62" s="54"/>
-      <c r="AD62" s="54"/>
-      <c r="AE62" s="54"/>
-      <c r="AF62" s="54"/>
-      <c r="AG62" s="54"/>
-      <c r="AH62" s="54"/>
-      <c r="AI62" s="54"/>
-      <c r="AJ62" s="54"/>
-      <c r="AK62" s="54"/>
-      <c r="AL62" s="54"/>
-      <c r="AM62" s="54"/>
-      <c r="AN62" s="54"/>
-      <c r="AO62" s="54"/>
-      <c r="AP62" s="54"/>
-      <c r="AQ62" s="54"/>
-      <c r="AR62" s="54"/>
-      <c r="AS62" s="61"/>
+      <c r="D62" s="46"/>
+      <c r="E62" s="47"/>
+      <c r="F62" s="47"/>
+      <c r="G62" s="47"/>
+      <c r="H62" s="47"/>
+      <c r="I62" s="47"/>
+      <c r="J62" s="47"/>
+      <c r="K62" s="47"/>
+      <c r="L62" s="47"/>
+      <c r="M62" s="47"/>
+      <c r="N62" s="47"/>
+      <c r="O62" s="47"/>
+      <c r="P62" s="47"/>
+      <c r="Q62" s="47"/>
+      <c r="R62" s="47"/>
+      <c r="S62" s="47"/>
+      <c r="T62" s="47"/>
+      <c r="U62" s="47"/>
+      <c r="V62" s="47"/>
+      <c r="W62" s="55"/>
+      <c r="Z62" s="46"/>
+      <c r="AA62" s="47"/>
+      <c r="AB62" s="47"/>
+      <c r="AC62" s="47"/>
+      <c r="AD62" s="47"/>
+      <c r="AE62" s="47"/>
+      <c r="AF62" s="47"/>
+      <c r="AG62" s="47"/>
+      <c r="AH62" s="47"/>
+      <c r="AI62" s="47"/>
+      <c r="AJ62" s="47"/>
+      <c r="AK62" s="47"/>
+      <c r="AL62" s="47"/>
+      <c r="AM62" s="47"/>
+      <c r="AN62" s="47"/>
+      <c r="AO62" s="47"/>
+      <c r="AP62" s="47"/>
+      <c r="AQ62" s="47"/>
+      <c r="AR62" s="47"/>
+      <c r="AS62" s="55"/>
     </row>
-    <row r="63" customHeight="1" spans="4:23">
-      <c r="D63" s="1"/>
+    <row r="63" customHeight="1" spans="4:45">
+      <c r="D63" s="48"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
@@ -25717,9 +27022,7 @@
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
-      <c r="L63" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="L63" s="1"/>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
@@ -25730,54 +27033,195 @@
       <c r="T63" s="1"/>
       <c r="U63" s="1"/>
       <c r="V63" s="1"/>
-      <c r="W63" s="1"/>
+      <c r="W63" s="56"/>
+      <c r="Z63" s="48"/>
+      <c r="AA63" s="1"/>
+      <c r="AB63" s="1"/>
+      <c r="AC63" s="1"/>
+      <c r="AD63" s="1"/>
+      <c r="AE63" s="1"/>
+      <c r="AF63" s="1"/>
+      <c r="AG63" s="1"/>
+      <c r="AH63" s="1"/>
+      <c r="AI63" s="1"/>
+      <c r="AJ63" s="1"/>
+      <c r="AK63" s="1"/>
+      <c r="AL63" s="1"/>
+      <c r="AM63" s="1"/>
+      <c r="AN63" s="1"/>
+      <c r="AO63" s="1"/>
+      <c r="AP63" s="1"/>
+      <c r="AQ63" s="1"/>
+      <c r="AR63" s="1"/>
+      <c r="AS63" s="56"/>
     </row>
-    <row r="66" customHeight="1" spans="6:6">
-      <c r="F66" t="s">
-        <v>9</v>
-      </c>
+    <row r="64" customHeight="1" spans="4:45">
+      <c r="D64" s="48"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
+      <c r="S64" s="1"/>
+      <c r="T64" s="1"/>
+      <c r="U64" s="1"/>
+      <c r="V64" s="1"/>
+      <c r="W64" s="56"/>
+      <c r="Z64" s="48"/>
+      <c r="AA64" s="1"/>
+      <c r="AB64" s="1"/>
+      <c r="AC64" s="1"/>
+      <c r="AD64" s="1"/>
+      <c r="AE64" s="1"/>
+      <c r="AF64" s="1"/>
+      <c r="AG64" s="1"/>
+      <c r="AH64" s="1"/>
+      <c r="AI64" s="1"/>
+      <c r="AJ64" s="1"/>
+      <c r="AK64" s="1"/>
+      <c r="AL64" s="1"/>
+      <c r="AM64" s="1"/>
+      <c r="AN64" s="1"/>
+      <c r="AO64" s="1"/>
+      <c r="AP64" s="1"/>
+      <c r="AQ64" s="1"/>
+      <c r="AR64" s="1"/>
+      <c r="AS64" s="56"/>
+    </row>
+    <row r="65" customHeight="1" spans="4:45">
+      <c r="D65" s="48"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
+      <c r="T65" s="1"/>
+      <c r="U65" s="1"/>
+      <c r="V65" s="1"/>
+      <c r="W65" s="56"/>
+      <c r="Z65" s="48"/>
+      <c r="AA65" s="1"/>
+      <c r="AB65" s="1"/>
+      <c r="AC65" s="1"/>
+      <c r="AD65" s="1"/>
+      <c r="AE65" s="1"/>
+      <c r="AF65" s="1"/>
+      <c r="AG65" s="1"/>
+      <c r="AH65" s="1"/>
+      <c r="AI65" s="1"/>
+      <c r="AJ65" s="1"/>
+      <c r="AK65" s="1"/>
+      <c r="AL65" s="1"/>
+      <c r="AM65" s="1"/>
+      <c r="AN65" s="1"/>
+      <c r="AO65" s="1"/>
+      <c r="AP65" s="1"/>
+      <c r="AQ65" s="1"/>
+      <c r="AR65" s="1"/>
+      <c r="AS65" s="56"/>
+    </row>
+    <row r="66" customHeight="1" spans="4:45">
+      <c r="D66" s="48"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="1"/>
+      <c r="S66" s="1"/>
+      <c r="T66" s="1"/>
+      <c r="U66" s="1"/>
+      <c r="V66" s="1"/>
+      <c r="W66" s="56"/>
+      <c r="Z66" s="48"/>
+      <c r="AA66" s="1"/>
+      <c r="AB66" s="1"/>
+      <c r="AC66" s="1"/>
+      <c r="AD66" s="1"/>
+      <c r="AE66" s="1"/>
+      <c r="AF66" s="1"/>
+      <c r="AG66" s="1"/>
+      <c r="AH66" s="1"/>
+      <c r="AI66" s="1"/>
+      <c r="AJ66" s="1"/>
+      <c r="AK66" s="1"/>
+      <c r="AL66" s="1"/>
+      <c r="AM66" s="1"/>
+      <c r="AN66" s="1"/>
+      <c r="AO66" s="1"/>
+      <c r="AP66" s="1"/>
+      <c r="AQ66" s="1"/>
+      <c r="AR66" s="1"/>
+      <c r="AS66" s="56"/>
     </row>
     <row r="67" customHeight="1" spans="4:45">
-      <c r="D67" s="46"/>
-      <c r="E67" s="47"/>
-      <c r="F67" s="47"/>
-      <c r="G67" s="47"/>
-      <c r="H67" s="47"/>
-      <c r="I67" s="47"/>
-      <c r="J67" s="47"/>
-      <c r="K67" s="47"/>
-      <c r="L67" s="47"/>
-      <c r="M67" s="47"/>
-      <c r="N67" s="47"/>
-      <c r="O67" s="47"/>
-      <c r="P67" s="47"/>
-      <c r="Q67" s="47"/>
-      <c r="R67" s="47"/>
-      <c r="S67" s="47"/>
-      <c r="T67" s="47"/>
-      <c r="U67" s="47"/>
-      <c r="V67" s="47"/>
-      <c r="W67" s="55"/>
-      <c r="Z67" s="46"/>
-      <c r="AA67" s="47"/>
-      <c r="AB67" s="47"/>
-      <c r="AC67" s="47"/>
-      <c r="AD67" s="47"/>
-      <c r="AE67" s="47"/>
-      <c r="AF67" s="47"/>
-      <c r="AG67" s="47"/>
-      <c r="AH67" s="47"/>
-      <c r="AI67" s="47"/>
-      <c r="AJ67" s="47"/>
-      <c r="AK67" s="47"/>
-      <c r="AL67" s="47"/>
-      <c r="AM67" s="47"/>
-      <c r="AN67" s="47"/>
-      <c r="AO67" s="47"/>
-      <c r="AP67" s="47"/>
-      <c r="AQ67" s="47"/>
-      <c r="AR67" s="47"/>
-      <c r="AS67" s="55"/>
+      <c r="D67" s="48"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="1"/>
+      <c r="S67" s="1"/>
+      <c r="T67" s="1"/>
+      <c r="U67" s="1"/>
+      <c r="V67" s="1"/>
+      <c r="W67" s="56"/>
+      <c r="Z67" s="48"/>
+      <c r="AA67" s="1"/>
+      <c r="AB67" s="1"/>
+      <c r="AC67" s="1"/>
+      <c r="AD67" s="1"/>
+      <c r="AE67" s="1"/>
+      <c r="AF67" s="1"/>
+      <c r="AG67" s="1"/>
+      <c r="AH67" s="1"/>
+      <c r="AI67" s="1"/>
+      <c r="AJ67" s="1"/>
+      <c r="AK67" s="1"/>
+      <c r="AL67" s="1"/>
+      <c r="AM67" s="1"/>
+      <c r="AN67" s="1"/>
+      <c r="AO67" s="1"/>
+      <c r="AP67" s="1"/>
+      <c r="AQ67" s="1"/>
+      <c r="AR67" s="1"/>
+      <c r="AS67" s="56"/>
     </row>
     <row r="68" customHeight="1" spans="4:45">
       <c r="D68" s="48"/>
@@ -25831,8 +27275,8 @@
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
-      <c r="M69" s="1"/>
-      <c r="N69" s="1"/>
+      <c r="M69" s="83"/>
+      <c r="N69" s="83"/>
       <c r="O69" s="1"/>
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
@@ -25851,8 +27295,8 @@
       <c r="AF69" s="1"/>
       <c r="AG69" s="1"/>
       <c r="AH69" s="1"/>
-      <c r="AI69" s="1"/>
-      <c r="AJ69" s="1"/>
+      <c r="AI69" s="83"/>
+      <c r="AJ69" s="83"/>
       <c r="AK69" s="1"/>
       <c r="AL69" s="1"/>
       <c r="AM69" s="1"/>
@@ -25873,8 +27317,8 @@
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
-      <c r="N70" s="1"/>
+      <c r="M70" s="84"/>
+      <c r="N70" s="84"/>
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
@@ -25893,8 +27337,8 @@
       <c r="AF70" s="1"/>
       <c r="AG70" s="1"/>
       <c r="AH70" s="1"/>
-      <c r="AI70" s="1"/>
-      <c r="AJ70" s="1"/>
+      <c r="AI70" s="84"/>
+      <c r="AJ70" s="84"/>
       <c r="AK70" s="1"/>
       <c r="AL70" s="1"/>
       <c r="AM70" s="1"/>
@@ -25906,91 +27350,107 @@
       <c r="AS70" s="56"/>
     </row>
     <row r="71" customHeight="1" spans="4:45">
-      <c r="D71" s="48"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-      <c r="K71" s="1"/>
-      <c r="L71" s="1"/>
-      <c r="M71" s="1"/>
-      <c r="N71" s="1"/>
-      <c r="O71" s="1"/>
-      <c r="P71" s="1"/>
-      <c r="Q71" s="1"/>
-      <c r="R71" s="1"/>
-      <c r="S71" s="1"/>
-      <c r="T71" s="1"/>
-      <c r="U71" s="1"/>
-      <c r="V71" s="1"/>
-      <c r="W71" s="56"/>
-      <c r="Z71" s="48"/>
-      <c r="AA71" s="1"/>
-      <c r="AB71" s="1"/>
-      <c r="AC71" s="1"/>
-      <c r="AD71" s="1"/>
-      <c r="AE71" s="1"/>
-      <c r="AF71" s="1"/>
-      <c r="AG71" s="1"/>
-      <c r="AH71" s="1"/>
-      <c r="AI71" s="1"/>
-      <c r="AJ71" s="1"/>
-      <c r="AK71" s="1"/>
-      <c r="AL71" s="1"/>
-      <c r="AM71" s="1"/>
-      <c r="AN71" s="1"/>
-      <c r="AO71" s="1"/>
-      <c r="AP71" s="1"/>
-      <c r="AQ71" s="1"/>
-      <c r="AR71" s="1"/>
-      <c r="AS71" s="56"/>
+      <c r="D71" s="51"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="8"/>
+      <c r="L71" s="8"/>
+      <c r="M71" s="52"/>
+      <c r="N71" s="52">
+        <v>4</v>
+      </c>
+      <c r="O71" s="8">
+        <v>3</v>
+      </c>
+      <c r="P71" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q71" s="8">
+        <v>1</v>
+      </c>
+      <c r="R71" s="8"/>
+      <c r="S71" s="8"/>
+      <c r="T71" s="8"/>
+      <c r="U71" s="8"/>
+      <c r="V71" s="8"/>
+      <c r="W71" s="60"/>
+      <c r="Z71" s="51"/>
+      <c r="AA71" s="8"/>
+      <c r="AB71" s="8"/>
+      <c r="AC71" s="8"/>
+      <c r="AD71" s="8"/>
+      <c r="AE71" s="8"/>
+      <c r="AF71" s="8"/>
+      <c r="AG71" s="8"/>
+      <c r="AH71" s="8"/>
+      <c r="AI71" s="52"/>
+      <c r="AJ71" s="52">
+        <v>4</v>
+      </c>
+      <c r="AK71" s="8">
+        <v>3</v>
+      </c>
+      <c r="AL71" s="8">
+        <v>2</v>
+      </c>
+      <c r="AM71" s="8">
+        <v>1</v>
+      </c>
+      <c r="AN71" s="8"/>
+      <c r="AO71" s="8"/>
+      <c r="AP71" s="8"/>
+      <c r="AQ71" s="8"/>
+      <c r="AR71" s="8"/>
+      <c r="AS71" s="60"/>
     </row>
     <row r="72" customHeight="1" spans="4:45">
-      <c r="D72" s="48"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
-      <c r="L72" s="1"/>
-      <c r="M72" s="1"/>
-      <c r="N72" s="1"/>
-      <c r="O72" s="1"/>
-      <c r="P72" s="1"/>
-      <c r="Q72" s="1"/>
-      <c r="R72" s="1"/>
-      <c r="S72" s="1"/>
-      <c r="T72" s="1"/>
-      <c r="U72" s="1"/>
-      <c r="V72" s="1"/>
-      <c r="W72" s="56"/>
-      <c r="Z72" s="48"/>
-      <c r="AA72" s="1"/>
-      <c r="AB72" s="1"/>
-      <c r="AC72" s="1"/>
-      <c r="AD72" s="1"/>
-      <c r="AE72" s="1"/>
-      <c r="AF72" s="1"/>
-      <c r="AG72" s="1"/>
-      <c r="AH72" s="1"/>
-      <c r="AI72" s="1"/>
-      <c r="AJ72" s="1"/>
-      <c r="AK72" s="1"/>
-      <c r="AL72" s="1"/>
-      <c r="AM72" s="1"/>
-      <c r="AN72" s="1"/>
-      <c r="AO72" s="1"/>
-      <c r="AP72" s="1"/>
-      <c r="AQ72" s="1"/>
-      <c r="AR72" s="1"/>
-      <c r="AS72" s="56"/>
+      <c r="D72" s="53"/>
+      <c r="E72" s="54"/>
+      <c r="F72" s="54"/>
+      <c r="G72" s="54"/>
+      <c r="H72" s="54"/>
+      <c r="I72" s="54"/>
+      <c r="J72" s="54"/>
+      <c r="K72" s="54"/>
+      <c r="L72" s="54"/>
+      <c r="M72" s="54"/>
+      <c r="N72" s="54"/>
+      <c r="O72" s="54"/>
+      <c r="P72" s="54"/>
+      <c r="Q72" s="54"/>
+      <c r="R72" s="54"/>
+      <c r="S72" s="54"/>
+      <c r="T72" s="54"/>
+      <c r="U72" s="54"/>
+      <c r="V72" s="54"/>
+      <c r="W72" s="61"/>
+      <c r="Z72" s="53"/>
+      <c r="AA72" s="54"/>
+      <c r="AB72" s="54"/>
+      <c r="AC72" s="54"/>
+      <c r="AD72" s="54"/>
+      <c r="AE72" s="54"/>
+      <c r="AF72" s="54"/>
+      <c r="AG72" s="54"/>
+      <c r="AH72" s="54"/>
+      <c r="AI72" s="54"/>
+      <c r="AJ72" s="54"/>
+      <c r="AK72" s="54"/>
+      <c r="AL72" s="54"/>
+      <c r="AM72" s="54"/>
+      <c r="AN72" s="54"/>
+      <c r="AO72" s="54"/>
+      <c r="AP72" s="54"/>
+      <c r="AQ72" s="54"/>
+      <c r="AR72" s="54"/>
+      <c r="AS72" s="61"/>
     </row>
-    <row r="73" customHeight="1" spans="4:45">
-      <c r="D73" s="48"/>
+    <row r="73" customHeight="1" spans="4:23">
+      <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
@@ -25998,7 +27458,9 @@
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
-      <c r="L73" s="1"/>
+      <c r="L73" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
@@ -26009,277 +27471,308 @@
       <c r="T73" s="1"/>
       <c r="U73" s="1"/>
       <c r="V73" s="1"/>
-      <c r="W73" s="56"/>
-      <c r="Z73" s="48"/>
-      <c r="AA73" s="1"/>
-      <c r="AB73" s="1"/>
-      <c r="AC73" s="1"/>
-      <c r="AD73" s="1"/>
-      <c r="AE73" s="1"/>
-      <c r="AF73" s="1"/>
-      <c r="AG73" s="1"/>
-      <c r="AH73" s="1"/>
-      <c r="AI73" s="1"/>
-      <c r="AJ73" s="1"/>
-      <c r="AK73" s="1"/>
-      <c r="AL73" s="1"/>
-      <c r="AM73" s="1"/>
-      <c r="AN73" s="1"/>
-      <c r="AO73" s="1"/>
-      <c r="AP73" s="1"/>
-      <c r="AQ73" s="1"/>
-      <c r="AR73" s="1"/>
-      <c r="AS73" s="56"/>
+      <c r="W73" s="1"/>
     </row>
-    <row r="74" customHeight="1" spans="4:45">
-      <c r="D74" s="48"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
-      <c r="L74" s="1"/>
-      <c r="M74" s="66"/>
-      <c r="N74" s="66"/>
-      <c r="O74" s="1"/>
-      <c r="P74" s="1"/>
-      <c r="Q74" s="1"/>
-      <c r="R74" s="1"/>
-      <c r="S74" s="1"/>
-      <c r="T74" s="1"/>
-      <c r="U74" s="1"/>
-      <c r="V74" s="1"/>
-      <c r="W74" s="56"/>
-      <c r="Z74" s="48"/>
-      <c r="AA74" s="1"/>
-      <c r="AB74" s="1"/>
-      <c r="AC74" s="1"/>
-      <c r="AD74" s="1"/>
-      <c r="AE74" s="1"/>
-      <c r="AF74" s="1"/>
-      <c r="AG74" s="1"/>
-      <c r="AH74" s="1"/>
-      <c r="AI74" s="66"/>
-      <c r="AJ74" s="66"/>
-      <c r="AK74" s="1"/>
-      <c r="AL74" s="1"/>
-      <c r="AM74" s="1"/>
-      <c r="AN74" s="1"/>
-      <c r="AO74" s="1"/>
-      <c r="AP74" s="1"/>
-      <c r="AQ74" s="1"/>
-      <c r="AR74" s="1"/>
-      <c r="AS74" s="56"/>
-    </row>
-    <row r="75" customHeight="1" spans="4:45">
-      <c r="D75" s="48"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
-      <c r="L75" s="1"/>
-      <c r="M75" s="67"/>
-      <c r="N75" s="67"/>
-      <c r="O75" s="1"/>
-      <c r="P75" s="1"/>
-      <c r="Q75" s="1"/>
-      <c r="R75" s="1"/>
-      <c r="S75" s="1"/>
-      <c r="T75" s="1"/>
-      <c r="U75" s="1"/>
-      <c r="V75" s="1"/>
-      <c r="W75" s="56"/>
-      <c r="Z75" s="48"/>
-      <c r="AA75" s="1"/>
-      <c r="AB75" s="1"/>
-      <c r="AC75" s="1"/>
-      <c r="AD75" s="1"/>
-      <c r="AE75" s="1"/>
-      <c r="AF75" s="1"/>
-      <c r="AG75" s="1"/>
-      <c r="AH75" s="1"/>
-      <c r="AI75" s="67"/>
-      <c r="AJ75" s="67"/>
-      <c r="AK75" s="1"/>
-      <c r="AL75" s="1"/>
-      <c r="AM75" s="1"/>
-      <c r="AN75" s="1"/>
-      <c r="AO75" s="1"/>
-      <c r="AP75" s="1"/>
-      <c r="AQ75" s="1"/>
-      <c r="AR75" s="1"/>
-      <c r="AS75" s="56"/>
-    </row>
-    <row r="76" customHeight="1" spans="4:45">
-      <c r="D76" s="51"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="8"/>
-      <c r="I76" s="8"/>
-      <c r="J76" s="8"/>
-      <c r="K76" s="8"/>
-      <c r="L76" s="8"/>
-      <c r="M76" s="52"/>
-      <c r="N76" s="52"/>
-      <c r="O76" s="8">
-        <v>2</v>
-      </c>
-      <c r="P76" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q76" s="8"/>
-      <c r="R76" s="8"/>
-      <c r="S76" s="8"/>
-      <c r="T76" s="8"/>
-      <c r="U76" s="8"/>
-      <c r="V76" s="8"/>
-      <c r="W76" s="60"/>
-      <c r="Z76" s="51"/>
-      <c r="AA76" s="8"/>
-      <c r="AB76" s="8"/>
-      <c r="AC76" s="8"/>
-      <c r="AD76" s="8"/>
-      <c r="AE76" s="8"/>
-      <c r="AF76" s="8"/>
-      <c r="AG76" s="8"/>
-      <c r="AH76" s="8"/>
-      <c r="AI76" s="52"/>
-      <c r="AJ76" s="52"/>
-      <c r="AK76" s="8">
-        <v>2</v>
-      </c>
-      <c r="AL76" s="8">
-        <v>1</v>
-      </c>
-      <c r="AM76" s="8"/>
-      <c r="AN76" s="8"/>
-      <c r="AO76" s="8"/>
-      <c r="AP76" s="8"/>
-      <c r="AQ76" s="8"/>
-      <c r="AR76" s="8"/>
-      <c r="AS76" s="60"/>
-    </row>
-    <row r="77" customHeight="1" spans="4:45">
-      <c r="D77" s="53"/>
-      <c r="E77" s="54"/>
-      <c r="F77" s="54"/>
-      <c r="G77" s="54"/>
-      <c r="H77" s="54"/>
-      <c r="I77" s="54"/>
-      <c r="J77" s="54"/>
-      <c r="K77" s="54"/>
-      <c r="L77" s="54"/>
-      <c r="M77" s="54"/>
-      <c r="N77" s="54"/>
-      <c r="O77" s="54"/>
-      <c r="P77" s="54"/>
-      <c r="Q77" s="54"/>
-      <c r="R77" s="54"/>
-      <c r="S77" s="54"/>
-      <c r="T77" s="54"/>
-      <c r="U77" s="54"/>
-      <c r="V77" s="54"/>
-      <c r="W77" s="61"/>
-      <c r="Z77" s="53"/>
-      <c r="AA77" s="54"/>
-      <c r="AB77" s="54"/>
-      <c r="AC77" s="54"/>
-      <c r="AD77" s="54"/>
-      <c r="AE77" s="54"/>
-      <c r="AF77" s="54"/>
-      <c r="AG77" s="54"/>
-      <c r="AH77" s="54"/>
-      <c r="AI77" s="54"/>
-      <c r="AJ77" s="54"/>
-      <c r="AK77" s="54"/>
-      <c r="AL77" s="54"/>
-      <c r="AM77" s="54"/>
-      <c r="AN77" s="54"/>
-      <c r="AO77" s="54"/>
-      <c r="AP77" s="54"/>
-      <c r="AQ77" s="54"/>
-      <c r="AR77" s="54"/>
-      <c r="AS77" s="61"/>
-    </row>
-    <row r="78" customHeight="1" spans="12:12">
-      <c r="L78" t="s">
+    <row r="76" customHeight="1" spans="6:6">
+      <c r="F76" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="82" customHeight="1" spans="4:4">
-      <c r="D82" t="s">
-        <v>11</v>
-      </c>
+    <row r="77" customHeight="1" spans="4:45">
+      <c r="D77" s="46"/>
+      <c r="E77" s="47"/>
+      <c r="F77" s="47"/>
+      <c r="G77" s="47"/>
+      <c r="H77" s="47"/>
+      <c r="I77" s="47"/>
+      <c r="J77" s="47"/>
+      <c r="K77" s="47"/>
+      <c r="L77" s="47"/>
+      <c r="M77" s="47"/>
+      <c r="N77" s="47"/>
+      <c r="O77" s="47"/>
+      <c r="P77" s="47"/>
+      <c r="Q77" s="47"/>
+      <c r="R77" s="47"/>
+      <c r="S77" s="47"/>
+      <c r="T77" s="47"/>
+      <c r="U77" s="47"/>
+      <c r="V77" s="47"/>
+      <c r="W77" s="55"/>
+      <c r="Z77" s="46"/>
+      <c r="AA77" s="47"/>
+      <c r="AB77" s="47"/>
+      <c r="AC77" s="47"/>
+      <c r="AD77" s="47"/>
+      <c r="AE77" s="47"/>
+      <c r="AF77" s="47"/>
+      <c r="AG77" s="47"/>
+      <c r="AH77" s="47"/>
+      <c r="AI77" s="47"/>
+      <c r="AJ77" s="47"/>
+      <c r="AK77" s="47"/>
+      <c r="AL77" s="47"/>
+      <c r="AM77" s="47"/>
+      <c r="AN77" s="47"/>
+      <c r="AO77" s="47"/>
+      <c r="AP77" s="47"/>
+      <c r="AQ77" s="47"/>
+      <c r="AR77" s="47"/>
+      <c r="AS77" s="55"/>
     </row>
-    <row r="83" customHeight="1" spans="4:67">
-      <c r="D83" s="46"/>
-      <c r="E83" s="47"/>
-      <c r="F83" s="47"/>
-      <c r="G83" s="47"/>
-      <c r="H83" s="47"/>
-      <c r="I83" s="47"/>
-      <c r="J83" s="47"/>
-      <c r="K83" s="47"/>
-      <c r="L83" s="47"/>
-      <c r="M83" s="47"/>
-      <c r="N83" s="47"/>
-      <c r="O83" s="47"/>
-      <c r="P83" s="47"/>
-      <c r="Q83" s="47"/>
-      <c r="R83" s="47"/>
-      <c r="S83" s="47"/>
-      <c r="T83" s="47"/>
-      <c r="U83" s="47"/>
-      <c r="V83" s="47"/>
-      <c r="W83" s="55"/>
-      <c r="Z83" s="46"/>
-      <c r="AA83" s="47"/>
-      <c r="AB83" s="47"/>
-      <c r="AC83" s="47"/>
-      <c r="AD83" s="47"/>
-      <c r="AE83" s="47"/>
-      <c r="AF83" s="47"/>
-      <c r="AG83" s="47"/>
-      <c r="AH83" s="47"/>
-      <c r="AI83" s="47"/>
-      <c r="AJ83" s="47"/>
-      <c r="AK83" s="47"/>
-      <c r="AL83" s="47"/>
-      <c r="AM83" s="47"/>
-      <c r="AN83" s="47"/>
-      <c r="AO83" s="47"/>
-      <c r="AP83" s="47"/>
-      <c r="AQ83" s="47"/>
-      <c r="AR83" s="47"/>
-      <c r="AS83" s="55"/>
-      <c r="AV83" s="46"/>
-      <c r="AW83" s="47"/>
-      <c r="AX83" s="47"/>
-      <c r="AY83" s="47"/>
-      <c r="AZ83" s="47"/>
-      <c r="BA83" s="47"/>
-      <c r="BB83" s="47"/>
-      <c r="BC83" s="47"/>
-      <c r="BD83" s="47"/>
-      <c r="BE83" s="47"/>
-      <c r="BF83" s="47"/>
-      <c r="BG83" s="47"/>
-      <c r="BH83" s="47"/>
-      <c r="BI83" s="47"/>
-      <c r="BJ83" s="47"/>
-      <c r="BK83" s="47"/>
-      <c r="BL83" s="47"/>
-      <c r="BM83" s="47"/>
-      <c r="BN83" s="47"/>
-      <c r="BO83" s="55"/>
+    <row r="78" customHeight="1" spans="4:45">
+      <c r="D78" s="48"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1"/>
+      <c r="S78" s="1"/>
+      <c r="T78" s="1"/>
+      <c r="U78" s="1"/>
+      <c r="V78" s="1"/>
+      <c r="W78" s="56"/>
+      <c r="Z78" s="48"/>
+      <c r="AA78" s="1"/>
+      <c r="AB78" s="1"/>
+      <c r="AC78" s="1"/>
+      <c r="AD78" s="1"/>
+      <c r="AE78" s="1"/>
+      <c r="AF78" s="1"/>
+      <c r="AG78" s="1"/>
+      <c r="AH78" s="1"/>
+      <c r="AI78" s="1"/>
+      <c r="AJ78" s="1"/>
+      <c r="AK78" s="1"/>
+      <c r="AL78" s="1"/>
+      <c r="AM78" s="1"/>
+      <c r="AN78" s="1"/>
+      <c r="AO78" s="1"/>
+      <c r="AP78" s="1"/>
+      <c r="AQ78" s="1"/>
+      <c r="AR78" s="1"/>
+      <c r="AS78" s="56"/>
     </row>
-    <row r="84" customHeight="1" spans="4:67">
+    <row r="79" customHeight="1" spans="4:45">
+      <c r="D79" s="48"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+      <c r="P79" s="1"/>
+      <c r="Q79" s="1"/>
+      <c r="R79" s="1"/>
+      <c r="S79" s="1"/>
+      <c r="T79" s="1"/>
+      <c r="U79" s="1"/>
+      <c r="V79" s="1"/>
+      <c r="W79" s="56"/>
+      <c r="Z79" s="48"/>
+      <c r="AA79" s="1"/>
+      <c r="AB79" s="1"/>
+      <c r="AC79" s="1"/>
+      <c r="AD79" s="1"/>
+      <c r="AE79" s="1"/>
+      <c r="AF79" s="1"/>
+      <c r="AG79" s="1"/>
+      <c r="AH79" s="1"/>
+      <c r="AI79" s="1"/>
+      <c r="AJ79" s="1"/>
+      <c r="AK79" s="1"/>
+      <c r="AL79" s="1"/>
+      <c r="AM79" s="1"/>
+      <c r="AN79" s="1"/>
+      <c r="AO79" s="1"/>
+      <c r="AP79" s="1"/>
+      <c r="AQ79" s="1"/>
+      <c r="AR79" s="1"/>
+      <c r="AS79" s="56"/>
+    </row>
+    <row r="80" customHeight="1" spans="4:45">
+      <c r="D80" s="48"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
+      <c r="P80" s="1"/>
+      <c r="Q80" s="1"/>
+      <c r="R80" s="1"/>
+      <c r="S80" s="1"/>
+      <c r="T80" s="1"/>
+      <c r="U80" s="1"/>
+      <c r="V80" s="1"/>
+      <c r="W80" s="56"/>
+      <c r="Z80" s="48"/>
+      <c r="AA80" s="1"/>
+      <c r="AB80" s="1"/>
+      <c r="AC80" s="1"/>
+      <c r="AD80" s="1"/>
+      <c r="AE80" s="1"/>
+      <c r="AF80" s="1"/>
+      <c r="AG80" s="1"/>
+      <c r="AH80" s="1"/>
+      <c r="AI80" s="1"/>
+      <c r="AJ80" s="1"/>
+      <c r="AK80" s="1"/>
+      <c r="AL80" s="1"/>
+      <c r="AM80" s="1"/>
+      <c r="AN80" s="1"/>
+      <c r="AO80" s="1"/>
+      <c r="AP80" s="1"/>
+      <c r="AQ80" s="1"/>
+      <c r="AR80" s="1"/>
+      <c r="AS80" s="56"/>
+    </row>
+    <row r="81" customHeight="1" spans="4:45">
+      <c r="D81" s="48"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="1"/>
+      <c r="P81" s="1"/>
+      <c r="Q81" s="1"/>
+      <c r="R81" s="1"/>
+      <c r="S81" s="1"/>
+      <c r="T81" s="1"/>
+      <c r="U81" s="1"/>
+      <c r="V81" s="1"/>
+      <c r="W81" s="56"/>
+      <c r="Z81" s="48"/>
+      <c r="AA81" s="1"/>
+      <c r="AB81" s="1"/>
+      <c r="AC81" s="1"/>
+      <c r="AD81" s="1"/>
+      <c r="AE81" s="1"/>
+      <c r="AF81" s="1"/>
+      <c r="AG81" s="1"/>
+      <c r="AH81" s="1"/>
+      <c r="AI81" s="1"/>
+      <c r="AJ81" s="1"/>
+      <c r="AK81" s="1"/>
+      <c r="AL81" s="1"/>
+      <c r="AM81" s="1"/>
+      <c r="AN81" s="1"/>
+      <c r="AO81" s="1"/>
+      <c r="AP81" s="1"/>
+      <c r="AQ81" s="1"/>
+      <c r="AR81" s="1"/>
+      <c r="AS81" s="56"/>
+    </row>
+    <row r="82" customHeight="1" spans="4:45">
+      <c r="D82" s="48"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+      <c r="P82" s="1"/>
+      <c r="Q82" s="1"/>
+      <c r="R82" s="1"/>
+      <c r="S82" s="1"/>
+      <c r="T82" s="1"/>
+      <c r="U82" s="1"/>
+      <c r="V82" s="1"/>
+      <c r="W82" s="56"/>
+      <c r="Z82" s="48"/>
+      <c r="AA82" s="1"/>
+      <c r="AB82" s="1"/>
+      <c r="AC82" s="1"/>
+      <c r="AD82" s="1"/>
+      <c r="AE82" s="1"/>
+      <c r="AF82" s="1"/>
+      <c r="AG82" s="1"/>
+      <c r="AH82" s="1"/>
+      <c r="AI82" s="1"/>
+      <c r="AJ82" s="1"/>
+      <c r="AK82" s="1"/>
+      <c r="AL82" s="1"/>
+      <c r="AM82" s="1"/>
+      <c r="AN82" s="1"/>
+      <c r="AO82" s="1"/>
+      <c r="AP82" s="1"/>
+      <c r="AQ82" s="1"/>
+      <c r="AR82" s="1"/>
+      <c r="AS82" s="56"/>
+    </row>
+    <row r="83" customHeight="1" spans="4:45">
+      <c r="D83" s="48"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
+      <c r="Q83" s="1"/>
+      <c r="R83" s="1"/>
+      <c r="S83" s="1"/>
+      <c r="T83" s="1"/>
+      <c r="U83" s="1"/>
+      <c r="V83" s="1"/>
+      <c r="W83" s="56"/>
+      <c r="Z83" s="48"/>
+      <c r="AA83" s="1"/>
+      <c r="AB83" s="1"/>
+      <c r="AC83" s="1"/>
+      <c r="AD83" s="1"/>
+      <c r="AE83" s="1"/>
+      <c r="AF83" s="1"/>
+      <c r="AG83" s="1"/>
+      <c r="AH83" s="1"/>
+      <c r="AI83" s="1"/>
+      <c r="AJ83" s="1"/>
+      <c r="AK83" s="1"/>
+      <c r="AL83" s="1"/>
+      <c r="AM83" s="1"/>
+      <c r="AN83" s="1"/>
+      <c r="AO83" s="1"/>
+      <c r="AP83" s="1"/>
+      <c r="AQ83" s="1"/>
+      <c r="AR83" s="1"/>
+      <c r="AS83" s="56"/>
+    </row>
+    <row r="84" customHeight="1" spans="4:45">
       <c r="D84" s="48"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
@@ -26289,8 +27782,8 @@
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
-      <c r="M84" s="1"/>
-      <c r="N84" s="1"/>
+      <c r="M84" s="83"/>
+      <c r="N84" s="83"/>
       <c r="O84" s="1"/>
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
@@ -26309,8 +27802,8 @@
       <c r="AF84" s="1"/>
       <c r="AG84" s="1"/>
       <c r="AH84" s="1"/>
-      <c r="AI84" s="1"/>
-      <c r="AJ84" s="1"/>
+      <c r="AI84" s="83"/>
+      <c r="AJ84" s="83"/>
       <c r="AK84" s="1"/>
       <c r="AL84" s="1"/>
       <c r="AM84" s="1"/>
@@ -26320,28 +27813,8 @@
       <c r="AQ84" s="1"/>
       <c r="AR84" s="1"/>
       <c r="AS84" s="56"/>
-      <c r="AV84" s="48"/>
-      <c r="AW84" s="1"/>
-      <c r="AX84" s="1"/>
-      <c r="AY84" s="1"/>
-      <c r="AZ84" s="1"/>
-      <c r="BA84" s="1"/>
-      <c r="BB84" s="1"/>
-      <c r="BC84" s="1"/>
-      <c r="BD84" s="1"/>
-      <c r="BE84" s="1"/>
-      <c r="BF84" s="1"/>
-      <c r="BG84" s="1"/>
-      <c r="BH84" s="1"/>
-      <c r="BI84" s="1"/>
-      <c r="BJ84" s="1"/>
-      <c r="BK84" s="1"/>
-      <c r="BL84" s="1"/>
-      <c r="BM84" s="1"/>
-      <c r="BN84" s="1"/>
-      <c r="BO84" s="56"/>
     </row>
-    <row r="85" customHeight="1" spans="4:67">
+    <row r="85" customHeight="1" spans="4:45">
       <c r="D85" s="48"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
@@ -26351,8 +27824,8 @@
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
-      <c r="M85" s="1"/>
-      <c r="N85" s="1"/>
+      <c r="M85" s="84"/>
+      <c r="N85" s="84"/>
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
@@ -26371,8 +27844,8 @@
       <c r="AF85" s="1"/>
       <c r="AG85" s="1"/>
       <c r="AH85" s="1"/>
-      <c r="AI85" s="1"/>
-      <c r="AJ85" s="1"/>
+      <c r="AI85" s="84"/>
+      <c r="AJ85" s="84"/>
       <c r="AK85" s="1"/>
       <c r="AL85" s="1"/>
       <c r="AM85" s="1"/>
@@ -26382,547 +27855,815 @@
       <c r="AQ85" s="1"/>
       <c r="AR85" s="1"/>
       <c r="AS85" s="56"/>
-      <c r="AV85" s="48"/>
-      <c r="AW85" s="1"/>
-      <c r="AX85" s="1"/>
-      <c r="AY85" s="1"/>
-      <c r="AZ85" s="1"/>
-      <c r="BA85" s="1"/>
-      <c r="BB85" s="1"/>
-      <c r="BC85" s="1"/>
-      <c r="BD85" s="1"/>
-      <c r="BE85" s="1"/>
-      <c r="BF85" s="1"/>
-      <c r="BG85" s="1"/>
-      <c r="BH85" s="1"/>
-      <c r="BI85" s="1"/>
-      <c r="BJ85" s="1"/>
-      <c r="BK85" s="1"/>
-      <c r="BL85" s="1"/>
-      <c r="BM85" s="1"/>
-      <c r="BN85" s="1"/>
-      <c r="BO85" s="56"/>
     </row>
-    <row r="86" customHeight="1" spans="4:67">
-      <c r="D86" s="48"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
-      <c r="K86" s="1"/>
-      <c r="L86" s="1"/>
-      <c r="M86" s="1"/>
-      <c r="N86" s="1"/>
-      <c r="O86" s="1"/>
-      <c r="P86" s="1"/>
-      <c r="Q86" s="1"/>
-      <c r="R86" s="1"/>
-      <c r="S86" s="1"/>
-      <c r="T86" s="1"/>
-      <c r="U86" s="1"/>
-      <c r="V86" s="1"/>
-      <c r="W86" s="56"/>
-      <c r="Z86" s="48"/>
-      <c r="AA86" s="1"/>
-      <c r="AB86" s="1"/>
-      <c r="AC86" s="1"/>
-      <c r="AD86" s="1"/>
-      <c r="AE86" s="1"/>
-      <c r="AF86" s="1"/>
-      <c r="AG86" s="1"/>
-      <c r="AH86" s="1"/>
-      <c r="AI86" s="1"/>
-      <c r="AJ86" s="1"/>
-      <c r="AK86" s="1"/>
-      <c r="AL86" s="1"/>
-      <c r="AM86" s="1"/>
-      <c r="AN86" s="1"/>
-      <c r="AO86" s="1"/>
-      <c r="AP86" s="1"/>
-      <c r="AQ86" s="1"/>
-      <c r="AR86" s="1"/>
-      <c r="AS86" s="56"/>
-      <c r="AV86" s="48"/>
-      <c r="AW86" s="1"/>
-      <c r="AX86" s="1"/>
-      <c r="AY86" s="1"/>
-      <c r="AZ86" s="1"/>
-      <c r="BA86" s="1"/>
-      <c r="BB86" s="1"/>
-      <c r="BC86" s="1"/>
-      <c r="BD86" s="1"/>
-      <c r="BE86" s="1"/>
-      <c r="BF86" s="1"/>
-      <c r="BG86" s="1"/>
-      <c r="BH86" s="1"/>
-      <c r="BI86" s="1"/>
-      <c r="BJ86" s="1"/>
-      <c r="BK86" s="1"/>
-      <c r="BL86" s="1"/>
-      <c r="BM86" s="1"/>
-      <c r="BN86" s="1"/>
-      <c r="BO86" s="56"/>
+    <row r="86" customHeight="1" spans="4:45">
+      <c r="D86" s="51"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="8"/>
+      <c r="J86" s="8"/>
+      <c r="K86" s="8"/>
+      <c r="L86" s="8"/>
+      <c r="M86" s="52"/>
+      <c r="N86" s="52"/>
+      <c r="O86" s="8">
+        <v>2</v>
+      </c>
+      <c r="P86" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q86" s="8"/>
+      <c r="R86" s="8"/>
+      <c r="S86" s="8"/>
+      <c r="T86" s="8"/>
+      <c r="U86" s="8"/>
+      <c r="V86" s="8"/>
+      <c r="W86" s="60"/>
+      <c r="Z86" s="51"/>
+      <c r="AA86" s="8"/>
+      <c r="AB86" s="8"/>
+      <c r="AC86" s="8"/>
+      <c r="AD86" s="8"/>
+      <c r="AE86" s="8"/>
+      <c r="AF86" s="8"/>
+      <c r="AG86" s="8"/>
+      <c r="AH86" s="8"/>
+      <c r="AI86" s="52"/>
+      <c r="AJ86" s="52"/>
+      <c r="AK86" s="8">
+        <v>2</v>
+      </c>
+      <c r="AL86" s="8">
+        <v>1</v>
+      </c>
+      <c r="AM86" s="8"/>
+      <c r="AN86" s="8"/>
+      <c r="AO86" s="8"/>
+      <c r="AP86" s="8"/>
+      <c r="AQ86" s="8"/>
+      <c r="AR86" s="8"/>
+      <c r="AS86" s="60"/>
     </row>
-    <row r="87" customHeight="1" spans="4:67">
-      <c r="D87" s="48"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
-      <c r="J87" s="1"/>
-      <c r="K87" s="1"/>
-      <c r="L87" s="1"/>
-      <c r="M87" s="1"/>
-      <c r="N87" s="1"/>
-      <c r="O87" s="1"/>
-      <c r="P87" s="1"/>
-      <c r="Q87" s="1"/>
-      <c r="R87" s="1"/>
-      <c r="S87" s="1"/>
-      <c r="T87" s="1"/>
-      <c r="U87" s="1"/>
-      <c r="V87" s="1"/>
-      <c r="W87" s="56"/>
-      <c r="Z87" s="48"/>
-      <c r="AA87" s="1"/>
-      <c r="AB87" s="1"/>
-      <c r="AC87" s="1"/>
-      <c r="AD87" s="1"/>
-      <c r="AE87" s="1"/>
-      <c r="AF87" s="1"/>
-      <c r="AG87" s="1"/>
-      <c r="AH87" s="1"/>
-      <c r="AI87" s="1"/>
-      <c r="AJ87" s="1"/>
-      <c r="AK87" s="1"/>
-      <c r="AL87" s="1"/>
-      <c r="AM87" s="1"/>
-      <c r="AN87" s="1"/>
-      <c r="AO87" s="1"/>
-      <c r="AP87" s="1"/>
-      <c r="AQ87" s="1"/>
-      <c r="AR87" s="1"/>
-      <c r="AS87" s="56"/>
-      <c r="AV87" s="48"/>
-      <c r="AW87" s="1"/>
-      <c r="AX87" s="1"/>
-      <c r="AY87" s="1"/>
-      <c r="AZ87" s="1"/>
-      <c r="BA87" s="1"/>
-      <c r="BB87" s="1"/>
-      <c r="BC87" s="1"/>
-      <c r="BD87" s="1"/>
-      <c r="BE87" s="1"/>
-      <c r="BF87" s="1"/>
-      <c r="BG87" s="1"/>
-      <c r="BH87" s="1"/>
-      <c r="BI87" s="1"/>
-      <c r="BJ87" s="1"/>
-      <c r="BK87" s="1"/>
-      <c r="BL87" s="1"/>
-      <c r="BM87" s="1"/>
-      <c r="BN87" s="1"/>
-      <c r="BO87" s="56"/>
+    <row r="87" customHeight="1" spans="4:45">
+      <c r="D87" s="53"/>
+      <c r="E87" s="54"/>
+      <c r="F87" s="54"/>
+      <c r="G87" s="54"/>
+      <c r="H87" s="54"/>
+      <c r="I87" s="54"/>
+      <c r="J87" s="54"/>
+      <c r="K87" s="54"/>
+      <c r="L87" s="54"/>
+      <c r="M87" s="54"/>
+      <c r="N87" s="54"/>
+      <c r="O87" s="54"/>
+      <c r="P87" s="54"/>
+      <c r="Q87" s="54"/>
+      <c r="R87" s="54"/>
+      <c r="S87" s="54"/>
+      <c r="T87" s="54"/>
+      <c r="U87" s="54"/>
+      <c r="V87" s="54"/>
+      <c r="W87" s="61"/>
+      <c r="Z87" s="53"/>
+      <c r="AA87" s="54"/>
+      <c r="AB87" s="54"/>
+      <c r="AC87" s="54"/>
+      <c r="AD87" s="54"/>
+      <c r="AE87" s="54"/>
+      <c r="AF87" s="54"/>
+      <c r="AG87" s="54"/>
+      <c r="AH87" s="54"/>
+      <c r="AI87" s="54"/>
+      <c r="AJ87" s="54"/>
+      <c r="AK87" s="54"/>
+      <c r="AL87" s="54"/>
+      <c r="AM87" s="54"/>
+      <c r="AN87" s="54"/>
+      <c r="AO87" s="54"/>
+      <c r="AP87" s="54"/>
+      <c r="AQ87" s="54"/>
+      <c r="AR87" s="54"/>
+      <c r="AS87" s="61"/>
     </row>
-    <row r="88" customHeight="1" spans="4:67">
-      <c r="D88" s="48"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
-      <c r="K88" s="1"/>
-      <c r="L88" s="1"/>
-      <c r="M88" s="1"/>
-      <c r="N88" s="1"/>
-      <c r="O88" s="1"/>
-      <c r="P88" s="1"/>
-      <c r="Q88" s="1"/>
-      <c r="R88" s="1"/>
-      <c r="S88" s="1"/>
-      <c r="T88" s="1"/>
-      <c r="U88" s="1"/>
-      <c r="V88" s="1"/>
-      <c r="W88" s="56"/>
-      <c r="Z88" s="48"/>
-      <c r="AA88" s="1"/>
-      <c r="AB88" s="1"/>
-      <c r="AC88" s="1"/>
-      <c r="AD88" s="1"/>
-      <c r="AE88" s="1"/>
-      <c r="AF88" s="1"/>
-      <c r="AG88" s="1"/>
-      <c r="AH88" s="1"/>
-      <c r="AI88" s="1"/>
-      <c r="AJ88" s="1"/>
-      <c r="AK88" s="1"/>
-      <c r="AL88" s="1"/>
-      <c r="AM88" s="1"/>
-      <c r="AN88" s="1"/>
-      <c r="AO88" s="1"/>
-      <c r="AP88" s="1"/>
-      <c r="AQ88" s="1"/>
-      <c r="AR88" s="1"/>
-      <c r="AS88" s="56"/>
-      <c r="AV88" s="48"/>
-      <c r="AW88" s="1"/>
-      <c r="AX88" s="1"/>
-      <c r="AY88" s="1"/>
-      <c r="AZ88" s="1"/>
-      <c r="BA88" s="1"/>
-      <c r="BB88" s="1"/>
-      <c r="BC88" s="1"/>
-      <c r="BD88" s="1"/>
-      <c r="BE88" s="1"/>
-      <c r="BF88" s="1"/>
-      <c r="BG88" s="1"/>
-      <c r="BH88" s="1"/>
-      <c r="BI88" s="1"/>
-      <c r="BJ88" s="1"/>
-      <c r="BK88" s="1"/>
-      <c r="BL88" s="1"/>
-      <c r="BM88" s="1"/>
-      <c r="BN88" s="1"/>
-      <c r="BO88" s="56"/>
+    <row r="88" customHeight="1" spans="12:12">
+      <c r="L88" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="89" customHeight="1" spans="4:67">
-      <c r="D89" s="48"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
-      <c r="J89" s="1"/>
-      <c r="K89" s="1"/>
-      <c r="L89" s="1"/>
-      <c r="M89" s="1"/>
-      <c r="N89" s="1"/>
-      <c r="O89" s="1"/>
-      <c r="P89" s="1"/>
-      <c r="Q89" s="1"/>
-      <c r="R89" s="1"/>
-      <c r="S89" s="1"/>
-      <c r="T89" s="1"/>
-      <c r="U89" s="1"/>
-      <c r="V89" s="1"/>
-      <c r="W89" s="56"/>
-      <c r="Z89" s="48"/>
-      <c r="AA89" s="1"/>
-      <c r="AB89" s="1"/>
-      <c r="AC89" s="1"/>
-      <c r="AD89" s="1"/>
-      <c r="AE89" s="1"/>
-      <c r="AF89" s="1"/>
-      <c r="AG89" s="1"/>
-      <c r="AH89" s="1"/>
-      <c r="AI89" s="1"/>
-      <c r="AJ89" s="1"/>
-      <c r="AK89" s="1"/>
-      <c r="AL89" s="1"/>
-      <c r="AM89" s="1"/>
-      <c r="AN89" s="1"/>
-      <c r="AO89" s="1"/>
-      <c r="AP89" s="1"/>
-      <c r="AQ89" s="1"/>
-      <c r="AR89" s="1"/>
-      <c r="AS89" s="56"/>
-      <c r="AV89" s="48"/>
-      <c r="AW89" s="1"/>
-      <c r="AX89" s="1"/>
-      <c r="AY89" s="1"/>
-      <c r="AZ89" s="1"/>
-      <c r="BA89" s="1"/>
-      <c r="BB89" s="1"/>
-      <c r="BC89" s="1"/>
-      <c r="BD89" s="1"/>
-      <c r="BE89" s="1"/>
-      <c r="BF89" s="1"/>
-      <c r="BG89" s="1"/>
-      <c r="BH89" s="1"/>
-      <c r="BI89" s="1"/>
-      <c r="BJ89" s="1"/>
-      <c r="BK89" s="1"/>
-      <c r="BL89" s="1"/>
-      <c r="BM89" s="1"/>
-      <c r="BN89" s="1"/>
-      <c r="BO89" s="56"/>
+    <row r="92" customHeight="1" spans="4:4">
+      <c r="D92" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="90" customHeight="1" spans="4:67">
-      <c r="D90" s="48"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
-      <c r="K90" s="1"/>
-      <c r="L90" s="1"/>
-      <c r="M90" s="66"/>
-      <c r="N90" s="66"/>
-      <c r="O90" s="1"/>
-      <c r="P90" s="1"/>
-      <c r="Q90" s="1"/>
-      <c r="R90" s="1"/>
-      <c r="S90" s="1"/>
-      <c r="T90" s="1"/>
-      <c r="U90" s="1"/>
-      <c r="V90" s="1"/>
-      <c r="W90" s="56"/>
-      <c r="Z90" s="48"/>
-      <c r="AA90" s="1"/>
-      <c r="AB90" s="1"/>
-      <c r="AC90" s="1"/>
-      <c r="AD90" s="1"/>
-      <c r="AE90" s="1"/>
-      <c r="AF90" s="1"/>
-      <c r="AG90" s="1"/>
-      <c r="AH90" s="1"/>
-      <c r="AI90" s="66"/>
-      <c r="AJ90" s="66"/>
-      <c r="AK90" s="1"/>
-      <c r="AL90" s="1"/>
-      <c r="AM90" s="1"/>
-      <c r="AN90" s="1"/>
-      <c r="AO90" s="1"/>
-      <c r="AP90" s="1"/>
-      <c r="AQ90" s="1"/>
-      <c r="AR90" s="1"/>
-      <c r="AS90" s="56"/>
-      <c r="AV90" s="48"/>
-      <c r="AW90" s="1"/>
-      <c r="AX90" s="1"/>
-      <c r="AY90" s="1"/>
-      <c r="AZ90" s="1"/>
-      <c r="BA90" s="1"/>
-      <c r="BB90" s="1"/>
-      <c r="BC90" s="1"/>
-      <c r="BD90" s="1"/>
-      <c r="BE90" s="66"/>
-      <c r="BF90" s="66"/>
-      <c r="BG90" s="1"/>
-      <c r="BH90" s="1"/>
-      <c r="BI90" s="1"/>
-      <c r="BJ90" s="1"/>
-      <c r="BK90" s="1"/>
-      <c r="BL90" s="1"/>
-      <c r="BM90" s="1"/>
-      <c r="BN90" s="1"/>
-      <c r="BO90" s="56"/>
+    <row r="93" customHeight="1" spans="4:67">
+      <c r="D93" s="46"/>
+      <c r="E93" s="47"/>
+      <c r="F93" s="47"/>
+      <c r="G93" s="47"/>
+      <c r="H93" s="47"/>
+      <c r="I93" s="47"/>
+      <c r="J93" s="47"/>
+      <c r="K93" s="47"/>
+      <c r="L93" s="47"/>
+      <c r="M93" s="47"/>
+      <c r="N93" s="47"/>
+      <c r="O93" s="47"/>
+      <c r="P93" s="47"/>
+      <c r="Q93" s="47"/>
+      <c r="R93" s="47"/>
+      <c r="S93" s="47"/>
+      <c r="T93" s="47"/>
+      <c r="U93" s="47"/>
+      <c r="V93" s="47"/>
+      <c r="W93" s="55"/>
+      <c r="Z93" s="46"/>
+      <c r="AA93" s="47"/>
+      <c r="AB93" s="47"/>
+      <c r="AC93" s="47"/>
+      <c r="AD93" s="47"/>
+      <c r="AE93" s="47"/>
+      <c r="AF93" s="47"/>
+      <c r="AG93" s="47"/>
+      <c r="AH93" s="47"/>
+      <c r="AI93" s="47"/>
+      <c r="AJ93" s="47"/>
+      <c r="AK93" s="47"/>
+      <c r="AL93" s="47"/>
+      <c r="AM93" s="47"/>
+      <c r="AN93" s="47"/>
+      <c r="AO93" s="47"/>
+      <c r="AP93" s="47"/>
+      <c r="AQ93" s="47"/>
+      <c r="AR93" s="47"/>
+      <c r="AS93" s="55"/>
+      <c r="AV93" s="46"/>
+      <c r="AW93" s="47"/>
+      <c r="AX93" s="47"/>
+      <c r="AY93" s="47"/>
+      <c r="AZ93" s="47"/>
+      <c r="BA93" s="47"/>
+      <c r="BB93" s="47"/>
+      <c r="BC93" s="47"/>
+      <c r="BD93" s="47"/>
+      <c r="BE93" s="47"/>
+      <c r="BF93" s="47"/>
+      <c r="BG93" s="47"/>
+      <c r="BH93" s="47"/>
+      <c r="BI93" s="47"/>
+      <c r="BJ93" s="47"/>
+      <c r="BK93" s="47"/>
+      <c r="BL93" s="47"/>
+      <c r="BM93" s="47"/>
+      <c r="BN93" s="47"/>
+      <c r="BO93" s="55"/>
     </row>
-    <row r="91" customHeight="1" spans="4:67">
-      <c r="D91" s="48"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
-      <c r="J91" s="1"/>
-      <c r="K91" s="1"/>
-      <c r="L91" s="1"/>
-      <c r="M91" s="67"/>
-      <c r="N91" s="67"/>
-      <c r="O91" s="1"/>
-      <c r="P91" s="1"/>
-      <c r="Q91" s="1"/>
-      <c r="R91" s="1"/>
-      <c r="S91" s="1"/>
-      <c r="T91" s="1"/>
-      <c r="U91" s="1"/>
-      <c r="V91" s="1"/>
-      <c r="W91" s="56"/>
-      <c r="Z91" s="48"/>
-      <c r="AA91" s="1"/>
-      <c r="AB91" s="1"/>
-      <c r="AC91" s="1"/>
-      <c r="AD91" s="1"/>
-      <c r="AE91" s="1"/>
-      <c r="AF91" s="1"/>
-      <c r="AG91" s="1"/>
-      <c r="AH91" s="1"/>
-      <c r="AI91" s="67"/>
-      <c r="AJ91" s="67"/>
-      <c r="AK91" s="1"/>
-      <c r="AL91" s="1"/>
-      <c r="AM91" s="1"/>
-      <c r="AN91" s="1"/>
-      <c r="AO91" s="1"/>
-      <c r="AP91" s="1"/>
-      <c r="AQ91" s="1"/>
-      <c r="AR91" s="1"/>
-      <c r="AS91" s="56"/>
-      <c r="AV91" s="48"/>
-      <c r="AW91" s="1"/>
-      <c r="AX91" s="1"/>
-      <c r="AY91" s="1"/>
-      <c r="AZ91" s="1"/>
-      <c r="BA91" s="1"/>
-      <c r="BB91" s="1"/>
-      <c r="BC91" s="1"/>
-      <c r="BD91" s="1"/>
-      <c r="BE91" s="67"/>
-      <c r="BF91" s="67"/>
-      <c r="BG91" s="1"/>
-      <c r="BH91" s="1"/>
-      <c r="BI91" s="1"/>
-      <c r="BJ91" s="1"/>
-      <c r="BK91" s="1"/>
-      <c r="BL91" s="1"/>
-      <c r="BM91" s="1"/>
-      <c r="BN91" s="1"/>
-      <c r="BO91" s="56"/>
+    <row r="94" customHeight="1" spans="4:67">
+      <c r="D94" s="48"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+      <c r="O94" s="1"/>
+      <c r="P94" s="1"/>
+      <c r="Q94" s="1"/>
+      <c r="R94" s="1"/>
+      <c r="S94" s="1"/>
+      <c r="T94" s="1"/>
+      <c r="U94" s="1"/>
+      <c r="V94" s="1"/>
+      <c r="W94" s="56"/>
+      <c r="Z94" s="48"/>
+      <c r="AA94" s="1"/>
+      <c r="AB94" s="1"/>
+      <c r="AC94" s="1"/>
+      <c r="AD94" s="1"/>
+      <c r="AE94" s="1"/>
+      <c r="AF94" s="1"/>
+      <c r="AG94" s="1"/>
+      <c r="AH94" s="1"/>
+      <c r="AI94" s="1"/>
+      <c r="AJ94" s="1"/>
+      <c r="AK94" s="1"/>
+      <c r="AL94" s="1"/>
+      <c r="AM94" s="1"/>
+      <c r="AN94" s="1"/>
+      <c r="AO94" s="1"/>
+      <c r="AP94" s="1"/>
+      <c r="AQ94" s="1"/>
+      <c r="AR94" s="1"/>
+      <c r="AS94" s="56"/>
+      <c r="AV94" s="48"/>
+      <c r="AW94" s="1"/>
+      <c r="AX94" s="1"/>
+      <c r="AY94" s="1"/>
+      <c r="AZ94" s="1"/>
+      <c r="BA94" s="1"/>
+      <c r="BB94" s="1"/>
+      <c r="BC94" s="1"/>
+      <c r="BD94" s="1"/>
+      <c r="BE94" s="1"/>
+      <c r="BF94" s="1"/>
+      <c r="BG94" s="1"/>
+      <c r="BH94" s="1"/>
+      <c r="BI94" s="1"/>
+      <c r="BJ94" s="1"/>
+      <c r="BK94" s="1"/>
+      <c r="BL94" s="1"/>
+      <c r="BM94" s="1"/>
+      <c r="BN94" s="1"/>
+      <c r="BO94" s="56"/>
     </row>
-    <row r="92" customHeight="1" spans="4:67">
-      <c r="D92" s="51"/>
-      <c r="E92" s="8"/>
-      <c r="F92" s="8"/>
-      <c r="G92" s="8"/>
-      <c r="H92" s="8"/>
-      <c r="I92" s="8"/>
-      <c r="J92" s="8"/>
-      <c r="K92" s="8"/>
-      <c r="L92" s="8"/>
-      <c r="M92" s="52"/>
-      <c r="N92" s="52">
+    <row r="95" customHeight="1" spans="4:67">
+      <c r="D95" s="48"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+      <c r="O95" s="1"/>
+      <c r="P95" s="1"/>
+      <c r="Q95" s="1"/>
+      <c r="R95" s="1"/>
+      <c r="S95" s="1"/>
+      <c r="T95" s="1"/>
+      <c r="U95" s="1"/>
+      <c r="V95" s="1"/>
+      <c r="W95" s="56"/>
+      <c r="Z95" s="48"/>
+      <c r="AA95" s="1"/>
+      <c r="AB95" s="1"/>
+      <c r="AC95" s="1"/>
+      <c r="AD95" s="1"/>
+      <c r="AE95" s="1"/>
+      <c r="AF95" s="1"/>
+      <c r="AG95" s="1"/>
+      <c r="AH95" s="1"/>
+      <c r="AI95" s="1"/>
+      <c r="AJ95" s="1"/>
+      <c r="AK95" s="1"/>
+      <c r="AL95" s="1"/>
+      <c r="AM95" s="1"/>
+      <c r="AN95" s="1"/>
+      <c r="AO95" s="1"/>
+      <c r="AP95" s="1"/>
+      <c r="AQ95" s="1"/>
+      <c r="AR95" s="1"/>
+      <c r="AS95" s="56"/>
+      <c r="AV95" s="48"/>
+      <c r="AW95" s="1"/>
+      <c r="AX95" s="1"/>
+      <c r="AY95" s="1"/>
+      <c r="AZ95" s="1"/>
+      <c r="BA95" s="1"/>
+      <c r="BB95" s="1"/>
+      <c r="BC95" s="1"/>
+      <c r="BD95" s="1"/>
+      <c r="BE95" s="1"/>
+      <c r="BF95" s="1"/>
+      <c r="BG95" s="1"/>
+      <c r="BH95" s="1"/>
+      <c r="BI95" s="1"/>
+      <c r="BJ95" s="1"/>
+      <c r="BK95" s="1"/>
+      <c r="BL95" s="1"/>
+      <c r="BM95" s="1"/>
+      <c r="BN95" s="1"/>
+      <c r="BO95" s="56"/>
+    </row>
+    <row r="96" customHeight="1" spans="4:67">
+      <c r="D96" s="48"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+      <c r="O96" s="1"/>
+      <c r="P96" s="1"/>
+      <c r="Q96" s="1"/>
+      <c r="R96" s="1"/>
+      <c r="S96" s="1"/>
+      <c r="T96" s="1"/>
+      <c r="U96" s="1"/>
+      <c r="V96" s="1"/>
+      <c r="W96" s="56"/>
+      <c r="Z96" s="48"/>
+      <c r="AA96" s="1"/>
+      <c r="AB96" s="1"/>
+      <c r="AC96" s="1"/>
+      <c r="AD96" s="1"/>
+      <c r="AE96" s="1"/>
+      <c r="AF96" s="1"/>
+      <c r="AG96" s="1"/>
+      <c r="AH96" s="1"/>
+      <c r="AI96" s="1"/>
+      <c r="AJ96" s="1"/>
+      <c r="AK96" s="1"/>
+      <c r="AL96" s="1"/>
+      <c r="AM96" s="1"/>
+      <c r="AN96" s="1"/>
+      <c r="AO96" s="1"/>
+      <c r="AP96" s="1"/>
+      <c r="AQ96" s="1"/>
+      <c r="AR96" s="1"/>
+      <c r="AS96" s="56"/>
+      <c r="AV96" s="48"/>
+      <c r="AW96" s="1"/>
+      <c r="AX96" s="1"/>
+      <c r="AY96" s="1"/>
+      <c r="AZ96" s="1"/>
+      <c r="BA96" s="1"/>
+      <c r="BB96" s="1"/>
+      <c r="BC96" s="1"/>
+      <c r="BD96" s="1"/>
+      <c r="BE96" s="1"/>
+      <c r="BF96" s="1"/>
+      <c r="BG96" s="1"/>
+      <c r="BH96" s="1"/>
+      <c r="BI96" s="1"/>
+      <c r="BJ96" s="1"/>
+      <c r="BK96" s="1"/>
+      <c r="BL96" s="1"/>
+      <c r="BM96" s="1"/>
+      <c r="BN96" s="1"/>
+      <c r="BO96" s="56"/>
+    </row>
+    <row r="97" customHeight="1" spans="4:67">
+      <c r="D97" s="48"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+      <c r="O97" s="1"/>
+      <c r="P97" s="1"/>
+      <c r="Q97" s="1"/>
+      <c r="R97" s="1"/>
+      <c r="S97" s="1"/>
+      <c r="T97" s="1"/>
+      <c r="U97" s="1"/>
+      <c r="V97" s="1"/>
+      <c r="W97" s="56"/>
+      <c r="Z97" s="48"/>
+      <c r="AA97" s="1"/>
+      <c r="AB97" s="1"/>
+      <c r="AC97" s="1"/>
+      <c r="AD97" s="1"/>
+      <c r="AE97" s="1"/>
+      <c r="AF97" s="1"/>
+      <c r="AG97" s="1"/>
+      <c r="AH97" s="1"/>
+      <c r="AI97" s="1"/>
+      <c r="AJ97" s="1"/>
+      <c r="AK97" s="1"/>
+      <c r="AL97" s="1"/>
+      <c r="AM97" s="1"/>
+      <c r="AN97" s="1"/>
+      <c r="AO97" s="1"/>
+      <c r="AP97" s="1"/>
+      <c r="AQ97" s="1"/>
+      <c r="AR97" s="1"/>
+      <c r="AS97" s="56"/>
+      <c r="AV97" s="48"/>
+      <c r="AW97" s="1"/>
+      <c r="AX97" s="1"/>
+      <c r="AY97" s="1"/>
+      <c r="AZ97" s="1"/>
+      <c r="BA97" s="1"/>
+      <c r="BB97" s="1"/>
+      <c r="BC97" s="1"/>
+      <c r="BD97" s="1"/>
+      <c r="BE97" s="1"/>
+      <c r="BF97" s="1"/>
+      <c r="BG97" s="1"/>
+      <c r="BH97" s="1"/>
+      <c r="BI97" s="1"/>
+      <c r="BJ97" s="1"/>
+      <c r="BK97" s="1"/>
+      <c r="BL97" s="1"/>
+      <c r="BM97" s="1"/>
+      <c r="BN97" s="1"/>
+      <c r="BO97" s="56"/>
+    </row>
+    <row r="98" customHeight="1" spans="4:67">
+      <c r="D98" s="48"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+      <c r="O98" s="1"/>
+      <c r="P98" s="1"/>
+      <c r="Q98" s="1"/>
+      <c r="R98" s="1"/>
+      <c r="S98" s="1"/>
+      <c r="T98" s="1"/>
+      <c r="U98" s="1"/>
+      <c r="V98" s="1"/>
+      <c r="W98" s="56"/>
+      <c r="Z98" s="48"/>
+      <c r="AA98" s="1"/>
+      <c r="AB98" s="1"/>
+      <c r="AC98" s="1"/>
+      <c r="AD98" s="1"/>
+      <c r="AE98" s="1"/>
+      <c r="AF98" s="1"/>
+      <c r="AG98" s="1"/>
+      <c r="AH98" s="1"/>
+      <c r="AI98" s="1"/>
+      <c r="AJ98" s="1"/>
+      <c r="AK98" s="1"/>
+      <c r="AL98" s="1"/>
+      <c r="AM98" s="1"/>
+      <c r="AN98" s="1"/>
+      <c r="AO98" s="1"/>
+      <c r="AP98" s="1"/>
+      <c r="AQ98" s="1"/>
+      <c r="AR98" s="1"/>
+      <c r="AS98" s="56"/>
+      <c r="AV98" s="48"/>
+      <c r="AW98" s="1"/>
+      <c r="AX98" s="1"/>
+      <c r="AY98" s="1"/>
+      <c r="AZ98" s="1"/>
+      <c r="BA98" s="1"/>
+      <c r="BB98" s="1"/>
+      <c r="BC98" s="1"/>
+      <c r="BD98" s="1"/>
+      <c r="BE98" s="1"/>
+      <c r="BF98" s="1"/>
+      <c r="BG98" s="1"/>
+      <c r="BH98" s="1"/>
+      <c r="BI98" s="1"/>
+      <c r="BJ98" s="1"/>
+      <c r="BK98" s="1"/>
+      <c r="BL98" s="1"/>
+      <c r="BM98" s="1"/>
+      <c r="BN98" s="1"/>
+      <c r="BO98" s="56"/>
+    </row>
+    <row r="99" customHeight="1" spans="4:67">
+      <c r="D99" s="48"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+      <c r="O99" s="1"/>
+      <c r="P99" s="1"/>
+      <c r="Q99" s="1"/>
+      <c r="R99" s="1"/>
+      <c r="S99" s="1"/>
+      <c r="T99" s="1"/>
+      <c r="U99" s="1"/>
+      <c r="V99" s="1"/>
+      <c r="W99" s="56"/>
+      <c r="Z99" s="48"/>
+      <c r="AA99" s="1"/>
+      <c r="AB99" s="1"/>
+      <c r="AC99" s="1"/>
+      <c r="AD99" s="1"/>
+      <c r="AE99" s="1"/>
+      <c r="AF99" s="1"/>
+      <c r="AG99" s="1"/>
+      <c r="AH99" s="1"/>
+      <c r="AI99" s="1"/>
+      <c r="AJ99" s="1"/>
+      <c r="AK99" s="1"/>
+      <c r="AL99" s="1"/>
+      <c r="AM99" s="1"/>
+      <c r="AN99" s="1"/>
+      <c r="AO99" s="1"/>
+      <c r="AP99" s="1"/>
+      <c r="AQ99" s="1"/>
+      <c r="AR99" s="1"/>
+      <c r="AS99" s="56"/>
+      <c r="AV99" s="48"/>
+      <c r="AW99" s="1"/>
+      <c r="AX99" s="1"/>
+      <c r="AY99" s="1"/>
+      <c r="AZ99" s="1"/>
+      <c r="BA99" s="1"/>
+      <c r="BB99" s="1"/>
+      <c r="BC99" s="1"/>
+      <c r="BD99" s="1"/>
+      <c r="BE99" s="1"/>
+      <c r="BF99" s="1"/>
+      <c r="BG99" s="1"/>
+      <c r="BH99" s="1"/>
+      <c r="BI99" s="1"/>
+      <c r="BJ99" s="1"/>
+      <c r="BK99" s="1"/>
+      <c r="BL99" s="1"/>
+      <c r="BM99" s="1"/>
+      <c r="BN99" s="1"/>
+      <c r="BO99" s="56"/>
+    </row>
+    <row r="100" customHeight="1" spans="4:67">
+      <c r="D100" s="48"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="83"/>
+      <c r="N100" s="83"/>
+      <c r="O100" s="1"/>
+      <c r="P100" s="1"/>
+      <c r="Q100" s="1"/>
+      <c r="R100" s="1"/>
+      <c r="S100" s="1"/>
+      <c r="T100" s="1"/>
+      <c r="U100" s="1"/>
+      <c r="V100" s="1"/>
+      <c r="W100" s="56"/>
+      <c r="Z100" s="48"/>
+      <c r="AA100" s="1"/>
+      <c r="AB100" s="1"/>
+      <c r="AC100" s="1"/>
+      <c r="AD100" s="1"/>
+      <c r="AE100" s="1"/>
+      <c r="AF100" s="1"/>
+      <c r="AG100" s="1"/>
+      <c r="AH100" s="1"/>
+      <c r="AI100" s="83"/>
+      <c r="AJ100" s="83"/>
+      <c r="AK100" s="1"/>
+      <c r="AL100" s="1"/>
+      <c r="AM100" s="1"/>
+      <c r="AN100" s="1"/>
+      <c r="AO100" s="1"/>
+      <c r="AP100" s="1"/>
+      <c r="AQ100" s="1"/>
+      <c r="AR100" s="1"/>
+      <c r="AS100" s="56"/>
+      <c r="AV100" s="48"/>
+      <c r="AW100" s="1"/>
+      <c r="AX100" s="1"/>
+      <c r="AY100" s="1"/>
+      <c r="AZ100" s="1"/>
+      <c r="BA100" s="1"/>
+      <c r="BB100" s="1"/>
+      <c r="BC100" s="1"/>
+      <c r="BD100" s="1"/>
+      <c r="BE100" s="83"/>
+      <c r="BF100" s="83"/>
+      <c r="BG100" s="1"/>
+      <c r="BH100" s="1"/>
+      <c r="BI100" s="1"/>
+      <c r="BJ100" s="1"/>
+      <c r="BK100" s="1"/>
+      <c r="BL100" s="1"/>
+      <c r="BM100" s="1"/>
+      <c r="BN100" s="1"/>
+      <c r="BO100" s="56"/>
+    </row>
+    <row r="101" customHeight="1" spans="4:67">
+      <c r="D101" s="48"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="84"/>
+      <c r="N101" s="84"/>
+      <c r="O101" s="1"/>
+      <c r="P101" s="1"/>
+      <c r="Q101" s="1"/>
+      <c r="R101" s="1"/>
+      <c r="S101" s="1"/>
+      <c r="T101" s="1"/>
+      <c r="U101" s="1"/>
+      <c r="V101" s="1"/>
+      <c r="W101" s="56"/>
+      <c r="Z101" s="48"/>
+      <c r="AA101" s="1"/>
+      <c r="AB101" s="1"/>
+      <c r="AC101" s="1"/>
+      <c r="AD101" s="1"/>
+      <c r="AE101" s="1"/>
+      <c r="AF101" s="1"/>
+      <c r="AG101" s="1"/>
+      <c r="AH101" s="1"/>
+      <c r="AI101" s="84"/>
+      <c r="AJ101" s="84"/>
+      <c r="AK101" s="1"/>
+      <c r="AL101" s="1"/>
+      <c r="AM101" s="1"/>
+      <c r="AN101" s="1"/>
+      <c r="AO101" s="1"/>
+      <c r="AP101" s="1"/>
+      <c r="AQ101" s="1"/>
+      <c r="AR101" s="1"/>
+      <c r="AS101" s="56"/>
+      <c r="AV101" s="48"/>
+      <c r="AW101" s="1"/>
+      <c r="AX101" s="1"/>
+      <c r="AY101" s="1"/>
+      <c r="AZ101" s="1"/>
+      <c r="BA101" s="1"/>
+      <c r="BB101" s="1"/>
+      <c r="BC101" s="1"/>
+      <c r="BD101" s="1"/>
+      <c r="BE101" s="84"/>
+      <c r="BF101" s="84"/>
+      <c r="BG101" s="1"/>
+      <c r="BH101" s="1"/>
+      <c r="BI101" s="1"/>
+      <c r="BJ101" s="1"/>
+      <c r="BK101" s="1"/>
+      <c r="BL101" s="1"/>
+      <c r="BM101" s="1"/>
+      <c r="BN101" s="1"/>
+      <c r="BO101" s="56"/>
+    </row>
+    <row r="102" customHeight="1" spans="4:67">
+      <c r="D102" s="51"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c r="H102" s="8"/>
+      <c r="I102" s="8"/>
+      <c r="J102" s="8"/>
+      <c r="K102" s="8"/>
+      <c r="L102" s="8"/>
+      <c r="M102" s="52"/>
+      <c r="N102" s="52">
         <v>3</v>
       </c>
-      <c r="O92" s="8">
+      <c r="O102" s="8">
         <v>2</v>
       </c>
-      <c r="P92" s="8">
+      <c r="P102" s="8">
         <v>1</v>
       </c>
-      <c r="Q92" s="8"/>
-      <c r="R92" s="8"/>
-      <c r="S92" s="8"/>
-      <c r="T92" s="8"/>
-      <c r="U92" s="8"/>
-      <c r="V92" s="8"/>
-      <c r="W92" s="60"/>
-      <c r="Z92" s="51"/>
-      <c r="AA92" s="8"/>
-      <c r="AB92" s="8"/>
-      <c r="AC92" s="8"/>
-      <c r="AD92" s="8"/>
-      <c r="AE92" s="8"/>
-      <c r="AF92" s="8"/>
-      <c r="AG92" s="8"/>
-      <c r="AH92" s="8"/>
-      <c r="AI92" s="52"/>
-      <c r="AJ92" s="52">
+      <c r="Q102" s="8"/>
+      <c r="R102" s="8"/>
+      <c r="S102" s="8"/>
+      <c r="T102" s="8"/>
+      <c r="U102" s="8"/>
+      <c r="V102" s="8"/>
+      <c r="W102" s="60"/>
+      <c r="Z102" s="51"/>
+      <c r="AA102" s="8"/>
+      <c r="AB102" s="8"/>
+      <c r="AC102" s="8"/>
+      <c r="AD102" s="8"/>
+      <c r="AE102" s="8"/>
+      <c r="AF102" s="8"/>
+      <c r="AG102" s="8"/>
+      <c r="AH102" s="8"/>
+      <c r="AI102" s="52"/>
+      <c r="AJ102" s="52">
         <v>3</v>
       </c>
-      <c r="AK92" s="8">
+      <c r="AK102" s="8">
         <v>2</v>
       </c>
-      <c r="AL92" s="8">
+      <c r="AL102" s="8">
         <v>1</v>
       </c>
-      <c r="AM92" s="8"/>
-      <c r="AN92" s="8"/>
-      <c r="AO92" s="8"/>
-      <c r="AP92" s="8"/>
-      <c r="AQ92" s="8"/>
-      <c r="AR92" s="8"/>
-      <c r="AS92" s="60"/>
-      <c r="AV92" s="51"/>
-      <c r="AW92" s="8"/>
-      <c r="AX92" s="8"/>
-      <c r="AY92" s="8"/>
-      <c r="AZ92" s="8"/>
-      <c r="BA92" s="8"/>
-      <c r="BB92" s="8"/>
-      <c r="BC92" s="8"/>
-      <c r="BD92" s="8"/>
-      <c r="BE92" s="52"/>
-      <c r="BF92" s="52">
+      <c r="AM102" s="8"/>
+      <c r="AN102" s="8"/>
+      <c r="AO102" s="8"/>
+      <c r="AP102" s="8"/>
+      <c r="AQ102" s="8"/>
+      <c r="AR102" s="8"/>
+      <c r="AS102" s="60"/>
+      <c r="AV102" s="51"/>
+      <c r="AW102" s="8"/>
+      <c r="AX102" s="8"/>
+      <c r="AY102" s="8"/>
+      <c r="AZ102" s="8"/>
+      <c r="BA102" s="8"/>
+      <c r="BB102" s="8"/>
+      <c r="BC102" s="8"/>
+      <c r="BD102" s="8"/>
+      <c r="BE102" s="52"/>
+      <c r="BF102" s="52">
         <v>3</v>
       </c>
-      <c r="BG92" s="8">
+      <c r="BG102" s="8">
         <v>2</v>
       </c>
-      <c r="BH92" s="8">
+      <c r="BH102" s="8">
         <v>1</v>
       </c>
-      <c r="BI92" s="8"/>
-      <c r="BJ92" s="8"/>
-      <c r="BK92" s="8"/>
-      <c r="BL92" s="8"/>
-      <c r="BM92" s="8"/>
-      <c r="BN92" s="8"/>
-      <c r="BO92" s="60"/>
+      <c r="BI102" s="8"/>
+      <c r="BJ102" s="8"/>
+      <c r="BK102" s="8"/>
+      <c r="BL102" s="8"/>
+      <c r="BM102" s="8"/>
+      <c r="BN102" s="8"/>
+      <c r="BO102" s="60"/>
     </row>
-    <row r="93" customHeight="1" spans="4:67">
-      <c r="D93" s="53"/>
-      <c r="E93" s="54"/>
-      <c r="F93" s="54"/>
-      <c r="G93" s="54"/>
-      <c r="H93" s="54"/>
-      <c r="I93" s="54"/>
-      <c r="J93" s="54"/>
-      <c r="K93" s="54"/>
-      <c r="L93" s="54"/>
-      <c r="M93" s="54"/>
-      <c r="N93" s="54"/>
-      <c r="O93" s="54"/>
-      <c r="P93" s="54"/>
-      <c r="Q93" s="54"/>
-      <c r="R93" s="54"/>
-      <c r="S93" s="54"/>
-      <c r="T93" s="54"/>
-      <c r="U93" s="54"/>
-      <c r="V93" s="54"/>
-      <c r="W93" s="61"/>
-      <c r="Z93" s="53"/>
-      <c r="AA93" s="54"/>
-      <c r="AB93" s="54"/>
-      <c r="AC93" s="54"/>
-      <c r="AD93" s="54"/>
-      <c r="AE93" s="54"/>
-      <c r="AF93" s="54"/>
-      <c r="AG93" s="54"/>
-      <c r="AH93" s="54"/>
-      <c r="AI93" s="54"/>
-      <c r="AJ93" s="54"/>
-      <c r="AK93" s="54"/>
-      <c r="AL93" s="54"/>
-      <c r="AM93" s="54"/>
-      <c r="AN93" s="54"/>
-      <c r="AO93" s="54"/>
-      <c r="AP93" s="54"/>
-      <c r="AQ93" s="54"/>
-      <c r="AR93" s="54"/>
-      <c r="AS93" s="61"/>
-      <c r="AV93" s="53"/>
-      <c r="AW93" s="54"/>
-      <c r="AX93" s="54"/>
-      <c r="AY93" s="54"/>
-      <c r="AZ93" s="54"/>
-      <c r="BA93" s="54"/>
-      <c r="BB93" s="54"/>
-      <c r="BC93" s="54"/>
-      <c r="BD93" s="54"/>
-      <c r="BE93" s="54"/>
-      <c r="BF93" s="54"/>
-      <c r="BG93" s="54"/>
-      <c r="BH93" s="54"/>
-      <c r="BI93" s="54"/>
-      <c r="BJ93" s="54"/>
-      <c r="BK93" s="54"/>
-      <c r="BL93" s="54"/>
-      <c r="BM93" s="54"/>
-      <c r="BN93" s="54"/>
-      <c r="BO93" s="61"/>
+    <row r="103" customHeight="1" spans="4:67">
+      <c r="D103" s="53"/>
+      <c r="E103" s="54"/>
+      <c r="F103" s="54"/>
+      <c r="G103" s="54"/>
+      <c r="H103" s="54"/>
+      <c r="I103" s="54"/>
+      <c r="J103" s="54"/>
+      <c r="K103" s="54"/>
+      <c r="L103" s="54"/>
+      <c r="M103" s="54"/>
+      <c r="N103" s="54"/>
+      <c r="O103" s="54"/>
+      <c r="P103" s="54"/>
+      <c r="Q103" s="54"/>
+      <c r="R103" s="54"/>
+      <c r="S103" s="54"/>
+      <c r="T103" s="54"/>
+      <c r="U103" s="54"/>
+      <c r="V103" s="54"/>
+      <c r="W103" s="61"/>
+      <c r="Z103" s="53"/>
+      <c r="AA103" s="54"/>
+      <c r="AB103" s="54"/>
+      <c r="AC103" s="54"/>
+      <c r="AD103" s="54"/>
+      <c r="AE103" s="54"/>
+      <c r="AF103" s="54"/>
+      <c r="AG103" s="54"/>
+      <c r="AH103" s="54"/>
+      <c r="AI103" s="54"/>
+      <c r="AJ103" s="54"/>
+      <c r="AK103" s="54"/>
+      <c r="AL103" s="54"/>
+      <c r="AM103" s="54"/>
+      <c r="AN103" s="54"/>
+      <c r="AO103" s="54"/>
+      <c r="AP103" s="54"/>
+      <c r="AQ103" s="54"/>
+      <c r="AR103" s="54"/>
+      <c r="AS103" s="61"/>
+      <c r="AV103" s="53"/>
+      <c r="AW103" s="54"/>
+      <c r="AX103" s="54"/>
+      <c r="AY103" s="54"/>
+      <c r="AZ103" s="54"/>
+      <c r="BA103" s="54"/>
+      <c r="BB103" s="54"/>
+      <c r="BC103" s="54"/>
+      <c r="BD103" s="54"/>
+      <c r="BE103" s="54"/>
+      <c r="BF103" s="54"/>
+      <c r="BG103" s="54"/>
+      <c r="BH103" s="54"/>
+      <c r="BI103" s="54"/>
+      <c r="BJ103" s="54"/>
+      <c r="BK103" s="54"/>
+      <c r="BL103" s="54"/>
+      <c r="BM103" s="54"/>
+      <c r="BN103" s="54"/>
+      <c r="BO103" s="61"/>
     </row>
-    <row r="94" customHeight="1" spans="12:43">
-      <c r="L94" t="s">
-        <v>12</v>
+    <row r="104" customHeight="1" spans="12:43">
+      <c r="L104" t="s">
+        <v>13</v>
       </c>
-      <c r="AQ94" t="s">
-        <v>13</v>
+      <c r="AQ104" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -26946,7 +28687,7 @@
   <sheetData>
     <row r="2" customHeight="1" spans="2:2">
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:31">
@@ -27018,7 +28759,7 @@
     <row r="5" customHeight="1" spans="1:31">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -27119,7 +28860,7 @@
     <row r="8" customHeight="1" spans="1:31">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -27408,23 +29149,23 @@
       <c r="B17" s="48"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="49"/>
       <c r="G17" s="1"/>
       <c r="H17" s="50" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I17" s="57"/>
       <c r="J17" s="1"/>
       <c r="K17" s="50" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L17" s="57"/>
       <c r="M17" s="1"/>
       <c r="N17" s="50" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O17" s="58"/>
       <c r="P17" s="58"/>
@@ -27744,7 +29485,7 @@
     </row>
     <row r="22" customHeight="1" spans="2:65">
       <c r="B22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -28079,7 +29820,7 @@
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="49" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -28115,7 +29856,7 @@
       <c r="AK27" s="1"/>
       <c r="AL27" s="1"/>
       <c r="AM27" s="49" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN27" s="1"/>
       <c r="AO27" s="1"/>
@@ -28149,7 +29890,7 @@
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="49" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -28184,7 +29925,7 @@
       <c r="AJ28" s="1"/>
       <c r="AK28" s="1"/>
       <c r="AL28" s="49" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM28" s="1"/>
       <c r="AN28" s="1"/>
@@ -28219,7 +29960,7 @@
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="49" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -28251,7 +29992,7 @@
       <c r="AI29" s="1"/>
       <c r="AJ29" s="1"/>
       <c r="AK29" s="49" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL29" s="1"/>
       <c r="AM29" s="1"/>
@@ -28265,7 +30006,7 @@
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="49" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -28296,7 +30037,7 @@
       <c r="AH30" s="1"/>
       <c r="AI30" s="1"/>
       <c r="AJ30" s="49" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK30" s="1"/>
       <c r="AL30" s="1"/>
@@ -28311,7 +30052,7 @@
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="49" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -28341,7 +30082,7 @@
       <c r="AG31" s="1"/>
       <c r="AH31" s="1"/>
       <c r="AI31" s="49" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ31" s="1"/>
       <c r="AK31" s="1"/>
@@ -28480,13 +30221,13 @@
     </row>
     <row r="35" customHeight="1" spans="19:19">
       <c r="S35" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="21:22">
       <c r="U37" s="59"/>
       <c r="V37" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -28706,7 +30447,7 @@
       <c r="S14" s="18"/>
       <c r="T14" s="18"/>
       <c r="U14" s="28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="V14" s="18"/>
       <c r="W14" s="18"/>
@@ -28943,7 +30684,7 @@
       <c r="U30" s="18"/>
       <c r="V30" s="18"/>
       <c r="W30" s="18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="X30" s="18"/>
       <c r="Y30" s="18"/>
@@ -29711,7 +31452,7 @@
       <c r="Y81" s="18"/>
       <c r="Z81" s="18"/>
       <c r="AA81" s="27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AB81" s="18"/>
       <c r="AC81" s="18"/>
@@ -30275,7 +32016,7 @@
       <c r="S121" s="18"/>
       <c r="T121" s="18"/>
       <c r="U121" s="27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V121" s="44"/>
       <c r="W121" s="44"/>
@@ -30831,7 +32572,7 @@
       <c r="S158" s="18"/>
       <c r="T158" s="18"/>
       <c r="U158" s="27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V158" s="44"/>
       <c r="W158" s="44"/>
@@ -30970,8 +32711,8 @@
   <sheetPr/>
   <dimension ref="J6:BB92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="AN7" sqref="AN7"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="BH18" sqref="BH18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="15" customHeight="1"/>
@@ -31048,7 +32789,7 @@
       <c r="AC8" s="18"/>
       <c r="AD8" s="30"/>
       <c r="AH8" s="35" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI8" s="35"/>
       <c r="AJ8" s="35"/>
@@ -31137,7 +32878,7 @@
       <c r="S12" s="18"/>
       <c r="T12" s="18"/>
       <c r="U12" s="28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="V12" s="18"/>
       <c r="W12" s="18"/>
@@ -31371,7 +33112,7 @@
       <c r="U28" s="18"/>
       <c r="V28" s="18"/>
       <c r="W28" s="18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="X28" s="18"/>
       <c r="Y28" s="18"/>
@@ -32226,7 +33967,7 @@
       <c r="V80" s="18"/>
       <c r="W80" s="18"/>
       <c r="Y80" s="27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Z80" s="18"/>
       <c r="AA80" s="18"/>
@@ -32617,7 +34358,7 @@
       <c r="T2" s="3"/>
       <c r="U2" s="12"/>
       <c r="X2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:21">
@@ -32864,10 +34605,10 @@
     </row>
     <row r="16" customHeight="1" spans="4:7">
       <c r="D16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:14">
@@ -32877,7 +34618,7 @@
       <c r="E18" s="6"/>
       <c r="F18" s="7"/>
       <c r="G18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="10"/>
@@ -32885,7 +34626,7 @@
       <c r="K18" s="10"/>
       <c r="L18" s="11"/>
       <c r="N18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -32913,45 +34654,45 @@
   <sheetData>
     <row r="11" customHeight="1" spans="21:21">
       <c r="U11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="47:47">
       <c r="AU37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="21:21">
       <c r="U44" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="105:105">
       <c r="DA48" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="29:29">
       <c r="AC49" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="98:98">
       <c r="CT57" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="29:54">
       <c r="AC59" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="BB59" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="47:47">
       <c r="AU67" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -33044,7 +34785,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="AA5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:17">
@@ -33139,7 +34880,7 @@
     </row>
     <row r="16" customHeight="1" spans="7:7">
       <c r="G16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -33163,60 +34904,60 @@
   <sheetData>
     <row r="5" spans="10:13">
       <c r="J5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="12:12">
       <c r="L6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="6:12">
       <c r="F8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="10:12">
       <c r="J10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="10:12">
       <c r="J13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="12:12">
       <c r="L14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
